--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/236e6b124acc9753/Documents/Indicators/Data/Fiscal Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{974BB5E7-0477-4EED-86EA-209F8CBDF3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7711131-5C56-49D8-83D8-0FFEB9291342}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0A9E6-2C24-42B0-BC5B-8457A22E7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="2835" windowWidth="13830" windowHeight="9120" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="13245" yWindow="300" windowWidth="15540" windowHeight="11385" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1836,10 +1836,10 @@
   <dimension ref="A1:PQ19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="PF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="PE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="PL2" sqref="PL2"/>
+      <selection pane="bottomRight" activeCell="PO2" sqref="PO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3879,9 +3879,15 @@
       <c r="PK2" s="2">
         <v>11604633</v>
       </c>
-      <c r="PL2" s="2"/>
-      <c r="PM2" s="2"/>
-      <c r="PN2" s="2"/>
+      <c r="PL2" s="2">
+        <v>12054772</v>
+      </c>
+      <c r="PM2" s="2">
+        <v>12074737</v>
+      </c>
+      <c r="PN2" s="2">
+        <v>12349910</v>
+      </c>
       <c r="PO2" s="2"/>
       <c r="PP2" s="2"/>
       <c r="PQ2" s="2"/>
@@ -5000,9 +5006,15 @@
       <c r="PK3" s="2">
         <v>11166033</v>
       </c>
-      <c r="PL3" s="2"/>
-      <c r="PM3" s="2"/>
-      <c r="PN3" s="2"/>
+      <c r="PL3" s="2">
+        <v>11610465</v>
+      </c>
+      <c r="PM3" s="2">
+        <v>11642519</v>
+      </c>
+      <c r="PN3" s="2">
+        <v>11917047</v>
+      </c>
       <c r="PO3" s="2"/>
       <c r="PP3" s="2"/>
       <c r="PQ3" s="2"/>
@@ -6121,9 +6133,15 @@
       <c r="PK4" s="2">
         <v>7938557</v>
       </c>
-      <c r="PL4" s="2"/>
-      <c r="PM4" s="2"/>
-      <c r="PN4" s="2"/>
+      <c r="PL4" s="2">
+        <v>8119598</v>
+      </c>
+      <c r="PM4" s="2">
+        <v>8220304</v>
+      </c>
+      <c r="PN4" s="2">
+        <v>8387753</v>
+      </c>
       <c r="PO4" s="2"/>
       <c r="PP4" s="2"/>
       <c r="PQ4" s="2"/>
@@ -7194,9 +7212,15 @@
       <c r="PK5" s="2">
         <v>540156</v>
       </c>
-      <c r="PL5" s="2"/>
-      <c r="PM5" s="2"/>
-      <c r="PN5" s="2"/>
+      <c r="PL5" s="2">
+        <v>540156</v>
+      </c>
+      <c r="PM5" s="2">
+        <v>540156</v>
+      </c>
+      <c r="PN5" s="2">
+        <v>540156</v>
+      </c>
       <c r="PO5" s="2"/>
       <c r="PP5" s="2"/>
       <c r="PQ5" s="2"/>
@@ -8267,9 +8291,15 @@
       <c r="PK6" s="2">
         <v>7398401</v>
       </c>
-      <c r="PL6" s="2"/>
-      <c r="PM6" s="2"/>
-      <c r="PN6" s="2"/>
+      <c r="PL6" s="2">
+        <v>7579442</v>
+      </c>
+      <c r="PM6" s="2">
+        <v>7680148</v>
+      </c>
+      <c r="PN6" s="2">
+        <v>7847597</v>
+      </c>
       <c r="PO6" s="2"/>
       <c r="PP6" s="2"/>
       <c r="PQ6" s="2"/>
@@ -9388,9 +9418,15 @@
       <c r="PK7" s="2">
         <v>3227476</v>
       </c>
-      <c r="PL7" s="2"/>
-      <c r="PM7" s="2"/>
-      <c r="PN7" s="2"/>
+      <c r="PL7" s="2">
+        <v>3490867</v>
+      </c>
+      <c r="PM7" s="2">
+        <v>3422215</v>
+      </c>
+      <c r="PN7" s="2">
+        <v>3529294</v>
+      </c>
       <c r="PO7" s="2"/>
       <c r="PP7" s="2"/>
       <c r="PQ7" s="2"/>
@@ -10461,9 +10497,15 @@
       <c r="PK8" s="2">
         <v>1415064</v>
       </c>
-      <c r="PL8" s="2"/>
-      <c r="PM8" s="2"/>
-      <c r="PN8" s="2"/>
+      <c r="PL8" s="2">
+        <v>1471994</v>
+      </c>
+      <c r="PM8" s="2">
+        <v>1471188</v>
+      </c>
+      <c r="PN8" s="2">
+        <v>1542150</v>
+      </c>
       <c r="PO8" s="2"/>
       <c r="PP8" s="2"/>
       <c r="PQ8" s="2"/>
@@ -11534,9 +11576,15 @@
       <c r="PK9" s="2">
         <v>1812412</v>
       </c>
-      <c r="PL9" s="2"/>
-      <c r="PM9" s="2"/>
-      <c r="PN9" s="2"/>
+      <c r="PL9" s="2">
+        <v>2018873</v>
+      </c>
+      <c r="PM9" s="2">
+        <v>1951027</v>
+      </c>
+      <c r="PN9" s="2">
+        <v>1987144</v>
+      </c>
       <c r="PO9" s="2"/>
       <c r="PP9" s="2"/>
       <c r="PQ9" s="2"/>
@@ -12271,9 +12319,15 @@
       <c r="PK10" s="2">
         <v>438600</v>
       </c>
-      <c r="PL10" s="2"/>
-      <c r="PM10" s="2"/>
-      <c r="PN10" s="2"/>
+      <c r="PL10" s="2">
+        <v>444307</v>
+      </c>
+      <c r="PM10" s="2">
+        <v>432218</v>
+      </c>
+      <c r="PN10" s="2">
+        <v>432863</v>
+      </c>
       <c r="PO10" s="2"/>
       <c r="PP10" s="2"/>
       <c r="PQ10" s="2"/>
@@ -13008,9 +13062,15 @@
       <c r="PK11" s="2">
         <v>244076</v>
       </c>
-      <c r="PL11" s="2"/>
-      <c r="PM11" s="2"/>
-      <c r="PN11" s="2"/>
+      <c r="PL11" s="2">
+        <v>242653</v>
+      </c>
+      <c r="PM11" s="2">
+        <v>233113</v>
+      </c>
+      <c r="PN11" s="2">
+        <v>232969</v>
+      </c>
       <c r="PO11" s="2"/>
       <c r="PP11" s="2"/>
       <c r="PQ11" s="2"/>
@@ -13745,9 +13805,15 @@
       <c r="PK12" s="2">
         <v>194524</v>
       </c>
-      <c r="PL12" s="2"/>
-      <c r="PM12" s="2"/>
-      <c r="PN12" s="2"/>
+      <c r="PL12" s="2">
+        <v>201654</v>
+      </c>
+      <c r="PM12" s="2">
+        <v>199105</v>
+      </c>
+      <c r="PN12" s="2">
+        <v>199894</v>
+      </c>
       <c r="PO12" s="2"/>
       <c r="PP12" s="2"/>
       <c r="PQ12" s="2"/>
@@ -14418,7 +14484,7 @@
         <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D0A9E6-2C24-42B0-BC5B-8457A22E7FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CF811-6803-43A9-B9D7-68C541D6012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13245" yWindow="300" windowWidth="15540" windowHeight="11385" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="2655" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1835,11 +1835,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83A7B3-B32D-4D6D-A830-2CD2CA0CA03D}">
   <dimension ref="A1:PQ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="PE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="PO2" sqref="PO2"/>
+      <selection pane="bottomRight" activeCell="PR1" sqref="PR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3888,9 +3888,15 @@
       <c r="PN2" s="2">
         <v>12349910</v>
       </c>
-      <c r="PO2" s="2"/>
-      <c r="PP2" s="2"/>
-      <c r="PQ2" s="2"/>
+      <c r="PO2" s="2">
+        <v>12397996</v>
+      </c>
+      <c r="PP2" s="2">
+        <v>12349675</v>
+      </c>
+      <c r="PQ2" s="2">
+        <v>12152466</v>
+      </c>
     </row>
     <row r="3" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5015,9 +5021,15 @@
       <c r="PN3" s="2">
         <v>11917047</v>
       </c>
-      <c r="PO3" s="2"/>
-      <c r="PP3" s="2"/>
-      <c r="PQ3" s="2"/>
+      <c r="PO3" s="2">
+        <v>11971532</v>
+      </c>
+      <c r="PP3" s="2">
+        <v>11931828</v>
+      </c>
+      <c r="PQ3" s="2">
+        <v>11728549</v>
+      </c>
     </row>
     <row r="4" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6142,9 +6154,15 @@
       <c r="PN4" s="2">
         <v>8387753</v>
       </c>
-      <c r="PO4" s="2"/>
-      <c r="PP4" s="2"/>
-      <c r="PQ4" s="2"/>
+      <c r="PO4" s="2">
+        <v>8468408</v>
+      </c>
+      <c r="PP4" s="2">
+        <v>8441502</v>
+      </c>
+      <c r="PQ4" s="2">
+        <v>8170414</v>
+      </c>
     </row>
     <row r="5" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7221,9 +7239,15 @@
       <c r="PN5" s="2">
         <v>540156</v>
       </c>
-      <c r="PO5" s="2"/>
-      <c r="PP5" s="2"/>
-      <c r="PQ5" s="2"/>
+      <c r="PO5" s="2">
+        <v>540156</v>
+      </c>
+      <c r="PP5" s="2">
+        <v>540156</v>
+      </c>
+      <c r="PQ5" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8300,9 +8324,15 @@
       <c r="PN6" s="2">
         <v>7847597</v>
       </c>
-      <c r="PO6" s="2"/>
-      <c r="PP6" s="2"/>
-      <c r="PQ6" s="2"/>
+      <c r="PO6" s="2">
+        <v>7928252</v>
+      </c>
+      <c r="PP6" s="2">
+        <v>7901346</v>
+      </c>
+      <c r="PQ6" s="2">
+        <v>8170258</v>
+      </c>
     </row>
     <row r="7" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -9427,9 +9457,15 @@
       <c r="PN7" s="2">
         <v>3529294</v>
       </c>
-      <c r="PO7" s="2"/>
-      <c r="PP7" s="2"/>
-      <c r="PQ7" s="2"/>
+      <c r="PO7" s="2">
+        <v>3503124</v>
+      </c>
+      <c r="PP7" s="2">
+        <v>3490326</v>
+      </c>
+      <c r="PQ7" s="2">
+        <v>3558135</v>
+      </c>
     </row>
     <row r="8" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -10506,9 +10542,15 @@
       <c r="PN8" s="2">
         <v>1542150</v>
       </c>
-      <c r="PO8" s="2"/>
-      <c r="PP8" s="2"/>
-      <c r="PQ8" s="2"/>
+      <c r="PO8" s="2">
+        <v>1529576</v>
+      </c>
+      <c r="PP8" s="2">
+        <v>1527793</v>
+      </c>
+      <c r="PQ8" s="2">
+        <v>1574246</v>
+      </c>
     </row>
     <row r="9" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -11585,9 +11627,15 @@
       <c r="PN9" s="2">
         <v>1987144</v>
       </c>
-      <c r="PO9" s="2"/>
-      <c r="PP9" s="2"/>
-      <c r="PQ9" s="2"/>
+      <c r="PO9" s="2">
+        <v>1973548</v>
+      </c>
+      <c r="PP9" s="2">
+        <v>1962533</v>
+      </c>
+      <c r="PQ9" s="2">
+        <v>1983889</v>
+      </c>
     </row>
     <row r="10" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -12328,9 +12376,15 @@
       <c r="PN10" s="2">
         <v>432863</v>
       </c>
-      <c r="PO10" s="2"/>
-      <c r="PP10" s="2"/>
-      <c r="PQ10" s="2"/>
+      <c r="PO10" s="2">
+        <v>426464</v>
+      </c>
+      <c r="PP10" s="2">
+        <v>417847</v>
+      </c>
+      <c r="PQ10" s="2">
+        <v>423917</v>
+      </c>
     </row>
     <row r="11" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -13071,9 +13125,15 @@
       <c r="PN11" s="2">
         <v>232969</v>
       </c>
-      <c r="PO11" s="2"/>
-      <c r="PP11" s="2"/>
-      <c r="PQ11" s="2"/>
+      <c r="PO11" s="2">
+        <v>194026</v>
+      </c>
+      <c r="PP11" s="2">
+        <v>189083</v>
+      </c>
+      <c r="PQ11" s="2">
+        <v>195075</v>
+      </c>
     </row>
     <row r="12" spans="1:433" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -13814,9 +13874,15 @@
       <c r="PN12" s="2">
         <v>199894</v>
       </c>
-      <c r="PO12" s="2"/>
-      <c r="PP12" s="2"/>
-      <c r="PQ12" s="2"/>
+      <c r="PO12" s="2">
+        <v>232438</v>
+      </c>
+      <c r="PP12" s="2">
+        <v>228764</v>
+      </c>
+      <c r="PQ12" s="2">
+        <v>228842</v>
+      </c>
     </row>
     <row r="14" spans="1:433" x14ac:dyDescent="0.25">
       <c r="PE14" s="2"/>
@@ -13834,21 +13900,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C02CD3A-99C8-4C95-BFC1-453A97FD647F}">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="47" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13987,8 +14054,11 @@
       <c r="AT1">
         <v>2020</v>
       </c>
+      <c r="AU1">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>421</v>
       </c>
@@ -14127,8 +14197,11 @@
       <c r="AT2" s="2">
         <v>9795006</v>
       </c>
+      <c r="AU2" s="2">
+        <v>11728549</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -14267,8 +14340,11 @@
       <c r="AT3" s="2">
         <v>6694687</v>
       </c>
+      <c r="AU3" s="2">
+        <v>8170414</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>425</v>
       </c>
@@ -14406,6 +14482,9 @@
       </c>
       <c r="AT4" s="2">
         <v>3100319</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>3558135</v>
       </c>
     </row>
   </sheetData>
@@ -14418,7 +14497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5896838-F7D9-4F29-9E42-CDFCD60FC5B6}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -14484,7 +14563,7 @@
         <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CF811-6803-43A9-B9D7-68C541D6012D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7964AD8-6105-477B-8EEB-C4D820699DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2655" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="2610" yWindow="2160" windowWidth="12345" windowHeight="11385" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="482">
   <si>
     <t>Particulars</t>
   </si>
@@ -1439,13 +1439,49 @@
     <t>December 2021</t>
   </si>
   <si>
-    <t>2009 - 2021</t>
-  </si>
-  <si>
-    <t>1993 - 2021</t>
-  </si>
-  <si>
-    <t>1995 - 2008; 2009 - 2021</t>
+    <t>January 2022</t>
+  </si>
+  <si>
+    <t>February 2022</t>
+  </si>
+  <si>
+    <t>March 2022</t>
+  </si>
+  <si>
+    <t>April 2022</t>
+  </si>
+  <si>
+    <t>May 2022</t>
+  </si>
+  <si>
+    <t>June 2022</t>
+  </si>
+  <si>
+    <t>July 2022</t>
+  </si>
+  <si>
+    <t>August 2022</t>
+  </si>
+  <si>
+    <t>September 2022</t>
+  </si>
+  <si>
+    <t>October 2022</t>
+  </si>
+  <si>
+    <t>November 2022</t>
+  </si>
+  <si>
+    <t>December 2022</t>
+  </si>
+  <si>
+    <t>2009 - 2022</t>
+  </si>
+  <si>
+    <t>1993 - 2022</t>
+  </si>
+  <si>
+    <t>1995 - 2008; 2009 - 2022</t>
   </si>
 </sst>
 </file>
@@ -1833,22 +1869,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83A7B3-B32D-4D6D-A830-2CD2CA0CA03D}">
-  <dimension ref="A1:PQ19"/>
+  <dimension ref="A1:QC19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="PE2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="PL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="PR1" sqref="PR1"/>
+      <selection pane="bottomRight" activeCell="PU1" sqref="PU1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="433" width="10.7109375" customWidth="1"/>
+    <col min="2" max="445" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3148,8 +3184,44 @@
       <c r="PQ1" s="1" t="s">
         <v>466</v>
       </c>
+      <c r="PR1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="PS1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="PT1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="PU1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="PV1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="PW1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="PX1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="PY1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="PZ1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="QA1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="QB1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="QC1" s="1" t="s">
+        <v>478</v>
+      </c>
     </row>
-    <row r="2" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -3897,8 +3969,26 @@
       <c r="PQ2" s="2">
         <v>12152466</v>
       </c>
+      <c r="PR2" s="2">
+        <v>12452188</v>
+      </c>
+      <c r="PS2" s="2">
+        <v>12509704</v>
+      </c>
+      <c r="PT2" s="2">
+        <v>13090829</v>
+      </c>
+      <c r="PU2" s="2"/>
+      <c r="PV2" s="2"/>
+      <c r="PW2" s="2"/>
+      <c r="PX2" s="2"/>
+      <c r="PY2" s="2"/>
+      <c r="PZ2" s="2"/>
+      <c r="QA2" s="2"/>
+      <c r="QB2" s="2"/>
+      <c r="QC2" s="2"/>
     </row>
-    <row r="3" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>421</v>
       </c>
@@ -5030,8 +5120,26 @@
       <c r="PQ3" s="2">
         <v>11728549</v>
       </c>
+      <c r="PR3" s="2">
+        <v>12029672</v>
+      </c>
+      <c r="PS3" s="2">
+        <v>12093500</v>
+      </c>
+      <c r="PT3" s="2">
+        <v>12679785</v>
+      </c>
+      <c r="PU3" s="2"/>
+      <c r="PV3" s="2"/>
+      <c r="PW3" s="2"/>
+      <c r="PX3" s="2"/>
+      <c r="PY3" s="2"/>
+      <c r="PZ3" s="2"/>
+      <c r="QA3" s="2"/>
+      <c r="QB3" s="2"/>
+      <c r="QC3" s="2"/>
     </row>
-    <row r="4" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>422</v>
       </c>
@@ -6163,8 +6271,26 @@
       <c r="PQ4" s="2">
         <v>8170414</v>
       </c>
+      <c r="PR4" s="2">
+        <v>8367788</v>
+      </c>
+      <c r="PS4" s="2">
+        <v>8413204</v>
+      </c>
+      <c r="PT4" s="2">
+        <v>8868651</v>
+      </c>
+      <c r="PU4" s="2"/>
+      <c r="PV4" s="2"/>
+      <c r="PW4" s="2"/>
+      <c r="PX4" s="2"/>
+      <c r="PY4" s="2"/>
+      <c r="PZ4" s="2"/>
+      <c r="QA4" s="2"/>
+      <c r="QB4" s="2"/>
+      <c r="QC4" s="2"/>
     </row>
-    <row r="5" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>423</v>
       </c>
@@ -7248,8 +7374,26 @@
       <c r="PQ5" s="2">
         <v>156</v>
       </c>
+      <c r="PR5" s="2">
+        <v>300156</v>
+      </c>
+      <c r="PS5" s="2">
+        <v>300156</v>
+      </c>
+      <c r="PT5" s="2">
+        <v>300156</v>
+      </c>
+      <c r="PU5" s="2"/>
+      <c r="PV5" s="2"/>
+      <c r="PW5" s="2"/>
+      <c r="PX5" s="2"/>
+      <c r="PY5" s="2"/>
+      <c r="PZ5" s="2"/>
+      <c r="QA5" s="2"/>
+      <c r="QB5" s="2"/>
+      <c r="QC5" s="2"/>
     </row>
-    <row r="6" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -8333,8 +8477,26 @@
       <c r="PQ6" s="2">
         <v>8170258</v>
       </c>
+      <c r="PR6" s="2">
+        <v>8067632</v>
+      </c>
+      <c r="PS6" s="2">
+        <v>8113048</v>
+      </c>
+      <c r="PT6" s="2">
+        <v>8568495</v>
+      </c>
+      <c r="PU6" s="2"/>
+      <c r="PV6" s="2"/>
+      <c r="PW6" s="2"/>
+      <c r="PX6" s="2"/>
+      <c r="PY6" s="2"/>
+      <c r="PZ6" s="2"/>
+      <c r="QA6" s="2"/>
+      <c r="QB6" s="2"/>
+      <c r="QC6" s="2"/>
     </row>
-    <row r="7" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>425</v>
       </c>
@@ -9466,8 +9628,26 @@
       <c r="PQ7" s="2">
         <v>3558135</v>
       </c>
+      <c r="PR7" s="2">
+        <v>3661884</v>
+      </c>
+      <c r="PS7" s="2">
+        <v>3680296</v>
+      </c>
+      <c r="PT7" s="2">
+        <v>3811134</v>
+      </c>
+      <c r="PU7" s="2"/>
+      <c r="PV7" s="2"/>
+      <c r="PW7" s="2"/>
+      <c r="PX7" s="2"/>
+      <c r="PY7" s="2"/>
+      <c r="PZ7" s="2"/>
+      <c r="QA7" s="2"/>
+      <c r="QB7" s="2"/>
+      <c r="QC7" s="2"/>
     </row>
-    <row r="8" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>426</v>
       </c>
@@ -10551,8 +10731,26 @@
       <c r="PQ8" s="2">
         <v>1574246</v>
       </c>
+      <c r="PR8" s="2">
+        <v>1673954</v>
+      </c>
+      <c r="PS8" s="2">
+        <v>1684137</v>
+      </c>
+      <c r="PT8" s="2">
+        <v>1686930</v>
+      </c>
+      <c r="PU8" s="2"/>
+      <c r="PV8" s="2"/>
+      <c r="PW8" s="2"/>
+      <c r="PX8" s="2"/>
+      <c r="PY8" s="2"/>
+      <c r="PZ8" s="2"/>
+      <c r="QA8" s="2"/>
+      <c r="QB8" s="2"/>
+      <c r="QC8" s="2"/>
     </row>
-    <row r="9" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>427</v>
       </c>
@@ -11636,8 +11834,26 @@
       <c r="PQ9" s="2">
         <v>1983889</v>
       </c>
+      <c r="PR9" s="2">
+        <v>1987930</v>
+      </c>
+      <c r="PS9" s="2">
+        <v>1996159</v>
+      </c>
+      <c r="PT9" s="2">
+        <v>2124204</v>
+      </c>
+      <c r="PU9" s="2"/>
+      <c r="PV9" s="2"/>
+      <c r="PW9" s="2"/>
+      <c r="PX9" s="2"/>
+      <c r="PY9" s="2"/>
+      <c r="PZ9" s="2"/>
+      <c r="QA9" s="2"/>
+      <c r="QB9" s="2"/>
+      <c r="QC9" s="2"/>
     </row>
-    <row r="10" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>431</v>
       </c>
@@ -12385,8 +12601,26 @@
       <c r="PQ10" s="2">
         <v>423917</v>
       </c>
+      <c r="PR10" s="2">
+        <v>422516</v>
+      </c>
+      <c r="PS10" s="2">
+        <v>416204</v>
+      </c>
+      <c r="PT10" s="2">
+        <v>411044</v>
+      </c>
+      <c r="PU10" s="2"/>
+      <c r="PV10" s="2"/>
+      <c r="PW10" s="2"/>
+      <c r="PX10" s="2"/>
+      <c r="PY10" s="2"/>
+      <c r="PZ10" s="2"/>
+      <c r="QA10" s="2"/>
+      <c r="QB10" s="2"/>
+      <c r="QC10" s="2"/>
     </row>
-    <row r="11" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>429</v>
       </c>
@@ -13134,8 +13368,26 @@
       <c r="PQ11" s="2">
         <v>195075</v>
       </c>
+      <c r="PR11" s="2">
+        <v>192957</v>
+      </c>
+      <c r="PS11" s="2">
+        <v>188890</v>
+      </c>
+      <c r="PT11" s="2">
+        <v>188135</v>
+      </c>
+      <c r="PU11" s="2"/>
+      <c r="PV11" s="2"/>
+      <c r="PW11" s="2"/>
+      <c r="PX11" s="2"/>
+      <c r="PY11" s="2"/>
+      <c r="PZ11" s="2"/>
+      <c r="QA11" s="2"/>
+      <c r="QB11" s="2"/>
+      <c r="QC11" s="2"/>
     </row>
-    <row r="12" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>430</v>
       </c>
@@ -13883,8 +14135,26 @@
       <c r="PQ12" s="2">
         <v>228842</v>
       </c>
+      <c r="PR12" s="2">
+        <v>229559</v>
+      </c>
+      <c r="PS12" s="2">
+        <v>227314</v>
+      </c>
+      <c r="PT12" s="2">
+        <v>222909</v>
+      </c>
+      <c r="PU12" s="2"/>
+      <c r="PV12" s="2"/>
+      <c r="PW12" s="2"/>
+      <c r="PX12" s="2"/>
+      <c r="PY12" s="2"/>
+      <c r="PZ12" s="2"/>
+      <c r="QA12" s="2"/>
+      <c r="QB12" s="2"/>
+      <c r="QC12" s="2"/>
     </row>
-    <row r="14" spans="1:433" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:445" x14ac:dyDescent="0.25">
       <c r="PE14" s="2"/>
       <c r="PQ14" s="2"/>
     </row>
@@ -13903,10 +14173,10 @@
   <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AU5" sqref="AU5"/>
+      <selection pane="bottomRight" activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14497,9 +14767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5896838-F7D9-4F29-9E42-CDFCD60FC5B6}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14563,7 +14831,7 @@
         <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -14579,7 +14847,7 @@
         <v>442</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -14587,7 +14855,7 @@
         <v>443</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -14595,7 +14863,7 @@
         <v>444</v>
       </c>
       <c r="B13" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -14603,7 +14871,7 @@
         <v>445</v>
       </c>
       <c r="B14" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -14611,7 +14879,7 @@
         <v>446</v>
       </c>
       <c r="B15" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -14619,7 +14887,7 @@
         <v>447</v>
       </c>
       <c r="B16" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -14627,7 +14895,7 @@
         <v>445</v>
       </c>
       <c r="B17" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -14635,7 +14903,7 @@
         <v>446</v>
       </c>
       <c r="B18" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -14643,7 +14911,7 @@
         <v>448</v>
       </c>
       <c r="B19" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -14651,7 +14919,7 @@
         <v>449</v>
       </c>
       <c r="B20" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -14659,7 +14927,7 @@
         <v>450</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7964AD8-6105-477B-8EEB-C4D820699DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76949CD4-895C-472C-9EED-494A2C7B546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2160" windowWidth="12345" windowHeight="11385" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="1215" yWindow="2160" windowWidth="18570" windowHeight="10815" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1875,7 +1875,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="PL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="PU1" sqref="PU1"/>
+      <selection pane="bottomRight" activeCell="PX2" sqref="PX2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,9 +3978,15 @@
       <c r="PT2" s="2">
         <v>13090829</v>
       </c>
-      <c r="PU2" s="2"/>
-      <c r="PV2" s="2"/>
-      <c r="PW2" s="2"/>
+      <c r="PU2" s="2">
+        <v>13176615</v>
+      </c>
+      <c r="PV2" s="2">
+        <v>12895488</v>
+      </c>
+      <c r="PW2" s="2">
+        <v>13205756</v>
+      </c>
       <c r="PX2" s="2"/>
       <c r="PY2" s="2"/>
       <c r="PZ2" s="2"/>
@@ -5129,9 +5135,15 @@
       <c r="PT3" s="2">
         <v>12679785</v>
       </c>
-      <c r="PU3" s="2"/>
-      <c r="PV3" s="2"/>
-      <c r="PW3" s="2"/>
+      <c r="PU3" s="2">
+        <v>12763187</v>
+      </c>
+      <c r="PV3" s="2">
+        <v>12495772</v>
+      </c>
+      <c r="PW3" s="2">
+        <v>12791829</v>
+      </c>
       <c r="PX3" s="2"/>
       <c r="PY3" s="2"/>
       <c r="PZ3" s="2"/>
@@ -6280,9 +6292,15 @@
       <c r="PT4" s="2">
         <v>8868651</v>
       </c>
-      <c r="PU4" s="2"/>
-      <c r="PV4" s="2"/>
-      <c r="PW4" s="2"/>
+      <c r="PU4" s="2">
+        <v>8935854</v>
+      </c>
+      <c r="PV4" s="2">
+        <v>8665450</v>
+      </c>
+      <c r="PW4" s="2">
+        <v>8767110</v>
+      </c>
       <c r="PX4" s="2"/>
       <c r="PY4" s="2"/>
       <c r="PZ4" s="2"/>
@@ -7383,9 +7401,15 @@
       <c r="PT5" s="2">
         <v>300156</v>
       </c>
-      <c r="PU5" s="2"/>
-      <c r="PV5" s="2"/>
-      <c r="PW5" s="2"/>
+      <c r="PU5" s="2">
+        <v>300156</v>
+      </c>
+      <c r="PV5" s="2">
+        <v>156</v>
+      </c>
+      <c r="PW5" s="2">
+        <v>156</v>
+      </c>
       <c r="PX5" s="2"/>
       <c r="PY5" s="2"/>
       <c r="PZ5" s="2"/>
@@ -8486,9 +8510,15 @@
       <c r="PT6" s="2">
         <v>8568495</v>
       </c>
-      <c r="PU6" s="2"/>
-      <c r="PV6" s="2"/>
-      <c r="PW6" s="2"/>
+      <c r="PU6" s="2">
+        <v>8635698</v>
+      </c>
+      <c r="PV6" s="2">
+        <v>8665294</v>
+      </c>
+      <c r="PW6" s="2">
+        <v>8766954</v>
+      </c>
       <c r="PX6" s="2"/>
       <c r="PY6" s="2"/>
       <c r="PZ6" s="2"/>
@@ -9637,9 +9667,15 @@
       <c r="PT7" s="2">
         <v>3811134</v>
       </c>
-      <c r="PU7" s="2"/>
-      <c r="PV7" s="2"/>
-      <c r="PW7" s="2"/>
+      <c r="PU7" s="2">
+        <v>3827333</v>
+      </c>
+      <c r="PV7" s="2">
+        <v>3830322</v>
+      </c>
+      <c r="PW7" s="2">
+        <v>4024719</v>
+      </c>
       <c r="PX7" s="2"/>
       <c r="PY7" s="2"/>
       <c r="PZ7" s="2"/>
@@ -10740,9 +10776,15 @@
       <c r="PT8" s="2">
         <v>1686930</v>
       </c>
-      <c r="PU8" s="2"/>
-      <c r="PV8" s="2"/>
-      <c r="PW8" s="2"/>
+      <c r="PU8" s="2">
+        <v>1675248</v>
+      </c>
+      <c r="PV8" s="2">
+        <v>1690029</v>
+      </c>
+      <c r="PW8" s="2">
+        <v>1795604</v>
+      </c>
       <c r="PX8" s="2"/>
       <c r="PY8" s="2"/>
       <c r="PZ8" s="2"/>
@@ -11843,9 +11885,15 @@
       <c r="PT9" s="2">
         <v>2124204</v>
       </c>
-      <c r="PU9" s="2"/>
-      <c r="PV9" s="2"/>
-      <c r="PW9" s="2"/>
+      <c r="PU9" s="2">
+        <v>2152085</v>
+      </c>
+      <c r="PV9" s="2">
+        <v>2140293</v>
+      </c>
+      <c r="PW9" s="2">
+        <v>2229115</v>
+      </c>
       <c r="PX9" s="2"/>
       <c r="PY9" s="2"/>
       <c r="PZ9" s="2"/>
@@ -12610,9 +12658,15 @@
       <c r="PT10" s="2">
         <v>411044</v>
       </c>
-      <c r="PU10" s="2"/>
-      <c r="PV10" s="2"/>
-      <c r="PW10" s="2"/>
+      <c r="PU10" s="2">
+        <v>413428</v>
+      </c>
+      <c r="PV10" s="2">
+        <v>399716</v>
+      </c>
+      <c r="PW10" s="2">
+        <v>413927</v>
+      </c>
       <c r="PX10" s="2"/>
       <c r="PY10" s="2"/>
       <c r="PZ10" s="2"/>
@@ -13377,9 +13431,15 @@
       <c r="PT11" s="2">
         <v>188135</v>
       </c>
-      <c r="PU11" s="2"/>
-      <c r="PV11" s="2"/>
-      <c r="PW11" s="2"/>
+      <c r="PU11" s="2">
+        <v>194292</v>
+      </c>
+      <c r="PV11" s="2">
+        <v>185885</v>
+      </c>
+      <c r="PW11" s="2">
+        <v>195224</v>
+      </c>
       <c r="PX11" s="2"/>
       <c r="PY11" s="2"/>
       <c r="PZ11" s="2"/>
@@ -14144,9 +14204,15 @@
       <c r="PT12" s="2">
         <v>222909</v>
       </c>
-      <c r="PU12" s="2"/>
-      <c r="PV12" s="2"/>
-      <c r="PW12" s="2"/>
+      <c r="PU12" s="2">
+        <v>219136</v>
+      </c>
+      <c r="PV12" s="2">
+        <v>213831</v>
+      </c>
+      <c r="PW12" s="2">
+        <v>218703</v>
+      </c>
       <c r="PX12" s="2"/>
       <c r="PY12" s="2"/>
       <c r="PZ12" s="2"/>
@@ -14831,7 +14897,7 @@
         <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76949CD4-895C-472C-9EED-494A2C7B546D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD2777-F6DB-44D7-8B9F-58522A832B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="2160" windowWidth="18570" windowHeight="10815" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="13890" yWindow="4245" windowWidth="13380" windowHeight="11385" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1872,10 +1872,10 @@
   <dimension ref="A1:QC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="PL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="PR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="PX2" sqref="PX2"/>
+      <selection pane="bottomRight" activeCell="QA1" sqref="QA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3987,9 +3987,15 @@
       <c r="PW2" s="2">
         <v>13205756</v>
       </c>
-      <c r="PX2" s="2"/>
-      <c r="PY2" s="2"/>
-      <c r="PZ2" s="2"/>
+      <c r="PX2" s="2">
+        <v>13295917</v>
+      </c>
+      <c r="PY2" s="2">
+        <v>13414313</v>
+      </c>
+      <c r="PZ2" s="2">
+        <v>13914320</v>
+      </c>
       <c r="QA2" s="2"/>
       <c r="QB2" s="2"/>
       <c r="QC2" s="2"/>
@@ -5144,9 +5150,15 @@
       <c r="PW3" s="2">
         <v>12791829</v>
       </c>
-      <c r="PX3" s="2"/>
-      <c r="PY3" s="2"/>
-      <c r="PZ3" s="2"/>
+      <c r="PX3" s="2">
+        <v>12887918</v>
+      </c>
+      <c r="PY3" s="2">
+        <v>13021554</v>
+      </c>
+      <c r="PZ3" s="2">
+        <v>13517100</v>
+      </c>
       <c r="QA3" s="2"/>
       <c r="QB3" s="2"/>
       <c r="QC3" s="2"/>
@@ -6301,9 +6313,15 @@
       <c r="PW4" s="2">
         <v>8767110</v>
       </c>
-      <c r="PX4" s="2"/>
-      <c r="PY4" s="2"/>
-      <c r="PZ4" s="2"/>
+      <c r="PX4" s="2">
+        <v>8832181</v>
+      </c>
+      <c r="PY4" s="2">
+        <v>8943389</v>
+      </c>
+      <c r="PZ4" s="2">
+        <v>9300660</v>
+      </c>
       <c r="QA4" s="2"/>
       <c r="QB4" s="2"/>
       <c r="QC4" s="2"/>
@@ -7410,9 +7428,15 @@
       <c r="PW5" s="2">
         <v>156</v>
       </c>
-      <c r="PX5" s="2"/>
-      <c r="PY5" s="2"/>
-      <c r="PZ5" s="2"/>
+      <c r="PX5" s="2">
+        <v>156</v>
+      </c>
+      <c r="PY5" s="2">
+        <v>156</v>
+      </c>
+      <c r="PZ5" s="2">
+        <v>156</v>
+      </c>
       <c r="QA5" s="2"/>
       <c r="QB5" s="2"/>
       <c r="QC5" s="2"/>
@@ -8519,9 +8543,15 @@
       <c r="PW6" s="2">
         <v>8766954</v>
       </c>
-      <c r="PX6" s="2"/>
-      <c r="PY6" s="2"/>
-      <c r="PZ6" s="2"/>
+      <c r="PX6" s="2">
+        <v>8832025</v>
+      </c>
+      <c r="PY6" s="2">
+        <v>8943233</v>
+      </c>
+      <c r="PZ6" s="2">
+        <v>9300504</v>
+      </c>
       <c r="QA6" s="2"/>
       <c r="QB6" s="2"/>
       <c r="QC6" s="2"/>
@@ -9676,9 +9706,15 @@
       <c r="PW7" s="2">
         <v>4024719</v>
       </c>
-      <c r="PX7" s="2"/>
-      <c r="PY7" s="2"/>
-      <c r="PZ7" s="2"/>
+      <c r="PX7" s="2">
+        <v>4055737</v>
+      </c>
+      <c r="PY7" s="2">
+        <v>4078165</v>
+      </c>
+      <c r="PZ7" s="2">
+        <v>4216440</v>
+      </c>
       <c r="QA7" s="2"/>
       <c r="QB7" s="2"/>
       <c r="QC7" s="2"/>
@@ -10785,9 +10821,15 @@
       <c r="PW8" s="2">
         <v>1795604</v>
       </c>
-      <c r="PX8" s="2"/>
-      <c r="PY8" s="2"/>
-      <c r="PZ8" s="2"/>
+      <c r="PX8" s="2">
+        <v>1816698</v>
+      </c>
+      <c r="PY8" s="2">
+        <v>1826918</v>
+      </c>
+      <c r="PZ8" s="2">
+        <v>1890917</v>
+      </c>
       <c r="QA8" s="2"/>
       <c r="QB8" s="2"/>
       <c r="QC8" s="2"/>
@@ -11894,9 +11936,15 @@
       <c r="PW9" s="2">
         <v>2229115</v>
       </c>
-      <c r="PX9" s="2"/>
-      <c r="PY9" s="2"/>
-      <c r="PZ9" s="2"/>
+      <c r="PX9" s="2">
+        <v>2239039</v>
+      </c>
+      <c r="PY9" s="2">
+        <v>2251247</v>
+      </c>
+      <c r="PZ9" s="2">
+        <v>2325523</v>
+      </c>
       <c r="QA9" s="2"/>
       <c r="QB9" s="2"/>
       <c r="QC9" s="2"/>
@@ -12667,9 +12715,15 @@
       <c r="PW10" s="2">
         <v>413927</v>
       </c>
-      <c r="PX10" s="2"/>
-      <c r="PY10" s="2"/>
-      <c r="PZ10" s="2"/>
+      <c r="PX10" s="2">
+        <v>407999</v>
+      </c>
+      <c r="PY10" s="2">
+        <v>392759</v>
+      </c>
+      <c r="PZ10" s="2">
+        <v>397220</v>
+      </c>
       <c r="QA10" s="2"/>
       <c r="QB10" s="2"/>
       <c r="QC10" s="2"/>
@@ -13440,9 +13494,15 @@
       <c r="PW11" s="2">
         <v>195224</v>
       </c>
-      <c r="PX11" s="2"/>
-      <c r="PY11" s="2"/>
-      <c r="PZ11" s="2"/>
+      <c r="PX11" s="2">
+        <v>186657</v>
+      </c>
+      <c r="PY11" s="2">
+        <v>182231</v>
+      </c>
+      <c r="PZ11" s="2">
+        <v>182218</v>
+      </c>
       <c r="QA11" s="2"/>
       <c r="QB11" s="2"/>
       <c r="QC11" s="2"/>
@@ -14213,9 +14273,15 @@
       <c r="PW12" s="2">
         <v>218703</v>
       </c>
-      <c r="PX12" s="2"/>
-      <c r="PY12" s="2"/>
-      <c r="PZ12" s="2"/>
+      <c r="PX12" s="2">
+        <v>221342</v>
+      </c>
+      <c r="PY12" s="2">
+        <v>210528</v>
+      </c>
+      <c r="PZ12" s="2">
+        <v>215002</v>
+      </c>
       <c r="QA12" s="2"/>
       <c r="QB12" s="2"/>
       <c r="QC12" s="2"/>
@@ -14833,7 +14899,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5896838-F7D9-4F29-9E42-CDFCD60FC5B6}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14897,7 +14965,7 @@
         <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD2777-F6DB-44D7-8B9F-58522A832B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C968F3E5-3DE9-4B46-84D3-367C266D6FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13890" yWindow="4245" windowWidth="13380" windowHeight="11385" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1543,14 +1543,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1872,10 +1871,10 @@
   <dimension ref="A1:QC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="PR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="PY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="QA1" sqref="QA1"/>
+      <selection pane="bottomRight" activeCell="QC1" sqref="QC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3996,9 +3995,15 @@
       <c r="PZ2" s="2">
         <v>13914320</v>
       </c>
-      <c r="QA2" s="2"/>
-      <c r="QB2" s="2"/>
-      <c r="QC2" s="2"/>
+      <c r="QA2" s="2">
+        <v>14027553</v>
+      </c>
+      <c r="QB2" s="2">
+        <v>14032164</v>
+      </c>
+      <c r="QC2" s="2">
+        <v>13817906</v>
+      </c>
     </row>
     <row r="3" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5159,9 +5164,15 @@
       <c r="PZ3" s="2">
         <v>13517100</v>
       </c>
-      <c r="QA3" s="2"/>
-      <c r="QB3" s="2"/>
-      <c r="QC3" s="2"/>
+      <c r="QA3" s="2">
+        <v>13641019</v>
+      </c>
+      <c r="QB3" s="2">
+        <v>13644164</v>
+      </c>
+      <c r="QC3" s="2">
+        <v>13418860</v>
+      </c>
     </row>
     <row r="4" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6322,9 +6333,15 @@
       <c r="PZ4" s="2">
         <v>9300660</v>
       </c>
-      <c r="QA4" s="2"/>
-      <c r="QB4" s="2"/>
-      <c r="QC4" s="2"/>
+      <c r="QA4" s="2">
+        <v>9355236</v>
+      </c>
+      <c r="QB4" s="2">
+        <v>9427967</v>
+      </c>
+      <c r="QC4" s="2">
+        <v>9208387</v>
+      </c>
     </row>
     <row r="5" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7437,9 +7454,15 @@
       <c r="PZ5" s="2">
         <v>156</v>
       </c>
-      <c r="QA5" s="2"/>
-      <c r="QB5" s="2"/>
-      <c r="QC5" s="2"/>
+      <c r="QA5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QB5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QC5" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8552,9 +8575,15 @@
       <c r="PZ6" s="2">
         <v>9300504</v>
       </c>
-      <c r="QA6" s="2"/>
-      <c r="QB6" s="2"/>
-      <c r="QC6" s="2"/>
+      <c r="QA6" s="2">
+        <v>9355080</v>
+      </c>
+      <c r="QB6" s="2">
+        <v>9427811</v>
+      </c>
+      <c r="QC6" s="2">
+        <v>9208231</v>
+      </c>
     </row>
     <row r="7" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -9715,9 +9744,15 @@
       <c r="PZ7" s="2">
         <v>4216440</v>
       </c>
-      <c r="QA7" s="2"/>
-      <c r="QB7" s="2"/>
-      <c r="QC7" s="2"/>
+      <c r="QA7" s="2">
+        <v>4285783</v>
+      </c>
+      <c r="QB7" s="2">
+        <v>4216197</v>
+      </c>
+      <c r="QC7" s="2">
+        <v>4210473</v>
+      </c>
     </row>
     <row r="8" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -10830,9 +10865,15 @@
       <c r="PZ8" s="2">
         <v>1890917</v>
       </c>
-      <c r="QA8" s="2"/>
-      <c r="QB8" s="2"/>
-      <c r="QC8" s="2"/>
+      <c r="QA8" s="2">
+        <v>1867412</v>
+      </c>
+      <c r="QB8" s="2">
+        <v>1868100</v>
+      </c>
+      <c r="QC8" s="2">
+        <v>1883023</v>
+      </c>
     </row>
     <row r="9" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -11945,9 +11986,15 @@
       <c r="PZ9" s="2">
         <v>2325523</v>
       </c>
-      <c r="QA9" s="2"/>
-      <c r="QB9" s="2"/>
-      <c r="QC9" s="2"/>
+      <c r="QA9" s="2">
+        <v>2418371</v>
+      </c>
+      <c r="QB9" s="2">
+        <v>2348097</v>
+      </c>
+      <c r="QC9" s="2">
+        <v>2327450</v>
+      </c>
     </row>
     <row r="10" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -12724,9 +12771,15 @@
       <c r="PZ10" s="2">
         <v>397220</v>
       </c>
-      <c r="QA10" s="2"/>
-      <c r="QB10" s="2"/>
-      <c r="QC10" s="2"/>
+      <c r="QA10" s="2">
+        <v>386534</v>
+      </c>
+      <c r="QB10" s="2">
+        <v>388000</v>
+      </c>
+      <c r="QC10" s="2">
+        <v>399046</v>
+      </c>
     </row>
     <row r="11" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -13503,9 +13556,15 @@
       <c r="PZ11" s="2">
         <v>182218</v>
       </c>
-      <c r="QA11" s="2"/>
-      <c r="QB11" s="2"/>
-      <c r="QC11" s="2"/>
+      <c r="QA11" s="2">
+        <v>174920</v>
+      </c>
+      <c r="QB11" s="2">
+        <v>179579</v>
+      </c>
+      <c r="QC11" s="2">
+        <v>205765</v>
+      </c>
     </row>
     <row r="12" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -14282,9 +14341,15 @@
       <c r="PZ12" s="2">
         <v>215002</v>
       </c>
-      <c r="QA12" s="2"/>
-      <c r="QB12" s="2"/>
-      <c r="QC12" s="2"/>
+      <c r="QA12" s="2">
+        <v>211614</v>
+      </c>
+      <c r="QB12" s="2">
+        <v>208421</v>
+      </c>
+      <c r="QC12" s="2">
+        <v>193281</v>
+      </c>
     </row>
     <row r="14" spans="1:445" x14ac:dyDescent="0.25">
       <c r="PE14" s="2"/>
@@ -14302,7 +14367,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C02CD3A-99C8-4C95-BFC1-453A97FD647F}">
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:AV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
@@ -14314,10 +14379,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="47" width="10" customWidth="1"/>
+    <col min="2" max="48" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14459,8 +14524,11 @@
       <c r="AU1">
         <v>2021</v>
       </c>
+      <c r="AV1">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>421</v>
       </c>
@@ -14602,8 +14670,11 @@
       <c r="AU2" s="2">
         <v>11728549</v>
       </c>
+      <c r="AV2" s="2">
+        <v>13418860</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -14745,8 +14816,11 @@
       <c r="AU3" s="2">
         <v>8170414</v>
       </c>
+      <c r="AV3" s="2">
+        <v>9208387</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>425</v>
       </c>
@@ -14887,6 +14961,9 @@
       </c>
       <c r="AU4" s="2">
         <v>3558135</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>4210473</v>
       </c>
     </row>
   </sheetData>
@@ -14933,7 +15010,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>451</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -14941,13 +15018,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>454</v>
       </c>
@@ -14965,7 +15042,7 @@
         <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -15001,7 +15078,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" t="s">
         <v>445</v>
       </c>
       <c r="B14" t="s">
@@ -15009,7 +15086,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>446</v>
       </c>
       <c r="B15" t="s">
@@ -15025,7 +15102,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>445</v>
       </c>
       <c r="B17" t="s">
@@ -15033,7 +15110,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>446</v>
       </c>
       <c r="B18" t="s">

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-Projects\PH-Econ-Data\Data\Fiscal Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C968F3E5-3DE9-4B46-84D3-367C266D6FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD2777-F6DB-44D7-8B9F-58522A832B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="13890" yWindow="4245" windowWidth="13380" windowHeight="11385" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1543,13 +1543,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1871,10 +1872,10 @@
   <dimension ref="A1:QC19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="PY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="PR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="QC1" sqref="QC1"/>
+      <selection pane="bottomRight" activeCell="QA1" sqref="QA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,15 +3996,9 @@
       <c r="PZ2" s="2">
         <v>13914320</v>
       </c>
-      <c r="QA2" s="2">
-        <v>14027553</v>
-      </c>
-      <c r="QB2" s="2">
-        <v>14032164</v>
-      </c>
-      <c r="QC2" s="2">
-        <v>13817906</v>
-      </c>
+      <c r="QA2" s="2"/>
+      <c r="QB2" s="2"/>
+      <c r="QC2" s="2"/>
     </row>
     <row r="3" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5164,15 +5159,9 @@
       <c r="PZ3" s="2">
         <v>13517100</v>
       </c>
-      <c r="QA3" s="2">
-        <v>13641019</v>
-      </c>
-      <c r="QB3" s="2">
-        <v>13644164</v>
-      </c>
-      <c r="QC3" s="2">
-        <v>13418860</v>
-      </c>
+      <c r="QA3" s="2"/>
+      <c r="QB3" s="2"/>
+      <c r="QC3" s="2"/>
     </row>
     <row r="4" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6333,15 +6322,9 @@
       <c r="PZ4" s="2">
         <v>9300660</v>
       </c>
-      <c r="QA4" s="2">
-        <v>9355236</v>
-      </c>
-      <c r="QB4" s="2">
-        <v>9427967</v>
-      </c>
-      <c r="QC4" s="2">
-        <v>9208387</v>
-      </c>
+      <c r="QA4" s="2"/>
+      <c r="QB4" s="2"/>
+      <c r="QC4" s="2"/>
     </row>
     <row r="5" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7454,15 +7437,9 @@
       <c r="PZ5" s="2">
         <v>156</v>
       </c>
-      <c r="QA5" s="2">
-        <v>156</v>
-      </c>
-      <c r="QB5" s="2">
-        <v>156</v>
-      </c>
-      <c r="QC5" s="2">
-        <v>156</v>
-      </c>
+      <c r="QA5" s="2"/>
+      <c r="QB5" s="2"/>
+      <c r="QC5" s="2"/>
     </row>
     <row r="6" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8575,15 +8552,9 @@
       <c r="PZ6" s="2">
         <v>9300504</v>
       </c>
-      <c r="QA6" s="2">
-        <v>9355080</v>
-      </c>
-      <c r="QB6" s="2">
-        <v>9427811</v>
-      </c>
-      <c r="QC6" s="2">
-        <v>9208231</v>
-      </c>
+      <c r="QA6" s="2"/>
+      <c r="QB6" s="2"/>
+      <c r="QC6" s="2"/>
     </row>
     <row r="7" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -9744,15 +9715,9 @@
       <c r="PZ7" s="2">
         <v>4216440</v>
       </c>
-      <c r="QA7" s="2">
-        <v>4285783</v>
-      </c>
-      <c r="QB7" s="2">
-        <v>4216197</v>
-      </c>
-      <c r="QC7" s="2">
-        <v>4210473</v>
-      </c>
+      <c r="QA7" s="2"/>
+      <c r="QB7" s="2"/>
+      <c r="QC7" s="2"/>
     </row>
     <row r="8" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -10865,15 +10830,9 @@
       <c r="PZ8" s="2">
         <v>1890917</v>
       </c>
-      <c r="QA8" s="2">
-        <v>1867412</v>
-      </c>
-      <c r="QB8" s="2">
-        <v>1868100</v>
-      </c>
-      <c r="QC8" s="2">
-        <v>1883023</v>
-      </c>
+      <c r="QA8" s="2"/>
+      <c r="QB8" s="2"/>
+      <c r="QC8" s="2"/>
     </row>
     <row r="9" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -11986,15 +11945,9 @@
       <c r="PZ9" s="2">
         <v>2325523</v>
       </c>
-      <c r="QA9" s="2">
-        <v>2418371</v>
-      </c>
-      <c r="QB9" s="2">
-        <v>2348097</v>
-      </c>
-      <c r="QC9" s="2">
-        <v>2327450</v>
-      </c>
+      <c r="QA9" s="2"/>
+      <c r="QB9" s="2"/>
+      <c r="QC9" s="2"/>
     </row>
     <row r="10" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -12771,15 +12724,9 @@
       <c r="PZ10" s="2">
         <v>397220</v>
       </c>
-      <c r="QA10" s="2">
-        <v>386534</v>
-      </c>
-      <c r="QB10" s="2">
-        <v>388000</v>
-      </c>
-      <c r="QC10" s="2">
-        <v>399046</v>
-      </c>
+      <c r="QA10" s="2"/>
+      <c r="QB10" s="2"/>
+      <c r="QC10" s="2"/>
     </row>
     <row r="11" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -13556,15 +13503,9 @@
       <c r="PZ11" s="2">
         <v>182218</v>
       </c>
-      <c r="QA11" s="2">
-        <v>174920</v>
-      </c>
-      <c r="QB11" s="2">
-        <v>179579</v>
-      </c>
-      <c r="QC11" s="2">
-        <v>205765</v>
-      </c>
+      <c r="QA11" s="2"/>
+      <c r="QB11" s="2"/>
+      <c r="QC11" s="2"/>
     </row>
     <row r="12" spans="1:445" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -14341,15 +14282,9 @@
       <c r="PZ12" s="2">
         <v>215002</v>
       </c>
-      <c r="QA12" s="2">
-        <v>211614</v>
-      </c>
-      <c r="QB12" s="2">
-        <v>208421</v>
-      </c>
-      <c r="QC12" s="2">
-        <v>193281</v>
-      </c>
+      <c r="QA12" s="2"/>
+      <c r="QB12" s="2"/>
+      <c r="QC12" s="2"/>
     </row>
     <row r="14" spans="1:445" x14ac:dyDescent="0.25">
       <c r="PE14" s="2"/>
@@ -14367,7 +14302,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C02CD3A-99C8-4C95-BFC1-453A97FD647F}">
-  <dimension ref="A1:AV4"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
@@ -14379,10 +14314,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="48" width="10" customWidth="1"/>
+    <col min="2" max="47" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14524,11 +14459,8 @@
       <c r="AU1">
         <v>2021</v>
       </c>
-      <c r="AV1">
-        <v>2022</v>
-      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>421</v>
       </c>
@@ -14670,11 +14602,8 @@
       <c r="AU2" s="2">
         <v>11728549</v>
       </c>
-      <c r="AV2" s="2">
-        <v>13418860</v>
-      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -14816,11 +14745,8 @@
       <c r="AU3" s="2">
         <v>8170414</v>
       </c>
-      <c r="AV3" s="2">
-        <v>9208387</v>
-      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>425</v>
       </c>
@@ -14961,9 +14887,6 @@
       </c>
       <c r="AU4" s="2">
         <v>3558135</v>
-      </c>
-      <c r="AV4" s="2">
-        <v>4210473</v>
       </c>
     </row>
   </sheetData>
@@ -15010,7 +14933,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>451</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -15018,13 +14941,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="4" t="s">
         <v>454</v>
       </c>
@@ -15042,7 +14965,7 @@
         <v>438</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -15078,7 +15001,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="6" t="s">
         <v>445</v>
       </c>
       <c r="B14" t="s">
@@ -15086,7 +15009,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>446</v>
       </c>
       <c r="B15" t="s">
@@ -15102,7 +15025,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="6" t="s">
         <v>445</v>
       </c>
       <c r="B17" t="s">
@@ -15110,7 +15033,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="6" t="s">
         <v>446</v>
       </c>
       <c r="B18" t="s">

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-Projects\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C968F3E5-3DE9-4B46-84D3-367C266D6FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738A553-E5D0-4870-B69E-1AA166642D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="494">
   <si>
     <t>Particulars</t>
   </si>
@@ -1482,13 +1482,49 @@
   </si>
   <si>
     <t>1995 - 2008; 2009 - 2022</t>
+  </si>
+  <si>
+    <t>January 2023</t>
+  </si>
+  <si>
+    <t>February 2023</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>April 2023</t>
+  </si>
+  <si>
+    <t>May 2023</t>
+  </si>
+  <si>
+    <t>June 2023</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>August 2023</t>
+  </si>
+  <si>
+    <t>September 2023</t>
+  </si>
+  <si>
+    <t>October 2023</t>
+  </si>
+  <si>
+    <t>November 2023</t>
+  </si>
+  <si>
+    <t>December 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1521,6 +1557,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1539,9 +1580,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1554,9 +1596,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{339237D7-D151-47ED-BD50-CC1BA3D75236}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1868,22 +1911,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83A7B3-B32D-4D6D-A830-2CD2CA0CA03D}">
-  <dimension ref="A1:QC19"/>
+  <dimension ref="A1:QO19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="PY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="PZ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="QC1" sqref="QC1"/>
+      <selection pane="bottomRight" activeCell="QG2" sqref="QG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="445" width="10.7109375" customWidth="1"/>
+    <col min="2" max="457" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3219,8 +3262,44 @@
       <c r="QC1" s="1" t="s">
         <v>478</v>
       </c>
+      <c r="QD1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="QE1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="QF1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="QG1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="QH1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="QI1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="QJ1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="QK1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="QL1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="QM1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="QN1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="QO1" s="1" t="s">
+        <v>493</v>
+      </c>
     </row>
-    <row r="2" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>428</v>
       </c>
@@ -4004,8 +4083,26 @@
       <c r="QC2" s="2">
         <v>13817906</v>
       </c>
+      <c r="QD2" s="2">
+        <v>14092329</v>
+      </c>
+      <c r="QE2" s="2">
+        <v>14139944</v>
+      </c>
+      <c r="QF2" s="2">
+        <v>14241014</v>
+      </c>
+      <c r="QG2" s="2"/>
+      <c r="QH2" s="2"/>
+      <c r="QI2" s="2"/>
+      <c r="QJ2" s="2"/>
+      <c r="QK2" s="2"/>
+      <c r="QL2" s="2"/>
+      <c r="QM2" s="2"/>
+      <c r="QN2" s="2"/>
+      <c r="QO2" s="2"/>
     </row>
-    <row r="3" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>421</v>
       </c>
@@ -5173,8 +5270,26 @@
       <c r="QC3" s="2">
         <v>13418860</v>
       </c>
+      <c r="QD3" s="2">
+        <v>13698494</v>
+      </c>
+      <c r="QE3" s="2">
+        <v>13752754</v>
+      </c>
+      <c r="QF3" s="2">
+        <v>13856896</v>
+      </c>
+      <c r="QG3" s="2"/>
+      <c r="QH3" s="2"/>
+      <c r="QI3" s="2"/>
+      <c r="QJ3" s="2"/>
+      <c r="QK3" s="2"/>
+      <c r="QL3" s="2"/>
+      <c r="QM3" s="2"/>
+      <c r="QN3" s="2"/>
+      <c r="QO3" s="2"/>
     </row>
-    <row r="4" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>422</v>
       </c>
@@ -6342,8 +6457,26 @@
       <c r="QC4" s="2">
         <v>9208387</v>
       </c>
+      <c r="QD4" s="2">
+        <v>9384941</v>
+      </c>
+      <c r="QE4" s="2">
+        <v>9442162</v>
+      </c>
+      <c r="QF4" s="2">
+        <v>9513160</v>
+      </c>
+      <c r="QG4" s="2"/>
+      <c r="QH4" s="2"/>
+      <c r="QI4" s="2"/>
+      <c r="QJ4" s="2"/>
+      <c r="QK4" s="2"/>
+      <c r="QL4" s="2"/>
+      <c r="QM4" s="2"/>
+      <c r="QN4" s="2"/>
+      <c r="QO4" s="2"/>
     </row>
-    <row r="5" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>423</v>
       </c>
@@ -7463,8 +7596,26 @@
       <c r="QC5" s="2">
         <v>156</v>
       </c>
+      <c r="QD5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QE5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QF5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QG5" s="2"/>
+      <c r="QH5" s="2"/>
+      <c r="QI5" s="2"/>
+      <c r="QJ5" s="2"/>
+      <c r="QK5" s="2"/>
+      <c r="QL5" s="2"/>
+      <c r="QM5" s="2"/>
+      <c r="QN5" s="2"/>
+      <c r="QO5" s="2"/>
     </row>
-    <row r="6" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>424</v>
       </c>
@@ -8584,8 +8735,26 @@
       <c r="QC6" s="2">
         <v>9208231</v>
       </c>
+      <c r="QD6" s="2">
+        <v>9384785</v>
+      </c>
+      <c r="QE6" s="2">
+        <v>9442006</v>
+      </c>
+      <c r="QF6" s="2">
+        <v>9513004</v>
+      </c>
+      <c r="QG6" s="2"/>
+      <c r="QH6" s="2"/>
+      <c r="QI6" s="2"/>
+      <c r="QJ6" s="2"/>
+      <c r="QK6" s="2"/>
+      <c r="QL6" s="2"/>
+      <c r="QM6" s="2"/>
+      <c r="QN6" s="2"/>
+      <c r="QO6" s="2"/>
     </row>
-    <row r="7" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>425</v>
       </c>
@@ -9753,8 +9922,26 @@
       <c r="QC7" s="2">
         <v>4210473</v>
       </c>
+      <c r="QD7" s="2">
+        <v>4313553</v>
+      </c>
+      <c r="QE7" s="2">
+        <v>4310592</v>
+      </c>
+      <c r="QF7" s="2">
+        <v>4343736</v>
+      </c>
+      <c r="QG7" s="2"/>
+      <c r="QH7" s="2"/>
+      <c r="QI7" s="2"/>
+      <c r="QJ7" s="2"/>
+      <c r="QK7" s="2"/>
+      <c r="QL7" s="2"/>
+      <c r="QM7" s="2"/>
+      <c r="QN7" s="2"/>
+      <c r="QO7" s="2"/>
     </row>
-    <row r="8" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>426</v>
       </c>
@@ -10874,8 +11061,26 @@
       <c r="QC8" s="2">
         <v>1883023</v>
       </c>
+      <c r="QD8" s="2">
+        <v>1868183</v>
+      </c>
+      <c r="QE8" s="2">
+        <v>1883078</v>
+      </c>
+      <c r="QF8" s="2">
+        <v>1947472</v>
+      </c>
+      <c r="QG8" s="2"/>
+      <c r="QH8" s="2"/>
+      <c r="QI8" s="2"/>
+      <c r="QJ8" s="2"/>
+      <c r="QK8" s="2"/>
+      <c r="QL8" s="2"/>
+      <c r="QM8" s="2"/>
+      <c r="QN8" s="2"/>
+      <c r="QO8" s="2"/>
     </row>
-    <row r="9" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>427</v>
       </c>
@@ -11995,8 +12200,26 @@
       <c r="QC9" s="2">
         <v>2327450</v>
       </c>
+      <c r="QD9" s="2">
+        <v>2445370</v>
+      </c>
+      <c r="QE9" s="2">
+        <v>2427514</v>
+      </c>
+      <c r="QF9" s="2">
+        <v>2396264</v>
+      </c>
+      <c r="QG9" s="2"/>
+      <c r="QH9" s="2"/>
+      <c r="QI9" s="2"/>
+      <c r="QJ9" s="2"/>
+      <c r="QK9" s="2"/>
+      <c r="QL9" s="2"/>
+      <c r="QM9" s="2"/>
+      <c r="QN9" s="2"/>
+      <c r="QO9" s="2"/>
     </row>
-    <row r="10" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>431</v>
       </c>
@@ -12780,8 +13003,26 @@
       <c r="QC10" s="2">
         <v>399046</v>
       </c>
+      <c r="QD10" s="2">
+        <v>393835</v>
+      </c>
+      <c r="QE10" s="2">
+        <v>387190</v>
+      </c>
+      <c r="QF10" s="2">
+        <v>384118</v>
+      </c>
+      <c r="QG10" s="2"/>
+      <c r="QH10" s="2"/>
+      <c r="QI10" s="2"/>
+      <c r="QJ10" s="2"/>
+      <c r="QK10" s="2"/>
+      <c r="QL10" s="2"/>
+      <c r="QM10" s="2"/>
+      <c r="QN10" s="2"/>
+      <c r="QO10" s="2"/>
     </row>
-    <row r="11" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>429</v>
       </c>
@@ -13565,8 +13806,26 @@
       <c r="QC11" s="2">
         <v>205765</v>
       </c>
+      <c r="QD11" s="2">
+        <v>204654</v>
+      </c>
+      <c r="QE11" s="2">
+        <v>202093</v>
+      </c>
+      <c r="QF11" s="2">
+        <v>202083</v>
+      </c>
+      <c r="QG11" s="2"/>
+      <c r="QH11" s="2"/>
+      <c r="QI11" s="2"/>
+      <c r="QJ11" s="2"/>
+      <c r="QK11" s="2"/>
+      <c r="QL11" s="2"/>
+      <c r="QM11" s="2"/>
+      <c r="QN11" s="2"/>
+      <c r="QO11" s="2"/>
     </row>
-    <row r="12" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>430</v>
       </c>
@@ -14350,8 +14609,26 @@
       <c r="QC12" s="2">
         <v>193281</v>
       </c>
+      <c r="QD12" s="2">
+        <v>189181</v>
+      </c>
+      <c r="QE12" s="2">
+        <v>185097</v>
+      </c>
+      <c r="QF12" s="2">
+        <v>182035</v>
+      </c>
+      <c r="QG12" s="2"/>
+      <c r="QH12" s="2"/>
+      <c r="QI12" s="2"/>
+      <c r="QJ12" s="2"/>
+      <c r="QK12" s="2"/>
+      <c r="QL12" s="2"/>
+      <c r="QM12" s="2"/>
+      <c r="QN12" s="2"/>
+      <c r="QO12" s="2"/>
     </row>
-    <row r="14" spans="1:445" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:457" x14ac:dyDescent="0.25">
       <c r="PE14" s="2"/>
       <c r="PQ14" s="2"/>
     </row>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,1381 +1,1489 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-Projects\PH-Econ-Data\Data\Fiscal Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738A553-E5D0-4870-B69E-1AA166642D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{DF005910-37E0-4F7A-9E42-B5C736A21960}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
-    <sheet name="annual" sheetId="3" r:id="rId2"/>
-    <sheet name="metadata" sheetId="2" r:id="rId3"/>
+    <sheet name="ngdebt" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="annual" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="metadata" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="494">
   <si>
     <t>Particulars</t>
   </si>
   <si>
-    <t>January 1986</t>
-  </si>
-  <si>
-    <t>February 1986</t>
-  </si>
-  <si>
-    <t>March 1986</t>
-  </si>
-  <si>
-    <t>April 1986</t>
-  </si>
-  <si>
-    <t>May 1986</t>
-  </si>
-  <si>
-    <t>June 1986</t>
-  </si>
-  <si>
-    <t>July 1986</t>
-  </si>
-  <si>
-    <t>August 1986</t>
-  </si>
-  <si>
-    <t>September 1986</t>
-  </si>
-  <si>
-    <t>October 1986</t>
-  </si>
-  <si>
-    <t>November 1986</t>
-  </si>
-  <si>
-    <t>December 1986</t>
-  </si>
-  <si>
-    <t>January 1987</t>
-  </si>
-  <si>
-    <t>February 1987</t>
-  </si>
-  <si>
-    <t>March 1987</t>
-  </si>
-  <si>
-    <t>April 1987</t>
-  </si>
-  <si>
-    <t>May 1987</t>
-  </si>
-  <si>
-    <t>June 1987</t>
-  </si>
-  <si>
-    <t>July 1987</t>
-  </si>
-  <si>
-    <t>August 1987</t>
-  </si>
-  <si>
-    <t>September 1987</t>
-  </si>
-  <si>
-    <t>October 1987</t>
-  </si>
-  <si>
-    <t>November 1987</t>
-  </si>
-  <si>
-    <t>December 1987</t>
-  </si>
-  <si>
-    <t>January 1988</t>
-  </si>
-  <si>
-    <t>February 1988</t>
-  </si>
-  <si>
-    <t>March 1988</t>
-  </si>
-  <si>
-    <t>April 1988</t>
-  </si>
-  <si>
-    <t>May 1988</t>
-  </si>
-  <si>
-    <t>June 1988</t>
-  </si>
-  <si>
-    <t>July 1988</t>
-  </si>
-  <si>
-    <t>August 1988</t>
-  </si>
-  <si>
-    <t>September 1988</t>
-  </si>
-  <si>
-    <t>October 1988</t>
-  </si>
-  <si>
-    <t>November 1988</t>
-  </si>
-  <si>
-    <t>December 1988</t>
-  </si>
-  <si>
-    <t>January 1989</t>
-  </si>
-  <si>
-    <t>February 1989</t>
-  </si>
-  <si>
-    <t>March 1989</t>
-  </si>
-  <si>
-    <t>April 1989</t>
-  </si>
-  <si>
-    <t>May 1989</t>
-  </si>
-  <si>
-    <t>June 1989</t>
-  </si>
-  <si>
-    <t>July 1989</t>
-  </si>
-  <si>
-    <t>August 1989</t>
-  </si>
-  <si>
-    <t>September 1989</t>
-  </si>
-  <si>
-    <t>October 1989</t>
-  </si>
-  <si>
-    <t>November 1989</t>
-  </si>
-  <si>
-    <t>December 1989</t>
-  </si>
-  <si>
-    <t>January 1990</t>
-  </si>
-  <si>
-    <t>February 1990</t>
-  </si>
-  <si>
-    <t>March 1990</t>
-  </si>
-  <si>
-    <t>April 1990</t>
-  </si>
-  <si>
-    <t>May 1990</t>
-  </si>
-  <si>
-    <t>June 1990</t>
-  </si>
-  <si>
-    <t>July 1990</t>
-  </si>
-  <si>
-    <t>August 1990</t>
-  </si>
-  <si>
-    <t>September 1990</t>
-  </si>
-  <si>
-    <t>October 1990</t>
-  </si>
-  <si>
-    <t>November 1990</t>
-  </si>
-  <si>
-    <t>December 1990</t>
-  </si>
-  <si>
-    <t>January 1991</t>
-  </si>
-  <si>
-    <t>February 1991</t>
-  </si>
-  <si>
-    <t>March 1991</t>
-  </si>
-  <si>
-    <t>April 1991</t>
-  </si>
-  <si>
-    <t>May 1991</t>
-  </si>
-  <si>
-    <t>June 1991</t>
-  </si>
-  <si>
-    <t>July 1991</t>
-  </si>
-  <si>
-    <t>August 1991</t>
-  </si>
-  <si>
-    <t>September 1991</t>
-  </si>
-  <si>
-    <t>October 1991</t>
-  </si>
-  <si>
-    <t>November 1991</t>
-  </si>
-  <si>
-    <t>December 1991</t>
-  </si>
-  <si>
-    <t>January 1992</t>
-  </si>
-  <si>
-    <t>February 1992</t>
-  </si>
-  <si>
-    <t>March 1992</t>
-  </si>
-  <si>
-    <t>April 1992</t>
-  </si>
-  <si>
-    <t>May 1992</t>
-  </si>
-  <si>
-    <t>June 1992</t>
-  </si>
-  <si>
-    <t>July 1992</t>
-  </si>
-  <si>
-    <t>August 1992</t>
-  </si>
-  <si>
-    <t>September 1992</t>
-  </si>
-  <si>
-    <t>October 1992</t>
-  </si>
-  <si>
-    <t>November 1992</t>
-  </si>
-  <si>
-    <t>December 1992</t>
-  </si>
-  <si>
-    <t>January 1993</t>
-  </si>
-  <si>
-    <t>February 1993</t>
-  </si>
-  <si>
-    <t>March 1993</t>
-  </si>
-  <si>
-    <t>April 1993</t>
-  </si>
-  <si>
-    <t>May 1993</t>
-  </si>
-  <si>
-    <t>June 1993</t>
-  </si>
-  <si>
-    <t>July 1993</t>
-  </si>
-  <si>
-    <t>August 1993</t>
-  </si>
-  <si>
-    <t>September 1993</t>
-  </si>
-  <si>
-    <t>October 1993</t>
-  </si>
-  <si>
-    <t>November 1993</t>
-  </si>
-  <si>
-    <t>December 1993</t>
-  </si>
-  <si>
-    <t>January 1994</t>
-  </si>
-  <si>
-    <t>February 1994</t>
-  </si>
-  <si>
-    <t>March 1994</t>
-  </si>
-  <si>
-    <t>April 1994</t>
-  </si>
-  <si>
-    <t>May 1994</t>
-  </si>
-  <si>
-    <t>June 1994</t>
-  </si>
-  <si>
-    <t>July 1994</t>
-  </si>
-  <si>
-    <t>August 1994</t>
-  </si>
-  <si>
-    <t>September 1994</t>
-  </si>
-  <si>
-    <t>October 1994</t>
-  </si>
-  <si>
-    <t>November 1994</t>
-  </si>
-  <si>
-    <t>December 1994</t>
-  </si>
-  <si>
-    <t>January 1995</t>
-  </si>
-  <si>
-    <t>February 1995</t>
-  </si>
-  <si>
-    <t>March 1995</t>
-  </si>
-  <si>
-    <t>April 1995</t>
-  </si>
-  <si>
-    <t>May 1995</t>
-  </si>
-  <si>
-    <t>June 1995</t>
-  </si>
-  <si>
-    <t>July 1995</t>
-  </si>
-  <si>
-    <t>August 1995</t>
-  </si>
-  <si>
-    <t>September 1995</t>
-  </si>
-  <si>
-    <t>October 1995</t>
-  </si>
-  <si>
-    <t>November 1995</t>
-  </si>
-  <si>
-    <t>December 1995</t>
-  </si>
-  <si>
-    <t>January 1996</t>
-  </si>
-  <si>
-    <t>February 1996</t>
-  </si>
-  <si>
-    <t>March 1996</t>
-  </si>
-  <si>
-    <t>April 1996</t>
-  </si>
-  <si>
-    <t>May 1996</t>
-  </si>
-  <si>
-    <t>June 1996</t>
-  </si>
-  <si>
-    <t>July 1996</t>
-  </si>
-  <si>
-    <t>August 1996</t>
-  </si>
-  <si>
-    <t>September 1996</t>
-  </si>
-  <si>
-    <t>October 1996</t>
-  </si>
-  <si>
-    <t>November 1996</t>
-  </si>
-  <si>
-    <t>December 1996</t>
-  </si>
-  <si>
-    <t>January 1997</t>
-  </si>
-  <si>
-    <t>February 1997</t>
-  </si>
-  <si>
-    <t>March 1997</t>
-  </si>
-  <si>
-    <t>April 1997</t>
-  </si>
-  <si>
-    <t>May 1997</t>
-  </si>
-  <si>
-    <t>June 1997</t>
-  </si>
-  <si>
-    <t>July 1997</t>
-  </si>
-  <si>
-    <t>August 1997</t>
-  </si>
-  <si>
-    <t>September 1997</t>
-  </si>
-  <si>
-    <t>October 1997</t>
-  </si>
-  <si>
-    <t>November 1997</t>
-  </si>
-  <si>
-    <t>December 1997</t>
-  </si>
-  <si>
-    <t>January 1998</t>
-  </si>
-  <si>
-    <t>February 1998</t>
-  </si>
-  <si>
-    <t>March 1998</t>
-  </si>
-  <si>
-    <t>April 1998</t>
-  </si>
-  <si>
-    <t>May 1998</t>
-  </si>
-  <si>
-    <t>June 1998</t>
-  </si>
-  <si>
-    <t>July 1998</t>
-  </si>
-  <si>
-    <t>August 1998</t>
-  </si>
-  <si>
-    <t>September 1998</t>
-  </si>
-  <si>
-    <t>October 1998</t>
-  </si>
-  <si>
-    <t>November 1998</t>
-  </si>
-  <si>
-    <t>December 1998</t>
-  </si>
-  <si>
-    <t>January 1999</t>
-  </si>
-  <si>
-    <t>February 1999</t>
-  </si>
-  <si>
-    <t>March 1999</t>
-  </si>
-  <si>
-    <t>April 1999</t>
-  </si>
-  <si>
-    <t>May 1999</t>
-  </si>
-  <si>
-    <t>June 1999</t>
-  </si>
-  <si>
-    <t>July 1999</t>
-  </si>
-  <si>
-    <t>August 1999</t>
-  </si>
-  <si>
-    <t>September 1999</t>
-  </si>
-  <si>
-    <t>October 1999</t>
-  </si>
-  <si>
-    <t>November 1999</t>
-  </si>
-  <si>
-    <t>December 1999</t>
-  </si>
-  <si>
-    <t>January 2000</t>
-  </si>
-  <si>
-    <t>February 2000</t>
-  </si>
-  <si>
-    <t>March 2000</t>
-  </si>
-  <si>
-    <t>April 2000</t>
-  </si>
-  <si>
-    <t>May 2000</t>
-  </si>
-  <si>
-    <t>June 2000</t>
-  </si>
-  <si>
-    <t>July 2000</t>
-  </si>
-  <si>
-    <t>August 2000</t>
-  </si>
-  <si>
-    <t>September 2000</t>
-  </si>
-  <si>
-    <t>October 2000</t>
-  </si>
-  <si>
-    <t>November 2000</t>
-  </si>
-  <si>
-    <t>December 2000</t>
-  </si>
-  <si>
-    <t>January 2001</t>
-  </si>
-  <si>
-    <t>February 2001</t>
-  </si>
-  <si>
-    <t>March 2001</t>
-  </si>
-  <si>
-    <t>April 2001</t>
-  </si>
-  <si>
-    <t>May 2001</t>
-  </si>
-  <si>
-    <t>June 2001</t>
-  </si>
-  <si>
-    <t>July 2001</t>
-  </si>
-  <si>
-    <t>August 2001</t>
-  </si>
-  <si>
-    <t>September 2001</t>
-  </si>
-  <si>
-    <t>October 2001</t>
-  </si>
-  <si>
-    <t>November 2001</t>
-  </si>
-  <si>
-    <t>December 2001</t>
-  </si>
-  <si>
-    <t>January 2002</t>
-  </si>
-  <si>
-    <t>February 2002</t>
-  </si>
-  <si>
-    <t>March 2002</t>
-  </si>
-  <si>
-    <t>April 2002</t>
-  </si>
-  <si>
-    <t>May 2002</t>
-  </si>
-  <si>
-    <t>June 2002</t>
-  </si>
-  <si>
-    <t>July 2002</t>
-  </si>
-  <si>
-    <t>August 2002</t>
-  </si>
-  <si>
-    <t>September 2002</t>
-  </si>
-  <si>
-    <t>October 2002</t>
-  </si>
-  <si>
-    <t>November 2002</t>
-  </si>
-  <si>
-    <t>December 2002</t>
-  </si>
-  <si>
-    <t>January 2003</t>
-  </si>
-  <si>
-    <t>February 2003</t>
-  </si>
-  <si>
-    <t>March 2003</t>
-  </si>
-  <si>
-    <t>April 2003</t>
-  </si>
-  <si>
-    <t>May 2003</t>
-  </si>
-  <si>
-    <t>June 2003</t>
-  </si>
-  <si>
-    <t>July 2003</t>
-  </si>
-  <si>
-    <t>August 2003</t>
-  </si>
-  <si>
-    <t>September 2003</t>
-  </si>
-  <si>
-    <t>October 2003</t>
-  </si>
-  <si>
-    <t>November 2003</t>
-  </si>
-  <si>
-    <t>December 2003</t>
-  </si>
-  <si>
-    <t>January 2004</t>
-  </si>
-  <si>
-    <t>February 2004</t>
-  </si>
-  <si>
-    <t>March 2004</t>
-  </si>
-  <si>
-    <t>April 2004</t>
-  </si>
-  <si>
-    <t>May 2004</t>
-  </si>
-  <si>
-    <t>June 2004</t>
-  </si>
-  <si>
-    <t>July 2004</t>
-  </si>
-  <si>
-    <t>August 2004</t>
-  </si>
-  <si>
-    <t>September 2004</t>
-  </si>
-  <si>
-    <t>October 2004</t>
-  </si>
-  <si>
-    <t>November 2004</t>
-  </si>
-  <si>
-    <t>December 2004</t>
-  </si>
-  <si>
-    <t>January 2005</t>
-  </si>
-  <si>
-    <t>February 2005</t>
-  </si>
-  <si>
-    <t>March 2005</t>
-  </si>
-  <si>
-    <t>April 2005</t>
-  </si>
-  <si>
-    <t>May 2005</t>
-  </si>
-  <si>
-    <t>June 2005</t>
-  </si>
-  <si>
-    <t>July 2005</t>
-  </si>
-  <si>
-    <t>August 2005</t>
-  </si>
-  <si>
-    <t>September 2005</t>
-  </si>
-  <si>
-    <t>October 2005</t>
-  </si>
-  <si>
-    <t>November 2005</t>
-  </si>
-  <si>
-    <t>December 2005</t>
-  </si>
-  <si>
-    <t>January 2006</t>
-  </si>
-  <si>
-    <t>February 2006</t>
-  </si>
-  <si>
-    <t>March 2006</t>
-  </si>
-  <si>
-    <t>April 2006</t>
-  </si>
-  <si>
-    <t>May 2006</t>
-  </si>
-  <si>
-    <t>June 2006</t>
-  </si>
-  <si>
-    <t>July 2006</t>
-  </si>
-  <si>
-    <t>August 2006</t>
-  </si>
-  <si>
-    <t>September 2006</t>
-  </si>
-  <si>
-    <t>October 2006</t>
-  </si>
-  <si>
-    <t>November 2006</t>
-  </si>
-  <si>
-    <t>December 2006</t>
-  </si>
-  <si>
-    <t>January 2007</t>
-  </si>
-  <si>
-    <t>February 2007</t>
-  </si>
-  <si>
-    <t>March 2007</t>
-  </si>
-  <si>
-    <t>April 2007</t>
-  </si>
-  <si>
-    <t>May 2007</t>
-  </si>
-  <si>
-    <t>June 2007</t>
-  </si>
-  <si>
-    <t>July 2007</t>
-  </si>
-  <si>
-    <t>August 2007</t>
-  </si>
-  <si>
-    <t>September 2007</t>
-  </si>
-  <si>
-    <t>October 2007</t>
-  </si>
-  <si>
-    <t>November 2007</t>
-  </si>
-  <si>
-    <t>December 2007</t>
-  </si>
-  <si>
-    <t>January 2008</t>
-  </si>
-  <si>
-    <t>February 2008</t>
-  </si>
-  <si>
-    <t>March 2008</t>
-  </si>
-  <si>
-    <t>April 2008</t>
-  </si>
-  <si>
-    <t>May 2008</t>
-  </si>
-  <si>
-    <t>June 2008</t>
-  </si>
-  <si>
-    <t>July 2008</t>
-  </si>
-  <si>
-    <t>August 2008</t>
-  </si>
-  <si>
-    <t>September 2008</t>
-  </si>
-  <si>
-    <t>October 2008</t>
-  </si>
-  <si>
-    <t>November 2008</t>
-  </si>
-  <si>
-    <t>December 2008</t>
-  </si>
-  <si>
-    <t>January 2009</t>
-  </si>
-  <si>
-    <t>February 2009</t>
-  </si>
-  <si>
-    <t>March 2009</t>
-  </si>
-  <si>
-    <t>April 2009</t>
-  </si>
-  <si>
-    <t>May 2009</t>
-  </si>
-  <si>
-    <t>June 2009</t>
-  </si>
-  <si>
-    <t>July 2009</t>
-  </si>
-  <si>
-    <t>August 2009</t>
-  </si>
-  <si>
-    <t>September 2009</t>
-  </si>
-  <si>
-    <t>October 2009</t>
-  </si>
-  <si>
-    <t>November 2009</t>
-  </si>
-  <si>
-    <t>December 2009</t>
-  </si>
-  <si>
-    <t>January 2010</t>
-  </si>
-  <si>
-    <t>February 2010</t>
-  </si>
-  <si>
-    <t>March 2010</t>
-  </si>
-  <si>
-    <t>April 2010</t>
-  </si>
-  <si>
-    <t>May 2010</t>
-  </si>
-  <si>
-    <t>June 2010</t>
-  </si>
-  <si>
-    <t>July 2010</t>
-  </si>
-  <si>
-    <t>August 2010</t>
-  </si>
-  <si>
-    <t>September 2010</t>
-  </si>
-  <si>
-    <t>October 2010</t>
-  </si>
-  <si>
-    <t>November 2010</t>
-  </si>
-  <si>
-    <t>December 2010</t>
-  </si>
-  <si>
-    <t>January 2011</t>
-  </si>
-  <si>
-    <t>February 2011</t>
-  </si>
-  <si>
-    <t>March 2011</t>
-  </si>
-  <si>
-    <t>April 2011</t>
-  </si>
-  <si>
-    <t>May 2011</t>
-  </si>
-  <si>
-    <t>June 2011</t>
-  </si>
-  <si>
-    <t>July 2011</t>
-  </si>
-  <si>
-    <t>August 2011</t>
-  </si>
-  <si>
-    <t>September 2011</t>
-  </si>
-  <si>
-    <t>October 2011</t>
-  </si>
-  <si>
-    <t>November 2011</t>
-  </si>
-  <si>
-    <t>December 2011</t>
-  </si>
-  <si>
-    <t>January 2012</t>
-  </si>
-  <si>
-    <t>February 2012</t>
-  </si>
-  <si>
-    <t>March 2012</t>
-  </si>
-  <si>
-    <t>April 2012</t>
-  </si>
-  <si>
-    <t>May 2012</t>
-  </si>
-  <si>
-    <t>June 2012</t>
-  </si>
-  <si>
-    <t>July 2012</t>
-  </si>
-  <si>
-    <t>August 2012</t>
-  </si>
-  <si>
-    <t>September 2012</t>
-  </si>
-  <si>
-    <t>October 2012</t>
-  </si>
-  <si>
-    <t>November 2012</t>
-  </si>
-  <si>
-    <t>December 2012</t>
-  </si>
-  <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>February 2013</t>
-  </si>
-  <si>
-    <t>March 2013</t>
-  </si>
-  <si>
-    <t>April 2013</t>
-  </si>
-  <si>
-    <t>May 2013</t>
-  </si>
-  <si>
-    <t>June 2013</t>
-  </si>
-  <si>
-    <t>July 2013</t>
-  </si>
-  <si>
-    <t>August 2013</t>
-  </si>
-  <si>
-    <t>September 2013</t>
-  </si>
-  <si>
-    <t>October 2013</t>
-  </si>
-  <si>
-    <t>November 2013</t>
-  </si>
-  <si>
-    <t>December 2013</t>
-  </si>
-  <si>
-    <t>January 2014</t>
-  </si>
-  <si>
-    <t>February 2014</t>
-  </si>
-  <si>
-    <t>March 2014</t>
-  </si>
-  <si>
-    <t>April 2014</t>
-  </si>
-  <si>
-    <t>May 2014</t>
-  </si>
-  <si>
-    <t>June 2014</t>
-  </si>
-  <si>
-    <t>July 2014</t>
-  </si>
-  <si>
-    <t>August 2014</t>
-  </si>
-  <si>
-    <t>September 2014</t>
-  </si>
-  <si>
-    <t>October 2014</t>
-  </si>
-  <si>
-    <t>November 2014</t>
-  </si>
-  <si>
-    <t>December 2014</t>
-  </si>
-  <si>
-    <t>January 2015</t>
-  </si>
-  <si>
-    <t>February 2015</t>
-  </si>
-  <si>
-    <t>March 2015</t>
-  </si>
-  <si>
-    <t>April 2015</t>
-  </si>
-  <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>June 2015</t>
-  </si>
-  <si>
-    <t>July 2015</t>
-  </si>
-  <si>
-    <t>August 2015</t>
-  </si>
-  <si>
-    <t>September 2015</t>
-  </si>
-  <si>
-    <t>October 2015</t>
-  </si>
-  <si>
-    <t>November 2015</t>
-  </si>
-  <si>
-    <t>December 2015</t>
-  </si>
-  <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t>February 2016</t>
-  </si>
-  <si>
-    <t>March 2016</t>
-  </si>
-  <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>May 2016</t>
-  </si>
-  <si>
-    <t>June 2016</t>
-  </si>
-  <si>
-    <t>July 2016</t>
-  </si>
-  <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>September 2016</t>
-  </si>
-  <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t>December 2016</t>
-  </si>
-  <si>
-    <t>January 2017</t>
-  </si>
-  <si>
-    <t>February 2017</t>
-  </si>
-  <si>
-    <t>March 2017</t>
-  </si>
-  <si>
-    <t>April 2017</t>
-  </si>
-  <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>June 2017</t>
-  </si>
-  <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t>August 2018</t>
-  </si>
-  <si>
-    <t>September 2018</t>
-  </si>
-  <si>
-    <t>October 2018</t>
-  </si>
-  <si>
-    <t>November 2018</t>
-  </si>
-  <si>
-    <t>December 2018</t>
-  </si>
-  <si>
-    <t>January 2019</t>
-  </si>
-  <si>
-    <t>February 2019</t>
-  </si>
-  <si>
-    <t>March 2019</t>
-  </si>
-  <si>
-    <t>April 2019</t>
-  </si>
-  <si>
-    <t>May 2019</t>
-  </si>
-  <si>
-    <t>June 2019</t>
-  </si>
-  <si>
-    <t>July 2019</t>
-  </si>
-  <si>
-    <t>August 2019</t>
-  </si>
-  <si>
-    <t>September 2019</t>
-  </si>
-  <si>
-    <t>October 2019</t>
-  </si>
-  <si>
-    <t>November 2019</t>
-  </si>
-  <si>
-    <t>December 2019</t>
-  </si>
-  <si>
-    <t>January 2020</t>
-  </si>
-  <si>
-    <t>February 2020</t>
-  </si>
-  <si>
-    <t>March 2020</t>
-  </si>
-  <si>
-    <t>April 2020</t>
-  </si>
-  <si>
-    <t>May 2020</t>
-  </si>
-  <si>
-    <t>June 2020</t>
-  </si>
-  <si>
-    <t>July 2020</t>
-  </si>
-  <si>
-    <t>August 2020</t>
-  </si>
-  <si>
-    <t>September 2020</t>
-  </si>
-  <si>
-    <t>October 2020</t>
-  </si>
-  <si>
-    <t>November 2020</t>
-  </si>
-  <si>
-    <t>December 2020</t>
-  </si>
-  <si>
-    <t>Actual Obligations</t>
-  </si>
-  <si>
-    <t>Domestic Debt</t>
-  </si>
-  <si>
-    <t>Domestic Debt: Loans</t>
-  </si>
-  <si>
-    <t>Domestic Debt: Debt Securities</t>
-  </si>
-  <si>
-    <t>External Debt</t>
-  </si>
-  <si>
-    <t>External Debt: Loans</t>
-  </si>
-  <si>
-    <t>External Debt: Debt Securities</t>
-  </si>
-  <si>
-    <t>Total Obligations</t>
-  </si>
-  <si>
-    <t>Domestic Guaranteed Obligations</t>
-  </si>
-  <si>
-    <t>External Guaranteed Obligations</t>
-  </si>
-  <si>
-    <t>Guaranteed Obligations</t>
+    <t xml:space="preserve">January 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1991</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 1999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">January 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">April 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">July 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">August 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">September 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">October 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">December 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Obligations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Obligations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Debt: Loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Debt: Debt Securities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Debt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Debt: Loans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Debt: Debt Securities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guaranteed Obligations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestic Guaranteed Obligations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External Guaranteed Obligations</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t xml:space="preserve">National Government Outstanding Debt</t>
+  </si>
+  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Bureau of Treasury</t>
+    <t xml:space="preserve">Bureau of Treasury</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
+    <t>https://www.treasury.gov.ph/?page_id=12407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other links</t>
+  </si>
+  <si>
+    <t>https://www.foi.gov.ph/requests/aglzfmVmb2ktcGhyHQsSB0NvbnRlbnQiEEJUci05Nzg2NjQyMTk5NjcM</t>
+  </si>
+  <si>
+    <t>https://www.foi.gov.ph/requests/aglzfmVmb2ktcGhyHQsSB0NvbnRlbnQiEEJUci00NjkxMDUxNDgxMjIM</t>
+  </si>
+  <si>
+    <t>https://www.foi.gov.ph/requests/aglzfmVmb2ktcGhyHQsSB0NvbnRlbnQiEEJUci0wNTk2NDY1MjcwNTMM</t>
+  </si>
+  <si>
     <t>Units</t>
   </si>
   <si>
-    <t>Million Pesos</t>
-  </si>
-  <si>
-    <t>Latest Data</t>
+    <t xml:space="preserve">Million Pesos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latest Data</t>
   </si>
   <si>
     <t>Availability</t>
   </si>
   <si>
-    <t>National Government Outstanding Debt</t>
-  </si>
-  <si>
-    <t>https://www.treasury.gov.ph/?page_id=12407</t>
-  </si>
-  <si>
-    <t>Total (Actual + Guaranteed)</t>
+    <t xml:space="preserve">Total (Actual + Guaranteed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009 - 2022</t>
   </si>
   <si>
     <t xml:space="preserve">  Actual Obligations</t>
   </si>
   <si>
+    <t xml:space="preserve">1993 - 2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Domestic Debt</t>
   </si>
   <si>
     <t xml:space="preserve">      Loans</t>
   </si>
   <si>
+    <t xml:space="preserve">1995 - 2008; 2009 - 2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">      Debt Securities</t>
   </si>
   <si>
@@ -1389,178 +1497,44 @@
   </si>
   <si>
     <t xml:space="preserve">    External</t>
-  </si>
-  <si>
-    <t>Other links</t>
-  </si>
-  <si>
-    <t>https://www.foi.gov.ph/requests/aglzfmVmb2ktcGhyHQsSB0NvbnRlbnQiEEJUci05Nzg2NjQyMTk5NjcM</t>
-  </si>
-  <si>
-    <t>https://www.foi.gov.ph/requests/aglzfmVmb2ktcGhyHQsSB0NvbnRlbnQiEEJUci00NjkxMDUxNDgxMjIM</t>
-  </si>
-  <si>
-    <t>https://www.foi.gov.ph/requests/aglzfmVmb2ktcGhyHQsSB0NvbnRlbnQiEEJUci0wNTk2NDY1MjcwNTMM</t>
-  </si>
-  <si>
-    <t>January 2021</t>
-  </si>
-  <si>
-    <t>February 2021</t>
-  </si>
-  <si>
-    <t>March 2021</t>
-  </si>
-  <si>
-    <t>April 2021</t>
-  </si>
-  <si>
-    <t>May 2021</t>
-  </si>
-  <si>
-    <t>June 2021</t>
-  </si>
-  <si>
-    <t>July 2021</t>
-  </si>
-  <si>
-    <t>August 2021</t>
-  </si>
-  <si>
-    <t>September 2021</t>
-  </si>
-  <si>
-    <t>October 2021</t>
-  </si>
-  <si>
-    <t>November 2021</t>
-  </si>
-  <si>
-    <t>December 2021</t>
-  </si>
-  <si>
-    <t>January 2022</t>
-  </si>
-  <si>
-    <t>February 2022</t>
-  </si>
-  <si>
-    <t>March 2022</t>
-  </si>
-  <si>
-    <t>April 2022</t>
-  </si>
-  <si>
-    <t>May 2022</t>
-  </si>
-  <si>
-    <t>June 2022</t>
-  </si>
-  <si>
-    <t>July 2022</t>
-  </si>
-  <si>
-    <t>August 2022</t>
-  </si>
-  <si>
-    <t>September 2022</t>
-  </si>
-  <si>
-    <t>October 2022</t>
-  </si>
-  <si>
-    <t>November 2022</t>
-  </si>
-  <si>
-    <t>December 2022</t>
-  </si>
-  <si>
-    <t>2009 - 2022</t>
-  </si>
-  <si>
-    <t>1993 - 2022</t>
-  </si>
-  <si>
-    <t>1995 - 2008; 2009 - 2022</t>
-  </si>
-  <si>
-    <t>January 2023</t>
-  </si>
-  <si>
-    <t>February 2023</t>
-  </si>
-  <si>
-    <t>March 2023</t>
-  </si>
-  <si>
-    <t>April 2023</t>
-  </si>
-  <si>
-    <t>May 2023</t>
-  </si>
-  <si>
-    <t>June 2023</t>
-  </si>
-  <si>
-    <t>July 2023</t>
-  </si>
-  <si>
-    <t>August 2023</t>
-  </si>
-  <si>
-    <t>September 2023</t>
-  </si>
-  <si>
-    <t>October 2023</t>
-  </si>
-  <si>
-    <t>November 2023</t>
-  </si>
-  <si>
-    <t>December 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1573,33 +1547,34 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{339237D7-D151-47ED-BD50-CC1BA3D75236}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1607,15 +1582,295 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1657,108 +1912,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri Light"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1766,7 +1927,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1792,7 +1953,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1844,16 +2005,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1869,7 +2042,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1900,33 +2073,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF83A7B3-B32D-4D6D-A830-2CD2CA0CA03D}">
-  <dimension ref="A1:QO19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="PZ2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="QG2" sqref="QG2"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="QG2" activeCellId="0" sqref="QG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="457" width="10.7109375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.28515625"/>
+    <col customWidth="1" min="2" max="457" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3191,117 +3355,117 @@
         <v>420</v>
       </c>
       <c r="PF1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="PG1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="PH1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="PI1" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="PJ1" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="PK1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="PL1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="PM1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="PN1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="PO1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="PP1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="PQ1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="PR1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="PS1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="PT1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="PU1" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="PV1" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="PW1" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="PX1" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="PY1" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="PZ1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="QA1" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="QB1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="QC1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="QD1" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="QE1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="QF1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="QG1" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="QH1" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="QI1" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="QJ1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="QK1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="QL1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="QM1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="QN1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="PG1" s="1" t="s">
+      <c r="QO1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="PH1" s="1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>457</v>
-      </c>
-      <c r="PI1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="PJ1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="PK1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="PL1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="PM1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="PN1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="PO1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="PP1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="PQ1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="PR1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="PS1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="PT1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="PU1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="PV1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="PW1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="PX1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="PY1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="PZ1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="QA1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="QB1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="QC1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="QD1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="QE1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="QF1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="QG1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="QH1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="QI1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="QJ1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="QK1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="QL1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="QM1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="QN1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="QO1" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="2" spans="1:457" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>428</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4092,9 +4256,15 @@
       <c r="QF2" s="2">
         <v>14241014</v>
       </c>
-      <c r="QG2" s="2"/>
-      <c r="QH2" s="2"/>
-      <c r="QI2" s="2"/>
+      <c r="QG2" s="2">
+        <v>14291833</v>
+      </c>
+      <c r="QH2" s="2">
+        <v>14476254</v>
+      </c>
+      <c r="QI2" s="2">
+        <v>14517577</v>
+      </c>
       <c r="QJ2" s="2"/>
       <c r="QK2" s="2"/>
       <c r="QL2" s="2"/>
@@ -4102,9 +4272,9 @@
       <c r="QN2" s="2"/>
       <c r="QO2" s="2"/>
     </row>
-    <row r="3" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4401,7 +4571,7 @@
         <v>1487974.9482499999</v>
       </c>
       <c r="EZ3" s="2">
-        <v>1461038.64</v>
+        <v>1461038.6399999999</v>
       </c>
       <c r="FA3" s="2">
         <v>1496221.764</v>
@@ -4647,7 +4817,7 @@
         <v>3941774.017</v>
       </c>
       <c r="ID3" s="2">
-        <v>4018868.36</v>
+        <v>4018868.3599999999</v>
       </c>
       <c r="IE3" s="2">
         <v>3951689</v>
@@ -5279,9 +5449,15 @@
       <c r="QF3" s="2">
         <v>13856896</v>
       </c>
-      <c r="QG3" s="2"/>
-      <c r="QH3" s="2"/>
-      <c r="QI3" s="2"/>
+      <c r="QG3" s="2">
+        <v>13911139</v>
+      </c>
+      <c r="QH3" s="2">
+        <v>14096542</v>
+      </c>
+      <c r="QI3" s="2">
+        <v>14147850</v>
+      </c>
       <c r="QJ3" s="2"/>
       <c r="QK3" s="2"/>
       <c r="QL3" s="2"/>
@@ -5289,9 +5465,9 @@
       <c r="QN3" s="2"/>
       <c r="QO3" s="2"/>
     </row>
-    <row r="4" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5588,7 +5764,7 @@
         <v>822295.13</v>
       </c>
       <c r="EZ4" s="2">
-        <v>832966.46</v>
+        <v>832966.45999999996</v>
       </c>
       <c r="FA4" s="2">
         <v>850931.05999999994</v>
@@ -6466,9 +6642,15 @@
       <c r="QF4" s="2">
         <v>9513160</v>
       </c>
-      <c r="QG4" s="2"/>
-      <c r="QH4" s="2"/>
-      <c r="QI4" s="2"/>
+      <c r="QG4" s="2">
+        <v>9457840</v>
+      </c>
+      <c r="QH4" s="2">
+        <v>9588514</v>
+      </c>
+      <c r="QI4" s="2">
+        <v>9702829</v>
+      </c>
       <c r="QJ4" s="2"/>
       <c r="QK4" s="2"/>
       <c r="QL4" s="2"/>
@@ -6476,9 +6658,9 @@
       <c r="QN4" s="2"/>
       <c r="QO4" s="2"/>
     </row>
-    <row r="5" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6724,13 +6906,13 @@
         <v>71132.941999999995</v>
       </c>
       <c r="EY5" s="2">
-        <v>67510.13</v>
+        <v>67510.130000000005</v>
       </c>
       <c r="EZ5" s="2">
         <v>65832.460000000006</v>
       </c>
       <c r="FA5" s="2">
-        <v>63144.06</v>
+        <v>63144.059999999998</v>
       </c>
       <c r="FB5" s="2">
         <v>62738.016000000003</v>
@@ -7605,9 +7787,15 @@
       <c r="QF5" s="2">
         <v>156</v>
       </c>
-      <c r="QG5" s="2"/>
-      <c r="QH5" s="2"/>
-      <c r="QI5" s="2"/>
+      <c r="QG5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QH5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QI5" s="2">
+        <v>156</v>
+      </c>
       <c r="QJ5" s="2"/>
       <c r="QK5" s="2"/>
       <c r="QL5" s="2"/>
@@ -7615,9 +7803,9 @@
       <c r="QN5" s="2"/>
       <c r="QO5" s="2"/>
     </row>
-    <row r="6" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>461</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -8744,9 +8932,15 @@
       <c r="QF6" s="2">
         <v>9513004</v>
       </c>
-      <c r="QG6" s="2"/>
-      <c r="QH6" s="2"/>
-      <c r="QI6" s="2"/>
+      <c r="QG6" s="2">
+        <v>9457684</v>
+      </c>
+      <c r="QH6" s="2">
+        <v>9588358</v>
+      </c>
+      <c r="QI6" s="2">
+        <v>9702673</v>
+      </c>
       <c r="QJ6" s="2"/>
       <c r="QK6" s="2"/>
       <c r="QL6" s="2"/>
@@ -8754,9 +8948,9 @@
       <c r="QN6" s="2"/>
       <c r="QO6" s="2"/>
     </row>
-    <row r="7" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -9931,9 +10125,15 @@
       <c r="QF7" s="2">
         <v>4343736</v>
       </c>
-      <c r="QG7" s="2"/>
-      <c r="QH7" s="2"/>
-      <c r="QI7" s="2"/>
+      <c r="QG7" s="2">
+        <v>4453299</v>
+      </c>
+      <c r="QH7" s="2">
+        <v>4508028</v>
+      </c>
+      <c r="QI7" s="2">
+        <v>4445021</v>
+      </c>
       <c r="QJ7" s="2"/>
       <c r="QK7" s="2"/>
       <c r="QL7" s="2"/>
@@ -9941,9 +10141,9 @@
       <c r="QN7" s="2"/>
       <c r="QO7" s="2"/>
     </row>
-    <row r="8" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>463</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -10192,7 +10392,7 @@
         <v>513270.97824999999</v>
       </c>
       <c r="EZ8" s="2">
-        <v>481514.29</v>
+        <v>481514.28999999998</v>
       </c>
       <c r="FA8" s="2">
         <v>500479.054</v>
@@ -10438,7 +10638,7 @@
         <v>795042.01699999999</v>
       </c>
       <c r="ID8" s="2">
-        <v>783468.36</v>
+        <v>783468.35999999999</v>
       </c>
       <c r="IE8" s="2">
         <v>744580</v>
@@ -11070,9 +11270,15 @@
       <c r="QF8" s="2">
         <v>1947472</v>
       </c>
-      <c r="QG8" s="2"/>
-      <c r="QH8" s="2"/>
-      <c r="QI8" s="2"/>
+      <c r="QG8" s="2">
+        <v>2006693</v>
+      </c>
+      <c r="QH8" s="2">
+        <v>2036246</v>
+      </c>
+      <c r="QI8" s="2">
+        <v>2009725</v>
+      </c>
       <c r="QJ8" s="2"/>
       <c r="QK8" s="2"/>
       <c r="QL8" s="2"/>
@@ -11080,9 +11286,9 @@
       <c r="QN8" s="2"/>
       <c r="QO8" s="2"/>
     </row>
-    <row r="9" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>464</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -11334,7 +11540,7 @@
         <v>146557.89000000001</v>
       </c>
       <c r="FA9" s="2">
-        <v>144811.65</v>
+        <v>144811.64999999999</v>
       </c>
       <c r="FB9" s="2">
         <v>182023</v>
@@ -12209,9 +12415,15 @@
       <c r="QF9" s="2">
         <v>2396264</v>
       </c>
-      <c r="QG9" s="2"/>
-      <c r="QH9" s="2"/>
-      <c r="QI9" s="2"/>
+      <c r="QG9" s="2">
+        <v>2446606</v>
+      </c>
+      <c r="QH9" s="2">
+        <v>2471782</v>
+      </c>
+      <c r="QI9" s="2">
+        <v>2435296</v>
+      </c>
       <c r="QJ9" s="2"/>
       <c r="QK9" s="2"/>
       <c r="QL9" s="2"/>
@@ -12219,9 +12431,9 @@
       <c r="QN9" s="2"/>
       <c r="QO9" s="2"/>
     </row>
-    <row r="10" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -12533,7 +12745,7 @@
         <v>569571</v>
       </c>
       <c r="KC10" s="2">
-        <v>614133.29</v>
+        <v>614133.29000000004</v>
       </c>
       <c r="KD10" s="2">
         <v>619741</v>
@@ -13012,9 +13224,15 @@
       <c r="QF10" s="2">
         <v>384118</v>
       </c>
-      <c r="QG10" s="2"/>
-      <c r="QH10" s="2"/>
-      <c r="QI10" s="2"/>
+      <c r="QG10" s="2">
+        <v>380694</v>
+      </c>
+      <c r="QH10" s="2">
+        <v>379712</v>
+      </c>
+      <c r="QI10" s="2">
+        <v>369727</v>
+      </c>
       <c r="QJ10" s="2"/>
       <c r="QK10" s="2"/>
       <c r="QL10" s="2"/>
@@ -13022,9 +13240,9 @@
       <c r="QN10" s="2"/>
       <c r="QO10" s="2"/>
     </row>
-    <row r="11" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>466</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -13815,9 +14033,15 @@
       <c r="QF11" s="2">
         <v>202083</v>
       </c>
-      <c r="QG11" s="2"/>
-      <c r="QH11" s="2"/>
-      <c r="QI11" s="2"/>
+      <c r="QG11" s="2">
+        <v>196575</v>
+      </c>
+      <c r="QH11" s="2">
+        <v>200734</v>
+      </c>
+      <c r="QI11" s="2">
+        <v>196371</v>
+      </c>
       <c r="QJ11" s="2"/>
       <c r="QK11" s="2"/>
       <c r="QL11" s="2"/>
@@ -13825,9 +14049,9 @@
       <c r="QN11" s="2"/>
       <c r="QO11" s="2"/>
     </row>
-    <row r="12" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -14139,7 +14363,7 @@
         <v>488052</v>
       </c>
       <c r="KC12" s="2">
-        <v>534614.29</v>
+        <v>534614.29000000004</v>
       </c>
       <c r="KD12" s="2">
         <v>540223</v>
@@ -14618,9 +14842,15 @@
       <c r="QF12" s="2">
         <v>182035</v>
       </c>
-      <c r="QG12" s="2"/>
-      <c r="QH12" s="2"/>
-      <c r="QI12" s="2"/>
+      <c r="QG12" s="2">
+        <v>184119</v>
+      </c>
+      <c r="QH12" s="2">
+        <v>178978</v>
+      </c>
+      <c r="QI12" s="2">
+        <v>173356</v>
+      </c>
       <c r="QJ12" s="2"/>
       <c r="QK12" s="2"/>
       <c r="QL12" s="2"/>
@@ -14628,38 +14858,37 @@
       <c r="QN12" s="2"/>
       <c r="QO12" s="2"/>
     </row>
-    <row r="14" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="PE14" s="2"/>
       <c r="PQ14" s="2"/>
     </row>
-    <row r="19" spans="421:433" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="PE19" s="2"/>
       <c r="PQ19" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C02CD3A-99C8-4C95-BFC1-453A97FD647F}">
-  <dimension ref="A1:AV4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AN2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AV5" sqref="AV5"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="AV5" activeCellId="0" sqref="AV5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="48" width="10" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="17.140625"/>
+    <col customWidth="1" min="2" max="48" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14805,9 +15034,9 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="B2" s="2">
         <v>26887</v>
@@ -14951,9 +15180,9 @@
         <v>13418860</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="B3" s="2">
         <v>15047</v>
@@ -15097,9 +15326,9 @@
         <v>9208387</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>462</v>
       </c>
       <c r="B4" s="2">
         <v>11840</v>
@@ -15244,178 +15473,179 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5896838-F7D9-4F29-9E42-CDFCD60FC5B6}">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="36.5703125" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="36.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="3" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s">
-        <v>440</v>
+        <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="3" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
-        <v>434</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="3" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>451</v>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>474</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>452</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+    <row r="5">
+      <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+    <row r="6">
+      <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="3" t="s">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
-        <v>437</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>450</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10">
+      <c r="A10" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>439</v>
+      <c r="B10" s="7" t="s">
+        <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" s="3" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" s="3" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="3" t="s">
-        <v>444</v>
+        <v>486</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="B15" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="3" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="B16" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="B18" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="3" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="B19" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="3" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" s="3" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="B21" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -15423,10 +15653,12 @@
     <mergeCell ref="A4:A6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{AA9FBDC1-6B6C-4B8A-AAB8-6A4289FCE0B5}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{3416715F-802A-47CE-A894-BCD6E595154C}"/>
+    <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="B4"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" state="visible" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
@@ -1568,7 +1568,6 @@
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
     <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -4265,9 +4264,15 @@
       <c r="QI2" s="2">
         <v>14517577</v>
       </c>
-      <c r="QJ2" s="2"/>
-      <c r="QK2" s="2"/>
-      <c r="QL2" s="2"/>
+      <c r="QJ2" s="2">
+        <v>14607685</v>
+      </c>
+      <c r="QK2" s="2">
+        <v>14716151</v>
+      </c>
+      <c r="QL2" s="2">
+        <v>14630888</v>
+      </c>
       <c r="QM2" s="2"/>
       <c r="QN2" s="2"/>
       <c r="QO2" s="2"/>
@@ -5458,9 +5463,15 @@
       <c r="QI3" s="2">
         <v>14147850</v>
       </c>
-      <c r="QJ3" s="2"/>
-      <c r="QK3" s="2"/>
-      <c r="QL3" s="2"/>
+      <c r="QJ3" s="2">
+        <v>14244293</v>
+      </c>
+      <c r="QK3" s="2">
+        <v>14349581</v>
+      </c>
+      <c r="QL3" s="2">
+        <v>14268670</v>
+      </c>
       <c r="QM3" s="2"/>
       <c r="QN3" s="2"/>
       <c r="QO3" s="2"/>
@@ -6651,9 +6662,15 @@
       <c r="QI4" s="2">
         <v>9702829</v>
       </c>
-      <c r="QJ4" s="2"/>
-      <c r="QK4" s="2"/>
-      <c r="QL4" s="2"/>
+      <c r="QJ4" s="2">
+        <v>9812367</v>
+      </c>
+      <c r="QK4" s="2">
+        <v>9791126</v>
+      </c>
+      <c r="QL4" s="2">
+        <v>9734356</v>
+      </c>
       <c r="QM4" s="2"/>
       <c r="QN4" s="2"/>
       <c r="QO4" s="2"/>
@@ -7796,9 +7813,15 @@
       <c r="QI5" s="2">
         <v>156</v>
       </c>
-      <c r="QJ5" s="2"/>
-      <c r="QK5" s="2"/>
-      <c r="QL5" s="2"/>
+      <c r="QJ5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QK5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QL5" s="2">
+        <v>156</v>
+      </c>
       <c r="QM5" s="2"/>
       <c r="QN5" s="2"/>
       <c r="QO5" s="2"/>
@@ -8941,9 +8964,15 @@
       <c r="QI6" s="2">
         <v>9702673</v>
       </c>
-      <c r="QJ6" s="2"/>
-      <c r="QK6" s="2"/>
-      <c r="QL6" s="2"/>
+      <c r="QJ6" s="2">
+        <v>9812211</v>
+      </c>
+      <c r="QK6" s="2">
+        <v>9790970</v>
+      </c>
+      <c r="QL6" s="2">
+        <v>9734200</v>
+      </c>
       <c r="QM6" s="2"/>
       <c r="QN6" s="2"/>
       <c r="QO6" s="2"/>
@@ -10134,9 +10163,15 @@
       <c r="QI7" s="2">
         <v>4445021</v>
       </c>
-      <c r="QJ7" s="2"/>
-      <c r="QK7" s="2"/>
-      <c r="QL7" s="2"/>
+      <c r="QJ7" s="2">
+        <v>4431926</v>
+      </c>
+      <c r="QK7" s="2">
+        <v>4558455</v>
+      </c>
+      <c r="QL7" s="2">
+        <v>4534314</v>
+      </c>
       <c r="QM7" s="2"/>
       <c r="QN7" s="2"/>
       <c r="QO7" s="2"/>
@@ -11279,9 +11314,15 @@
       <c r="QI8" s="2">
         <v>2009725</v>
       </c>
-      <c r="QJ8" s="2"/>
-      <c r="QK8" s="2"/>
-      <c r="QL8" s="2"/>
+      <c r="QJ8" s="2">
+        <v>2016650</v>
+      </c>
+      <c r="QK8" s="2">
+        <v>2074242</v>
+      </c>
+      <c r="QL8" s="2">
+        <v>2066565</v>
+      </c>
       <c r="QM8" s="2"/>
       <c r="QN8" s="2"/>
       <c r="QO8" s="2"/>
@@ -12424,9 +12465,15 @@
       <c r="QI9" s="2">
         <v>2435296</v>
       </c>
-      <c r="QJ9" s="2"/>
-      <c r="QK9" s="2"/>
-      <c r="QL9" s="2"/>
+      <c r="QJ9" s="2">
+        <v>2415276</v>
+      </c>
+      <c r="QK9" s="2">
+        <v>2484213</v>
+      </c>
+      <c r="QL9" s="2">
+        <v>2467749</v>
+      </c>
       <c r="QM9" s="2"/>
       <c r="QN9" s="2"/>
       <c r="QO9" s="2"/>
@@ -13233,9 +13280,15 @@
       <c r="QI10" s="2">
         <v>369727</v>
       </c>
-      <c r="QJ10" s="2"/>
-      <c r="QK10" s="2"/>
-      <c r="QL10" s="2"/>
+      <c r="QJ10" s="2">
+        <v>363392</v>
+      </c>
+      <c r="QK10" s="2">
+        <v>366570</v>
+      </c>
+      <c r="QL10" s="2">
+        <v>362218</v>
+      </c>
       <c r="QM10" s="2"/>
       <c r="QN10" s="2"/>
       <c r="QO10" s="2"/>
@@ -14042,9 +14095,15 @@
       <c r="QI11" s="2">
         <v>196371</v>
       </c>
-      <c r="QJ11" s="2"/>
-      <c r="QK11" s="2"/>
-      <c r="QL11" s="2"/>
+      <c r="QJ11" s="2">
+        <v>191076</v>
+      </c>
+      <c r="QK11" s="2">
+        <v>193515</v>
+      </c>
+      <c r="QL11" s="2">
+        <v>191893</v>
+      </c>
       <c r="QM11" s="2"/>
       <c r="QN11" s="2"/>
       <c r="QO11" s="2"/>
@@ -14851,9 +14910,15 @@
       <c r="QI12" s="2">
         <v>173356</v>
       </c>
-      <c r="QJ12" s="2"/>
-      <c r="QK12" s="2"/>
-      <c r="QL12" s="2"/>
+      <c r="QJ12" s="2">
+        <v>172316</v>
+      </c>
+      <c r="QK12" s="2">
+        <v>173055</v>
+      </c>
+      <c r="QL12" s="2">
+        <v>170325</v>
+      </c>
       <c r="QM12" s="2"/>
       <c r="QN12" s="2"/>
       <c r="QO12" s="2"/>
@@ -15548,15 +15613,15 @@
       <c r="A8" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>481</v>
       </c>
     </row>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,1436 +1,1443 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEE9BA-55A9-4E79-8AC8-72640DA171C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="7785" yWindow="1725" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ngdebt" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="annual" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="metadata" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
+    <sheet name="annual" sheetId="2" r:id="rId2"/>
+    <sheet name="metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="494">
   <si>
     <t>Particulars</t>
   </si>
   <si>
-    <t xml:space="preserve">January 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1987</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1989</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1991</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 1999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">January 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">February 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">March 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">April 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">June 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">July 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">August 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">September 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">October 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">November 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">December 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total Obligations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual Obligations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic Debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic Debt: Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic Debt: Debt Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Debt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Debt: Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Debt: Debt Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guaranteed Obligations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domestic Guaranteed Obligations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Guaranteed Obligations</t>
+    <t>January 1986</t>
+  </si>
+  <si>
+    <t>February 1986</t>
+  </si>
+  <si>
+    <t>March 1986</t>
+  </si>
+  <si>
+    <t>April 1986</t>
+  </si>
+  <si>
+    <t>May 1986</t>
+  </si>
+  <si>
+    <t>June 1986</t>
+  </si>
+  <si>
+    <t>July 1986</t>
+  </si>
+  <si>
+    <t>August 1986</t>
+  </si>
+  <si>
+    <t>September 1986</t>
+  </si>
+  <si>
+    <t>October 1986</t>
+  </si>
+  <si>
+    <t>November 1986</t>
+  </si>
+  <si>
+    <t>December 1986</t>
+  </si>
+  <si>
+    <t>January 1987</t>
+  </si>
+  <si>
+    <t>February 1987</t>
+  </si>
+  <si>
+    <t>March 1987</t>
+  </si>
+  <si>
+    <t>April 1987</t>
+  </si>
+  <si>
+    <t>May 1987</t>
+  </si>
+  <si>
+    <t>June 1987</t>
+  </si>
+  <si>
+    <t>July 1987</t>
+  </si>
+  <si>
+    <t>August 1987</t>
+  </si>
+  <si>
+    <t>September 1987</t>
+  </si>
+  <si>
+    <t>October 1987</t>
+  </si>
+  <si>
+    <t>November 1987</t>
+  </si>
+  <si>
+    <t>December 1987</t>
+  </si>
+  <si>
+    <t>January 1988</t>
+  </si>
+  <si>
+    <t>February 1988</t>
+  </si>
+  <si>
+    <t>March 1988</t>
+  </si>
+  <si>
+    <t>April 1988</t>
+  </si>
+  <si>
+    <t>May 1988</t>
+  </si>
+  <si>
+    <t>June 1988</t>
+  </si>
+  <si>
+    <t>July 1988</t>
+  </si>
+  <si>
+    <t>August 1988</t>
+  </si>
+  <si>
+    <t>September 1988</t>
+  </si>
+  <si>
+    <t>October 1988</t>
+  </si>
+  <si>
+    <t>November 1988</t>
+  </si>
+  <si>
+    <t>December 1988</t>
+  </si>
+  <si>
+    <t>January 1989</t>
+  </si>
+  <si>
+    <t>February 1989</t>
+  </si>
+  <si>
+    <t>March 1989</t>
+  </si>
+  <si>
+    <t>April 1989</t>
+  </si>
+  <si>
+    <t>May 1989</t>
+  </si>
+  <si>
+    <t>June 1989</t>
+  </si>
+  <si>
+    <t>July 1989</t>
+  </si>
+  <si>
+    <t>August 1989</t>
+  </si>
+  <si>
+    <t>September 1989</t>
+  </si>
+  <si>
+    <t>October 1989</t>
+  </si>
+  <si>
+    <t>November 1989</t>
+  </si>
+  <si>
+    <t>December 1989</t>
+  </si>
+  <si>
+    <t>January 1990</t>
+  </si>
+  <si>
+    <t>February 1990</t>
+  </si>
+  <si>
+    <t>March 1990</t>
+  </si>
+  <si>
+    <t>April 1990</t>
+  </si>
+  <si>
+    <t>May 1990</t>
+  </si>
+  <si>
+    <t>June 1990</t>
+  </si>
+  <si>
+    <t>July 1990</t>
+  </si>
+  <si>
+    <t>August 1990</t>
+  </si>
+  <si>
+    <t>September 1990</t>
+  </si>
+  <si>
+    <t>October 1990</t>
+  </si>
+  <si>
+    <t>November 1990</t>
+  </si>
+  <si>
+    <t>December 1990</t>
+  </si>
+  <si>
+    <t>January 1991</t>
+  </si>
+  <si>
+    <t>February 1991</t>
+  </si>
+  <si>
+    <t>March 1991</t>
+  </si>
+  <si>
+    <t>April 1991</t>
+  </si>
+  <si>
+    <t>May 1991</t>
+  </si>
+  <si>
+    <t>June 1991</t>
+  </si>
+  <si>
+    <t>July 1991</t>
+  </si>
+  <si>
+    <t>August 1991</t>
+  </si>
+  <si>
+    <t>September 1991</t>
+  </si>
+  <si>
+    <t>October 1991</t>
+  </si>
+  <si>
+    <t>November 1991</t>
+  </si>
+  <si>
+    <t>December 1991</t>
+  </si>
+  <si>
+    <t>January 1992</t>
+  </si>
+  <si>
+    <t>February 1992</t>
+  </si>
+  <si>
+    <t>March 1992</t>
+  </si>
+  <si>
+    <t>April 1992</t>
+  </si>
+  <si>
+    <t>May 1992</t>
+  </si>
+  <si>
+    <t>June 1992</t>
+  </si>
+  <si>
+    <t>July 1992</t>
+  </si>
+  <si>
+    <t>August 1992</t>
+  </si>
+  <si>
+    <t>September 1992</t>
+  </si>
+  <si>
+    <t>October 1992</t>
+  </si>
+  <si>
+    <t>November 1992</t>
+  </si>
+  <si>
+    <t>December 1992</t>
+  </si>
+  <si>
+    <t>January 1993</t>
+  </si>
+  <si>
+    <t>February 1993</t>
+  </si>
+  <si>
+    <t>March 1993</t>
+  </si>
+  <si>
+    <t>April 1993</t>
+  </si>
+  <si>
+    <t>May 1993</t>
+  </si>
+  <si>
+    <t>June 1993</t>
+  </si>
+  <si>
+    <t>July 1993</t>
+  </si>
+  <si>
+    <t>August 1993</t>
+  </si>
+  <si>
+    <t>September 1993</t>
+  </si>
+  <si>
+    <t>October 1993</t>
+  </si>
+  <si>
+    <t>November 1993</t>
+  </si>
+  <si>
+    <t>December 1993</t>
+  </si>
+  <si>
+    <t>January 1994</t>
+  </si>
+  <si>
+    <t>February 1994</t>
+  </si>
+  <si>
+    <t>March 1994</t>
+  </si>
+  <si>
+    <t>April 1994</t>
+  </si>
+  <si>
+    <t>May 1994</t>
+  </si>
+  <si>
+    <t>June 1994</t>
+  </si>
+  <si>
+    <t>July 1994</t>
+  </si>
+  <si>
+    <t>August 1994</t>
+  </si>
+  <si>
+    <t>September 1994</t>
+  </si>
+  <si>
+    <t>October 1994</t>
+  </si>
+  <si>
+    <t>November 1994</t>
+  </si>
+  <si>
+    <t>December 1994</t>
+  </si>
+  <si>
+    <t>January 1995</t>
+  </si>
+  <si>
+    <t>February 1995</t>
+  </si>
+  <si>
+    <t>March 1995</t>
+  </si>
+  <si>
+    <t>April 1995</t>
+  </si>
+  <si>
+    <t>May 1995</t>
+  </si>
+  <si>
+    <t>June 1995</t>
+  </si>
+  <si>
+    <t>July 1995</t>
+  </si>
+  <si>
+    <t>August 1995</t>
+  </si>
+  <si>
+    <t>September 1995</t>
+  </si>
+  <si>
+    <t>October 1995</t>
+  </si>
+  <si>
+    <t>November 1995</t>
+  </si>
+  <si>
+    <t>December 1995</t>
+  </si>
+  <si>
+    <t>January 1996</t>
+  </si>
+  <si>
+    <t>February 1996</t>
+  </si>
+  <si>
+    <t>March 1996</t>
+  </si>
+  <si>
+    <t>April 1996</t>
+  </si>
+  <si>
+    <t>May 1996</t>
+  </si>
+  <si>
+    <t>June 1996</t>
+  </si>
+  <si>
+    <t>July 1996</t>
+  </si>
+  <si>
+    <t>August 1996</t>
+  </si>
+  <si>
+    <t>September 1996</t>
+  </si>
+  <si>
+    <t>October 1996</t>
+  </si>
+  <si>
+    <t>November 1996</t>
+  </si>
+  <si>
+    <t>December 1996</t>
+  </si>
+  <si>
+    <t>January 1997</t>
+  </si>
+  <si>
+    <t>February 1997</t>
+  </si>
+  <si>
+    <t>March 1997</t>
+  </si>
+  <si>
+    <t>April 1997</t>
+  </si>
+  <si>
+    <t>May 1997</t>
+  </si>
+  <si>
+    <t>June 1997</t>
+  </si>
+  <si>
+    <t>July 1997</t>
+  </si>
+  <si>
+    <t>August 1997</t>
+  </si>
+  <si>
+    <t>September 1997</t>
+  </si>
+  <si>
+    <t>October 1997</t>
+  </si>
+  <si>
+    <t>November 1997</t>
+  </si>
+  <si>
+    <t>December 1997</t>
+  </si>
+  <si>
+    <t>January 1998</t>
+  </si>
+  <si>
+    <t>February 1998</t>
+  </si>
+  <si>
+    <t>March 1998</t>
+  </si>
+  <si>
+    <t>April 1998</t>
+  </si>
+  <si>
+    <t>May 1998</t>
+  </si>
+  <si>
+    <t>June 1998</t>
+  </si>
+  <si>
+    <t>July 1998</t>
+  </si>
+  <si>
+    <t>August 1998</t>
+  </si>
+  <si>
+    <t>September 1998</t>
+  </si>
+  <si>
+    <t>October 1998</t>
+  </si>
+  <si>
+    <t>November 1998</t>
+  </si>
+  <si>
+    <t>December 1998</t>
+  </si>
+  <si>
+    <t>January 1999</t>
+  </si>
+  <si>
+    <t>February 1999</t>
+  </si>
+  <si>
+    <t>March 1999</t>
+  </si>
+  <si>
+    <t>April 1999</t>
+  </si>
+  <si>
+    <t>May 1999</t>
+  </si>
+  <si>
+    <t>June 1999</t>
+  </si>
+  <si>
+    <t>July 1999</t>
+  </si>
+  <si>
+    <t>August 1999</t>
+  </si>
+  <si>
+    <t>September 1999</t>
+  </si>
+  <si>
+    <t>October 1999</t>
+  </si>
+  <si>
+    <t>November 1999</t>
+  </si>
+  <si>
+    <t>December 1999</t>
+  </si>
+  <si>
+    <t>January 2000</t>
+  </si>
+  <si>
+    <t>February 2000</t>
+  </si>
+  <si>
+    <t>March 2000</t>
+  </si>
+  <si>
+    <t>April 2000</t>
+  </si>
+  <si>
+    <t>May 2000</t>
+  </si>
+  <si>
+    <t>June 2000</t>
+  </si>
+  <si>
+    <t>July 2000</t>
+  </si>
+  <si>
+    <t>August 2000</t>
+  </si>
+  <si>
+    <t>September 2000</t>
+  </si>
+  <si>
+    <t>October 2000</t>
+  </si>
+  <si>
+    <t>November 2000</t>
+  </si>
+  <si>
+    <t>December 2000</t>
+  </si>
+  <si>
+    <t>January 2001</t>
+  </si>
+  <si>
+    <t>February 2001</t>
+  </si>
+  <si>
+    <t>March 2001</t>
+  </si>
+  <si>
+    <t>April 2001</t>
+  </si>
+  <si>
+    <t>May 2001</t>
+  </si>
+  <si>
+    <t>June 2001</t>
+  </si>
+  <si>
+    <t>July 2001</t>
+  </si>
+  <si>
+    <t>August 2001</t>
+  </si>
+  <si>
+    <t>September 2001</t>
+  </si>
+  <si>
+    <t>October 2001</t>
+  </si>
+  <si>
+    <t>November 2001</t>
+  </si>
+  <si>
+    <t>December 2001</t>
+  </si>
+  <si>
+    <t>January 2002</t>
+  </si>
+  <si>
+    <t>February 2002</t>
+  </si>
+  <si>
+    <t>March 2002</t>
+  </si>
+  <si>
+    <t>April 2002</t>
+  </si>
+  <si>
+    <t>May 2002</t>
+  </si>
+  <si>
+    <t>June 2002</t>
+  </si>
+  <si>
+    <t>July 2002</t>
+  </si>
+  <si>
+    <t>August 2002</t>
+  </si>
+  <si>
+    <t>September 2002</t>
+  </si>
+  <si>
+    <t>October 2002</t>
+  </si>
+  <si>
+    <t>November 2002</t>
+  </si>
+  <si>
+    <t>December 2002</t>
+  </si>
+  <si>
+    <t>January 2003</t>
+  </si>
+  <si>
+    <t>February 2003</t>
+  </si>
+  <si>
+    <t>March 2003</t>
+  </si>
+  <si>
+    <t>April 2003</t>
+  </si>
+  <si>
+    <t>May 2003</t>
+  </si>
+  <si>
+    <t>June 2003</t>
+  </si>
+  <si>
+    <t>July 2003</t>
+  </si>
+  <si>
+    <t>August 2003</t>
+  </si>
+  <si>
+    <t>September 2003</t>
+  </si>
+  <si>
+    <t>October 2003</t>
+  </si>
+  <si>
+    <t>November 2003</t>
+  </si>
+  <si>
+    <t>December 2003</t>
+  </si>
+  <si>
+    <t>January 2004</t>
+  </si>
+  <si>
+    <t>February 2004</t>
+  </si>
+  <si>
+    <t>March 2004</t>
+  </si>
+  <si>
+    <t>April 2004</t>
+  </si>
+  <si>
+    <t>May 2004</t>
+  </si>
+  <si>
+    <t>June 2004</t>
+  </si>
+  <si>
+    <t>July 2004</t>
+  </si>
+  <si>
+    <t>August 2004</t>
+  </si>
+  <si>
+    <t>September 2004</t>
+  </si>
+  <si>
+    <t>October 2004</t>
+  </si>
+  <si>
+    <t>November 2004</t>
+  </si>
+  <si>
+    <t>December 2004</t>
+  </si>
+  <si>
+    <t>January 2005</t>
+  </si>
+  <si>
+    <t>February 2005</t>
+  </si>
+  <si>
+    <t>March 2005</t>
+  </si>
+  <si>
+    <t>April 2005</t>
+  </si>
+  <si>
+    <t>May 2005</t>
+  </si>
+  <si>
+    <t>June 2005</t>
+  </si>
+  <si>
+    <t>July 2005</t>
+  </si>
+  <si>
+    <t>August 2005</t>
+  </si>
+  <si>
+    <t>September 2005</t>
+  </si>
+  <si>
+    <t>October 2005</t>
+  </si>
+  <si>
+    <t>November 2005</t>
+  </si>
+  <si>
+    <t>December 2005</t>
+  </si>
+  <si>
+    <t>January 2006</t>
+  </si>
+  <si>
+    <t>February 2006</t>
+  </si>
+  <si>
+    <t>March 2006</t>
+  </si>
+  <si>
+    <t>April 2006</t>
+  </si>
+  <si>
+    <t>May 2006</t>
+  </si>
+  <si>
+    <t>June 2006</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>September 2006</t>
+  </si>
+  <si>
+    <t>October 2006</t>
+  </si>
+  <si>
+    <t>November 2006</t>
+  </si>
+  <si>
+    <t>December 2006</t>
+  </si>
+  <si>
+    <t>January 2007</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>April 2007</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>November 2007</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>January 2008</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>September 2008</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t>November 2018</t>
+  </si>
+  <si>
+    <t>December 2018</t>
+  </si>
+  <si>
+    <t>January 2019</t>
+  </si>
+  <si>
+    <t>February 2019</t>
+  </si>
+  <si>
+    <t>March 2019</t>
+  </si>
+  <si>
+    <t>April 2019</t>
+  </si>
+  <si>
+    <t>May 2019</t>
+  </si>
+  <si>
+    <t>June 2019</t>
+  </si>
+  <si>
+    <t>July 2019</t>
+  </si>
+  <si>
+    <t>August 2019</t>
+  </si>
+  <si>
+    <t>September 2019</t>
+  </si>
+  <si>
+    <t>October 2019</t>
+  </si>
+  <si>
+    <t>November 2019</t>
+  </si>
+  <si>
+    <t>December 2019</t>
+  </si>
+  <si>
+    <t>January 2020</t>
+  </si>
+  <si>
+    <t>February 2020</t>
+  </si>
+  <si>
+    <t>March 2020</t>
+  </si>
+  <si>
+    <t>April 2020</t>
+  </si>
+  <si>
+    <t>May 2020</t>
+  </si>
+  <si>
+    <t>June 2020</t>
+  </si>
+  <si>
+    <t>July 2020</t>
+  </si>
+  <si>
+    <t>August 2020</t>
+  </si>
+  <si>
+    <t>September 2020</t>
+  </si>
+  <si>
+    <t>October 2020</t>
+  </si>
+  <si>
+    <t>November 2020</t>
+  </si>
+  <si>
+    <t>December 2020</t>
+  </si>
+  <si>
+    <t>January 2021</t>
+  </si>
+  <si>
+    <t>February 2021</t>
+  </si>
+  <si>
+    <t>March 2021</t>
+  </si>
+  <si>
+    <t>April 2021</t>
+  </si>
+  <si>
+    <t>May 2021</t>
+  </si>
+  <si>
+    <t>June 2021</t>
+  </si>
+  <si>
+    <t>July 2021</t>
+  </si>
+  <si>
+    <t>August 2021</t>
+  </si>
+  <si>
+    <t>September 2021</t>
+  </si>
+  <si>
+    <t>October 2021</t>
+  </si>
+  <si>
+    <t>November 2021</t>
+  </si>
+  <si>
+    <t>December 2021</t>
+  </si>
+  <si>
+    <t>January 2022</t>
+  </si>
+  <si>
+    <t>February 2022</t>
+  </si>
+  <si>
+    <t>March 2022</t>
+  </si>
+  <si>
+    <t>April 2022</t>
+  </si>
+  <si>
+    <t>May 2022</t>
+  </si>
+  <si>
+    <t>June 2022</t>
+  </si>
+  <si>
+    <t>July 2022</t>
+  </si>
+  <si>
+    <t>August 2022</t>
+  </si>
+  <si>
+    <t>September 2022</t>
+  </si>
+  <si>
+    <t>October 2022</t>
+  </si>
+  <si>
+    <t>November 2022</t>
+  </si>
+  <si>
+    <t>December 2022</t>
+  </si>
+  <si>
+    <t>January 2023</t>
+  </si>
+  <si>
+    <t>February 2023</t>
+  </si>
+  <si>
+    <t>March 2023</t>
+  </si>
+  <si>
+    <t>April 2023</t>
+  </si>
+  <si>
+    <t>May 2023</t>
+  </si>
+  <si>
+    <t>June 2023</t>
+  </si>
+  <si>
+    <t>July 2023</t>
+  </si>
+  <si>
+    <t>August 2023</t>
+  </si>
+  <si>
+    <t>September 2023</t>
+  </si>
+  <si>
+    <t>October 2023</t>
+  </si>
+  <si>
+    <t>November 2023</t>
+  </si>
+  <si>
+    <t>December 2023</t>
+  </si>
+  <si>
+    <t>Total Obligations</t>
+  </si>
+  <si>
+    <t>Actual Obligations</t>
+  </si>
+  <si>
+    <t>Domestic Debt</t>
+  </si>
+  <si>
+    <t>Domestic Debt: Loans</t>
+  </si>
+  <si>
+    <t>Domestic Debt: Debt Securities</t>
+  </si>
+  <si>
+    <t>External Debt</t>
+  </si>
+  <si>
+    <t>External Debt: Loans</t>
+  </si>
+  <si>
+    <t>External Debt: Debt Securities</t>
+  </si>
+  <si>
+    <t>Guaranteed Obligations</t>
+  </si>
+  <si>
+    <t>Domestic Guaranteed Obligations</t>
+  </si>
+  <si>
+    <t>External Guaranteed Obligations</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">National Government Outstanding Debt</t>
+    <t>National Government Outstanding Debt</t>
   </si>
   <si>
     <t>Source</t>
   </si>
   <si>
-    <t xml:space="preserve">Bureau of Treasury</t>
+    <t>Bureau of Treasury</t>
   </si>
   <si>
     <t>URL</t>
@@ -1439,7 +1446,7 @@
     <t>https://www.treasury.gov.ph/?page_id=12407</t>
   </si>
   <si>
-    <t xml:space="preserve">Other links</t>
+    <t>Other links</t>
   </si>
   <si>
     <t>https://www.foi.gov.ph/requests/aglzfmVmb2ktcGhyHQsSB0NvbnRlbnQiEEJUci05Nzg2NjQyMTk5NjcM</t>
@@ -1454,36 +1461,27 @@
     <t>Units</t>
   </si>
   <si>
-    <t xml:space="preserve">Million Pesos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latest Data</t>
+    <t>Million Pesos</t>
+  </si>
+  <si>
+    <t>Latest Data</t>
   </si>
   <si>
     <t>Availability</t>
   </si>
   <si>
-    <t xml:space="preserve">Total (Actual + Guaranteed)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009 - 2022</t>
+    <t>Total (Actual + Guaranteed)</t>
   </si>
   <si>
     <t xml:space="preserve">  Actual Obligations</t>
   </si>
   <si>
-    <t xml:space="preserve">1993 - 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Domestic Debt</t>
   </si>
   <si>
     <t xml:space="preserve">      Loans</t>
   </si>
   <si>
-    <t xml:space="preserve">1995 - 2008; 2009 - 2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Debt Securities</t>
   </si>
   <si>
@@ -1497,33 +1495,42 @@
   </si>
   <si>
     <t xml:space="preserve">    External</t>
+  </si>
+  <si>
+    <t>2009 - 2023</t>
+  </si>
+  <si>
+    <t>1993 - 2023</t>
+  </si>
+  <si>
+    <t>1995 - 2008; 2009 - 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.000000"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1531,7 +1538,7 @@
     <font>
       <b/>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -1547,33 +1554,33 @@
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="3" xfId="0" applyNumberFormat="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1581,295 +1588,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2072,24 +1799,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:QO19"/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="QG2" activeCellId="0" sqref="QG2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="PW2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="QG2" sqref="QG2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="QO4" sqref="QO4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.28515625"/>
-    <col customWidth="1" min="2" max="457" width="10.7109375"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="457" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3462,7 +3194,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>457</v>
       </c>
@@ -4273,11 +4005,17 @@
       <c r="QL2" s="2">
         <v>14630888</v>
       </c>
-      <c r="QM2" s="2"/>
-      <c r="QN2" s="2"/>
-      <c r="QO2" s="2"/>
+      <c r="QM2" s="2">
+        <v>14841799</v>
+      </c>
+      <c r="QN2" s="2">
+        <v>14861861</v>
+      </c>
+      <c r="QO2" s="2">
+        <v>14965706.76</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>458</v>
       </c>
@@ -4576,7 +4314,7 @@
         <v>1487974.9482499999</v>
       </c>
       <c r="EZ3" s="2">
-        <v>1461038.6399999999</v>
+        <v>1461038.64</v>
       </c>
       <c r="FA3" s="2">
         <v>1496221.764</v>
@@ -4822,7 +4560,7 @@
         <v>3941774.017</v>
       </c>
       <c r="ID3" s="2">
-        <v>4018868.3599999999</v>
+        <v>4018868.36</v>
       </c>
       <c r="IE3" s="2">
         <v>3951689</v>
@@ -5472,11 +5210,17 @@
       <c r="QL3" s="2">
         <v>14268670</v>
       </c>
-      <c r="QM3" s="2"/>
-      <c r="QN3" s="2"/>
-      <c r="QO3" s="2"/>
+      <c r="QM3" s="2">
+        <v>14480800</v>
+      </c>
+      <c r="QN3" s="2">
+        <v>14508723</v>
+      </c>
+      <c r="QO3" s="2">
+        <v>14616266.76</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>459</v>
       </c>
@@ -5775,7 +5519,7 @@
         <v>822295.13</v>
       </c>
       <c r="EZ4" s="2">
-        <v>832966.45999999996</v>
+        <v>832966.46</v>
       </c>
       <c r="FA4" s="2">
         <v>850931.05999999994</v>
@@ -6671,11 +6415,17 @@
       <c r="QL4" s="2">
         <v>9734356</v>
       </c>
-      <c r="QM4" s="2"/>
-      <c r="QN4" s="2"/>
-      <c r="QO4" s="2"/>
+      <c r="QM4" s="2">
+        <v>9902337</v>
+      </c>
+      <c r="QN4" s="2">
+        <v>10024409</v>
+      </c>
+      <c r="QO4" s="2">
+        <v>10017930</v>
+      </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>460</v>
       </c>
@@ -6923,13 +6673,13 @@
         <v>71132.941999999995</v>
       </c>
       <c r="EY5" s="2">
-        <v>67510.130000000005</v>
+        <v>67510.13</v>
       </c>
       <c r="EZ5" s="2">
         <v>65832.460000000006</v>
       </c>
       <c r="FA5" s="2">
-        <v>63144.059999999998</v>
+        <v>63144.06</v>
       </c>
       <c r="FB5" s="2">
         <v>62738.016000000003</v>
@@ -7822,11 +7572,17 @@
       <c r="QL5" s="2">
         <v>156</v>
       </c>
-      <c r="QM5" s="2"/>
-      <c r="QN5" s="2"/>
-      <c r="QO5" s="2"/>
+      <c r="QM5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QN5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QO5" s="2">
+        <v>156</v>
+      </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>461</v>
       </c>
@@ -8973,11 +8729,17 @@
       <c r="QL6" s="2">
         <v>9734200</v>
       </c>
-      <c r="QM6" s="2"/>
-      <c r="QN6" s="2"/>
-      <c r="QO6" s="2"/>
+      <c r="QM6" s="2">
+        <v>9902181</v>
+      </c>
+      <c r="QN6" s="2">
+        <v>10024253</v>
+      </c>
+      <c r="QO6" s="2">
+        <v>10017774</v>
+      </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>462</v>
       </c>
@@ -10172,11 +9934,17 @@
       <c r="QL7" s="2">
         <v>4534314</v>
       </c>
-      <c r="QM7" s="2"/>
-      <c r="QN7" s="2"/>
-      <c r="QO7" s="2"/>
+      <c r="QM7" s="2">
+        <v>4578463</v>
+      </c>
+      <c r="QN7" s="2">
+        <v>4484314</v>
+      </c>
+      <c r="QO7" s="2">
+        <v>4598336.76</v>
+      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>463</v>
       </c>
@@ -10427,7 +10195,7 @@
         <v>513270.97824999999</v>
       </c>
       <c r="EZ8" s="2">
-        <v>481514.28999999998</v>
+        <v>481514.29</v>
       </c>
       <c r="FA8" s="2">
         <v>500479.054</v>
@@ -10673,7 +10441,7 @@
         <v>795042.01699999999</v>
       </c>
       <c r="ID8" s="2">
-        <v>783468.35999999999</v>
+        <v>783468.36</v>
       </c>
       <c r="IE8" s="2">
         <v>744580</v>
@@ -11323,11 +11091,17 @@
       <c r="QL8" s="2">
         <v>2066565</v>
       </c>
-      <c r="QM8" s="2"/>
-      <c r="QN8" s="2"/>
-      <c r="QO8" s="2"/>
+      <c r="QM8" s="2">
+        <v>2103915</v>
+      </c>
+      <c r="QN8" s="2">
+        <v>2061244</v>
+      </c>
+      <c r="QO8" s="2">
+        <v>2113811.7599999998</v>
+      </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>464</v>
       </c>
@@ -11581,7 +11355,7 @@
         <v>146557.89000000001</v>
       </c>
       <c r="FA9" s="2">
-        <v>144811.64999999999</v>
+        <v>144811.65</v>
       </c>
       <c r="FB9" s="2">
         <v>182023</v>
@@ -12474,11 +12248,17 @@
       <c r="QL9" s="2">
         <v>2467749</v>
       </c>
-      <c r="QM9" s="2"/>
-      <c r="QN9" s="2"/>
-      <c r="QO9" s="2"/>
+      <c r="QM9" s="2">
+        <v>2474548</v>
+      </c>
+      <c r="QN9" s="2">
+        <v>2423070</v>
+      </c>
+      <c r="QO9" s="2">
+        <v>2484525</v>
+      </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>465</v>
       </c>
@@ -12792,7 +12572,7 @@
         <v>569571</v>
       </c>
       <c r="KC10" s="2">
-        <v>614133.29000000004</v>
+        <v>614133.29</v>
       </c>
       <c r="KD10" s="2">
         <v>619741</v>
@@ -13289,11 +13069,17 @@
       <c r="QL10" s="2">
         <v>362218</v>
       </c>
-      <c r="QM10" s="2"/>
-      <c r="QN10" s="2"/>
-      <c r="QO10" s="2"/>
+      <c r="QM10" s="2">
+        <v>360999</v>
+      </c>
+      <c r="QN10" s="2">
+        <v>353138</v>
+      </c>
+      <c r="QO10" s="2">
+        <v>349440</v>
+      </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>466</v>
       </c>
@@ -14104,11 +13890,17 @@
       <c r="QL11" s="2">
         <v>191893</v>
       </c>
-      <c r="QM11" s="2"/>
-      <c r="QN11" s="2"/>
-      <c r="QO11" s="2"/>
+      <c r="QM11" s="2">
+        <v>190538</v>
+      </c>
+      <c r="QN11" s="2">
+        <v>189330</v>
+      </c>
+      <c r="QO11" s="2">
+        <v>181760</v>
+      </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:457" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -14422,7 +14214,7 @@
         <v>488052</v>
       </c>
       <c r="KC12" s="2">
-        <v>534614.29000000004</v>
+        <v>534614.29</v>
       </c>
       <c r="KD12" s="2">
         <v>540223</v>
@@ -14919,41 +14711,49 @@
       <c r="QL12" s="2">
         <v>170325</v>
       </c>
-      <c r="QM12" s="2"/>
-      <c r="QN12" s="2"/>
-      <c r="QO12" s="2"/>
+      <c r="QM12" s="2">
+        <v>170461</v>
+      </c>
+      <c r="QN12" s="2">
+        <v>163808</v>
+      </c>
+      <c r="QO12" s="2">
+        <v>167680</v>
+      </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:457" x14ac:dyDescent="0.25">
       <c r="PE14" s="2"/>
       <c r="PQ14" s="2"/>
     </row>
-    <row r="19">
+    <row r="19" spans="421:433" x14ac:dyDescent="0.25">
       <c r="PE19" s="2"/>
       <c r="PQ19" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AW4"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="AV5" activeCellId="0" sqref="AV5"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="AV5" sqref="AV5"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.140625"/>
-    <col customWidth="1" min="2" max="48" width="10"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="49" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15098,8 +14898,11 @@
       <c r="AV1">
         <v>2022</v>
       </c>
+      <c r="AW1">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -15244,8 +15047,11 @@
       <c r="AV2" s="2">
         <v>13418860</v>
       </c>
+      <c r="AW2" s="2">
+        <v>14616266.76</v>
+      </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -15390,8 +15196,11 @@
       <c r="AV3" s="2">
         <v>9208387</v>
       </c>
+      <c r="AW3" s="2">
+        <v>10017930</v>
+      </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>462</v>
       </c>
@@ -15536,28 +15345,30 @@
       <c r="AV4" s="2">
         <v>4210473</v>
       </c>
+      <c r="AW4" s="2">
+        <v>4598336.76</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="36.5703125"/>
+    <col min="1" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>468</v>
       </c>
@@ -15565,7 +15376,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>470</v>
       </c>
@@ -15573,7 +15384,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>472</v>
       </c>
@@ -15581,27 +15392,27 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>474</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
       <c r="B6" s="4" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>478</v>
       </c>
@@ -15609,108 +15420,108 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>480</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>482</v>
       </c>
       <c r="B11" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>483</v>
       </c>
+      <c r="B12" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>485</v>
       </c>
+      <c r="B14" t="s">
+        <v>493</v>
+      </c>
     </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>486</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>485</v>
       </c>
+      <c r="B17" t="s">
+        <v>493</v>
+      </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>487</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>488</v>
       </c>
+      <c r="B19" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B15" t="s">
-        <v>488</v>
+      <c r="B20" t="s">
+        <v>491</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>487</v>
-      </c>
-      <c r="B17" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>489</v>
-      </c>
-      <c r="B18" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
+      <c r="B21" t="s">
         <v>491</v>
-      </c>
-      <c r="B19" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="B20" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="B21" t="s">
-        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -15718,12 +15529,10 @@
     <mergeCell ref="A4:A6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B3"/>
-    <hyperlink r:id="rId2" ref="B4"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BEE9BA-55A9-4E79-8AC8-72640DA171C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63267421-8332-4CE2-9338-AA7EC4490098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="1725" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="506">
   <si>
     <t>Particulars</t>
   </si>
@@ -1504,6 +1504,42 @@
   </si>
   <si>
     <t>1995 - 2008; 2009 - 2023</t>
+  </si>
+  <si>
+    <t>January 2024</t>
+  </si>
+  <si>
+    <t>February 2024</t>
+  </si>
+  <si>
+    <t>March 2024</t>
+  </si>
+  <si>
+    <t>April 2024</t>
+  </si>
+  <si>
+    <t>May 2024</t>
+  </si>
+  <si>
+    <t>June 2024</t>
+  </si>
+  <si>
+    <t>July 2024</t>
+  </si>
+  <si>
+    <t>August 2024</t>
+  </si>
+  <si>
+    <t>September 2024</t>
+  </si>
+  <si>
+    <t>October 2024</t>
+  </si>
+  <si>
+    <t>November 2024</t>
+  </si>
+  <si>
+    <t>December 2024</t>
   </si>
 </sst>
 </file>
@@ -1805,23 +1841,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:QO19"/>
+  <dimension ref="A1:RA19"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="PW2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="QL2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="QO4" sqref="QO4"/>
+      <selection pane="bottomRight" activeCell="QS1" sqref="QS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="457" width="10.7109375" customWidth="1"/>
+    <col min="2" max="469" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3193,8 +3229,44 @@
       <c r="QO1" s="1" t="s">
         <v>456</v>
       </c>
+      <c r="QP1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="QQ1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="QR1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="QS1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="QT1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="QU1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="QV1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="QW1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="QX1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="QY1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="QZ1" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="RA1" s="1" t="s">
+        <v>505</v>
+      </c>
     </row>
-    <row r="2" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>457</v>
       </c>
@@ -4014,8 +4086,26 @@
       <c r="QO2" s="2">
         <v>14965706.76</v>
       </c>
+      <c r="QP2" s="2">
+        <v>15138845</v>
+      </c>
+      <c r="QQ2" s="2">
+        <v>15523627</v>
+      </c>
+      <c r="QR2" s="2">
+        <v>15271761</v>
+      </c>
+      <c r="QS2" s="2"/>
+      <c r="QT2" s="2"/>
+      <c r="QU2" s="2"/>
+      <c r="QV2" s="2"/>
+      <c r="QW2" s="2"/>
+      <c r="QX2" s="2"/>
+      <c r="QY2" s="2"/>
+      <c r="QZ2" s="2"/>
+      <c r="RA2" s="2"/>
     </row>
-    <row r="3" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>458</v>
       </c>
@@ -5219,8 +5309,26 @@
       <c r="QO3" s="2">
         <v>14616266.76</v>
       </c>
+      <c r="QP3" s="2">
+        <v>14790185</v>
+      </c>
+      <c r="QQ3" s="2">
+        <v>15178698</v>
+      </c>
+      <c r="QR3" s="2">
+        <v>14925720</v>
+      </c>
+      <c r="QS3" s="2"/>
+      <c r="QT3" s="2"/>
+      <c r="QU3" s="2"/>
+      <c r="QV3" s="2"/>
+      <c r="QW3" s="2"/>
+      <c r="QX3" s="2"/>
+      <c r="QY3" s="2"/>
+      <c r="QZ3" s="2"/>
+      <c r="RA3" s="2"/>
     </row>
-    <row r="4" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>459</v>
       </c>
@@ -6424,8 +6532,26 @@
       <c r="QO4" s="2">
         <v>10017930</v>
       </c>
+      <c r="QP4" s="2">
+        <v>10162182</v>
+      </c>
+      <c r="QQ4" s="2">
+        <v>10576696</v>
+      </c>
+      <c r="QR4" s="2">
+        <v>10277489</v>
+      </c>
+      <c r="QS4" s="2"/>
+      <c r="QT4" s="2"/>
+      <c r="QU4" s="2"/>
+      <c r="QV4" s="2"/>
+      <c r="QW4" s="2"/>
+      <c r="QX4" s="2"/>
+      <c r="QY4" s="2"/>
+      <c r="QZ4" s="2"/>
+      <c r="RA4" s="2"/>
     </row>
-    <row r="5" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>460</v>
       </c>
@@ -7581,8 +7707,26 @@
       <c r="QO5" s="2">
         <v>156</v>
       </c>
+      <c r="QP5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QQ5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QR5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QS5" s="2"/>
+      <c r="QT5" s="2"/>
+      <c r="QU5" s="2"/>
+      <c r="QV5" s="2"/>
+      <c r="QW5" s="2"/>
+      <c r="QX5" s="2"/>
+      <c r="QY5" s="2"/>
+      <c r="QZ5" s="2"/>
+      <c r="RA5" s="2"/>
     </row>
-    <row r="6" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>461</v>
       </c>
@@ -8738,8 +8882,26 @@
       <c r="QO6" s="2">
         <v>10017774</v>
       </c>
+      <c r="QP6" s="2">
+        <v>10162026</v>
+      </c>
+      <c r="QQ6" s="2">
+        <v>10576540</v>
+      </c>
+      <c r="QR6" s="2">
+        <v>10277333</v>
+      </c>
+      <c r="QS6" s="2"/>
+      <c r="QT6" s="2"/>
+      <c r="QU6" s="2"/>
+      <c r="QV6" s="2"/>
+      <c r="QW6" s="2"/>
+      <c r="QX6" s="2"/>
+      <c r="QY6" s="2"/>
+      <c r="QZ6" s="2"/>
+      <c r="RA6" s="2"/>
     </row>
-    <row r="7" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>462</v>
       </c>
@@ -9943,8 +10105,26 @@
       <c r="QO7" s="2">
         <v>4598336.76</v>
       </c>
+      <c r="QP7" s="2">
+        <v>4628003</v>
+      </c>
+      <c r="QQ7" s="2">
+        <v>4602002</v>
+      </c>
+      <c r="QR7" s="2">
+        <v>4648231</v>
+      </c>
+      <c r="QS7" s="2"/>
+      <c r="QT7" s="2"/>
+      <c r="QU7" s="2"/>
+      <c r="QV7" s="2"/>
+      <c r="QW7" s="2"/>
+      <c r="QX7" s="2"/>
+      <c r="QY7" s="2"/>
+      <c r="QZ7" s="2"/>
+      <c r="RA7" s="2"/>
     </row>
-    <row r="8" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>463</v>
       </c>
@@ -11100,8 +11280,26 @@
       <c r="QO8" s="2">
         <v>2113811.7599999998</v>
       </c>
+      <c r="QP8" s="2">
+        <v>2193028</v>
+      </c>
+      <c r="QQ8" s="2">
+        <v>2178732</v>
+      </c>
+      <c r="QR8" s="2">
+        <v>2222362</v>
+      </c>
+      <c r="QS8" s="2"/>
+      <c r="QT8" s="2"/>
+      <c r="QU8" s="2"/>
+      <c r="QV8" s="2"/>
+      <c r="QW8" s="2"/>
+      <c r="QX8" s="2"/>
+      <c r="QY8" s="2"/>
+      <c r="QZ8" s="2"/>
+      <c r="RA8" s="2"/>
     </row>
-    <row r="9" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>464</v>
       </c>
@@ -12257,8 +12455,26 @@
       <c r="QO9" s="2">
         <v>2484525</v>
       </c>
+      <c r="QP9" s="2">
+        <v>2434975</v>
+      </c>
+      <c r="QQ9" s="2">
+        <v>2423270</v>
+      </c>
+      <c r="QR9" s="2">
+        <v>2425869</v>
+      </c>
+      <c r="QS9" s="2"/>
+      <c r="QT9" s="2"/>
+      <c r="QU9" s="2"/>
+      <c r="QV9" s="2"/>
+      <c r="QW9" s="2"/>
+      <c r="QX9" s="2"/>
+      <c r="QY9" s="2"/>
+      <c r="QZ9" s="2"/>
+      <c r="RA9" s="2"/>
     </row>
-    <row r="10" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>465</v>
       </c>
@@ -13078,8 +13294,26 @@
       <c r="QO10" s="2">
         <v>349440</v>
       </c>
+      <c r="QP10" s="2">
+        <v>348660</v>
+      </c>
+      <c r="QQ10" s="2">
+        <v>344929</v>
+      </c>
+      <c r="QR10" s="2">
+        <v>346041</v>
+      </c>
+      <c r="QS10" s="2"/>
+      <c r="QT10" s="2"/>
+      <c r="QU10" s="2"/>
+      <c r="QV10" s="2"/>
+      <c r="QW10" s="2"/>
+      <c r="QX10" s="2"/>
+      <c r="QY10" s="2"/>
+      <c r="QZ10" s="2"/>
+      <c r="RA10" s="2"/>
     </row>
-    <row r="11" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>466</v>
       </c>
@@ -13899,8 +14133,26 @@
       <c r="QO11" s="2">
         <v>181760</v>
       </c>
+      <c r="QP11" s="2">
+        <v>180645</v>
+      </c>
+      <c r="QQ11" s="2">
+        <v>181932</v>
+      </c>
+      <c r="QR11" s="2">
+        <v>184414</v>
+      </c>
+      <c r="QS11" s="2"/>
+      <c r="QT11" s="2"/>
+      <c r="QU11" s="2"/>
+      <c r="QV11" s="2"/>
+      <c r="QW11" s="2"/>
+      <c r="QX11" s="2"/>
+      <c r="QY11" s="2"/>
+      <c r="QZ11" s="2"/>
+      <c r="RA11" s="2"/>
     </row>
-    <row r="12" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -14720,8 +14972,26 @@
       <c r="QO12" s="2">
         <v>167680</v>
       </c>
+      <c r="QP12" s="2">
+        <v>168015</v>
+      </c>
+      <c r="QQ12" s="2">
+        <v>162997</v>
+      </c>
+      <c r="QR12" s="2">
+        <v>161627</v>
+      </c>
+      <c r="QS12" s="2"/>
+      <c r="QT12" s="2"/>
+      <c r="QU12" s="2"/>
+      <c r="QV12" s="2"/>
+      <c r="QW12" s="2"/>
+      <c r="QX12" s="2"/>
+      <c r="QY12" s="2"/>
+      <c r="QZ12" s="2"/>
+      <c r="RA12" s="2"/>
     </row>
-    <row r="14" spans="1:457" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:469" x14ac:dyDescent="0.25">
       <c r="PE14" s="2"/>
       <c r="PQ14" s="2"/>
     </row>
@@ -14740,11 +15010,11 @@
   <dimension ref="A1:AW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AV5" sqref="AV5"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW5" sqref="AW5"/>
+      <selection pane="bottomRight" activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15359,7 +15629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63267421-8332-4CE2-9338-AA7EC4490098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93F1E30-091B-413F-86D2-695A9C2BD569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,25 @@
     <sheet name="annual" sheetId="2" r:id="rId2"/>
     <sheet name="metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="509">
   <si>
     <t>Particulars</t>
   </si>
@@ -1540,17 +1553,33 @@
   </si>
   <si>
     <t>December 2024</t>
+  </si>
+  <si>
+    <t>Debt Service - Interest Payment</t>
+  </si>
+  <si>
+    <t>Debt Service - Amortization</t>
+  </si>
+  <si>
+    <t>1986 - 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1579,13 +1608,27 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1599,19 +1642,22 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1844,11 +1890,11 @@
   <dimension ref="A1:RA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="QL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="QJ2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="QS1" sqref="QS1"/>
+      <selection pane="bottomRight" activeCell="QU15" sqref="QU15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4095,9 +4141,15 @@
       <c r="QR2" s="2">
         <v>15271761</v>
       </c>
-      <c r="QS2" s="2"/>
-      <c r="QT2" s="2"/>
-      <c r="QU2" s="2"/>
+      <c r="QS2" s="2">
+        <v>15373268</v>
+      </c>
+      <c r="QT2" s="2">
+        <v>15697807</v>
+      </c>
+      <c r="QU2" s="2">
+        <v>15827146</v>
+      </c>
       <c r="QV2" s="2"/>
       <c r="QW2" s="2"/>
       <c r="QX2" s="2"/>
@@ -4106,7 +4158,7 @@
       <c r="RA2" s="2"/>
     </row>
     <row r="3" spans="1:469" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>458</v>
       </c>
       <c r="B3" s="2"/>
@@ -5318,9 +5370,15 @@
       <c r="QR3" s="2">
         <v>14925720</v>
       </c>
-      <c r="QS3" s="2"/>
-      <c r="QT3" s="2"/>
-      <c r="QU3" s="2"/>
+      <c r="QS3" s="2">
+        <v>15017211</v>
+      </c>
+      <c r="QT3" s="2">
+        <v>15347604</v>
+      </c>
+      <c r="QU3" s="2">
+        <v>15483499</v>
+      </c>
       <c r="QV3" s="2"/>
       <c r="QW3" s="2"/>
       <c r="QX3" s="2"/>
@@ -6541,9 +6599,15 @@
       <c r="QR4" s="2">
         <v>10277489</v>
       </c>
-      <c r="QS4" s="2"/>
-      <c r="QT4" s="2"/>
-      <c r="QU4" s="2"/>
+      <c r="QS4" s="2">
+        <v>10308495</v>
+      </c>
+      <c r="QT4" s="2">
+        <v>10442843</v>
+      </c>
+      <c r="QU4" s="2">
+        <v>10573116</v>
+      </c>
       <c r="QV4" s="2"/>
       <c r="QW4" s="2"/>
       <c r="QX4" s="2"/>
@@ -7716,9 +7780,15 @@
       <c r="QR5" s="2">
         <v>156</v>
       </c>
-      <c r="QS5" s="2"/>
-      <c r="QT5" s="2"/>
-      <c r="QU5" s="2"/>
+      <c r="QS5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QT5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QU5" s="2">
+        <v>156</v>
+      </c>
       <c r="QV5" s="2"/>
       <c r="QW5" s="2"/>
       <c r="QX5" s="2"/>
@@ -8891,9 +8961,15 @@
       <c r="QR6" s="2">
         <v>10277333</v>
       </c>
-      <c r="QS6" s="2"/>
-      <c r="QT6" s="2"/>
-      <c r="QU6" s="2"/>
+      <c r="QS6" s="2">
+        <v>10308339</v>
+      </c>
+      <c r="QT6" s="2">
+        <v>10442687</v>
+      </c>
+      <c r="QU6" s="2">
+        <v>10572960</v>
+      </c>
       <c r="QV6" s="2"/>
       <c r="QW6" s="2"/>
       <c r="QX6" s="2"/>
@@ -10114,9 +10190,15 @@
       <c r="QR7" s="2">
         <v>4648231</v>
       </c>
-      <c r="QS7" s="2"/>
-      <c r="QT7" s="2"/>
-      <c r="QU7" s="2"/>
+      <c r="QS7" s="2">
+        <v>4708716</v>
+      </c>
+      <c r="QT7" s="2">
+        <v>4904761</v>
+      </c>
+      <c r="QU7" s="2">
+        <v>4910383</v>
+      </c>
       <c r="QV7" s="2"/>
       <c r="QW7" s="2"/>
       <c r="QX7" s="2"/>
@@ -11289,9 +11371,15 @@
       <c r="QR8" s="2">
         <v>2222362</v>
       </c>
-      <c r="QS8" s="2"/>
-      <c r="QT8" s="2"/>
-      <c r="QU8" s="2"/>
+      <c r="QS8" s="2">
+        <v>2251208</v>
+      </c>
+      <c r="QT8" s="2">
+        <v>2289032</v>
+      </c>
+      <c r="QU8" s="2">
+        <v>2292443</v>
+      </c>
       <c r="QV8" s="2"/>
       <c r="QW8" s="2"/>
       <c r="QX8" s="2"/>
@@ -12464,9 +12552,15 @@
       <c r="QR9" s="2">
         <v>2425869</v>
       </c>
-      <c r="QS9" s="2"/>
-      <c r="QT9" s="2"/>
-      <c r="QU9" s="2"/>
+      <c r="QS9" s="2">
+        <v>2457508</v>
+      </c>
+      <c r="QT9" s="2">
+        <v>2615729</v>
+      </c>
+      <c r="QU9" s="2">
+        <v>2617940</v>
+      </c>
       <c r="QV9" s="2"/>
       <c r="QW9" s="2"/>
       <c r="QX9" s="2"/>
@@ -13303,9 +13397,15 @@
       <c r="QR10" s="2">
         <v>346041</v>
       </c>
-      <c r="QS10" s="2"/>
-      <c r="QT10" s="2"/>
-      <c r="QU10" s="2"/>
+      <c r="QS10" s="2">
+        <v>356057</v>
+      </c>
+      <c r="QT10" s="2">
+        <v>350203</v>
+      </c>
+      <c r="QU10" s="2">
+        <v>343647</v>
+      </c>
       <c r="QV10" s="2"/>
       <c r="QW10" s="2"/>
       <c r="QX10" s="2"/>
@@ -14142,9 +14242,15 @@
       <c r="QR11" s="2">
         <v>184414</v>
       </c>
-      <c r="QS11" s="2"/>
-      <c r="QT11" s="2"/>
-      <c r="QU11" s="2"/>
+      <c r="QS11" s="2">
+        <v>191951</v>
+      </c>
+      <c r="QT11" s="2">
+        <v>187587</v>
+      </c>
+      <c r="QU11" s="2">
+        <v>182571</v>
+      </c>
       <c r="QV11" s="2"/>
       <c r="QW11" s="2"/>
       <c r="QX11" s="2"/>
@@ -14981,9 +15087,15 @@
       <c r="QR12" s="2">
         <v>161627</v>
       </c>
-      <c r="QS12" s="2"/>
-      <c r="QT12" s="2"/>
-      <c r="QU12" s="2"/>
+      <c r="QS12" s="2">
+        <v>164106</v>
+      </c>
+      <c r="QT12" s="2">
+        <v>162616</v>
+      </c>
+      <c r="QU12" s="2">
+        <v>161076</v>
+      </c>
       <c r="QV12" s="2"/>
       <c r="QW12" s="2"/>
       <c r="QX12" s="2"/>
@@ -14991,9 +15103,2799 @@
       <c r="QZ12" s="2"/>
       <c r="RA12" s="2"/>
     </row>
+    <row r="13" spans="1:469" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="2">
+        <v>915</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1376</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3753</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1781</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1307</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1292</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1034</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1231</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1392</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1663</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1889</v>
+      </c>
+      <c r="M13" s="2">
+        <v>3979</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1731</v>
+      </c>
+      <c r="O13" s="2">
+        <v>2969</v>
+      </c>
+      <c r="P13" s="2">
+        <v>4725</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3338</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2817</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3473</v>
+      </c>
+      <c r="T13" s="2">
+        <v>3038</v>
+      </c>
+      <c r="U13" s="2">
+        <v>2843</v>
+      </c>
+      <c r="V13" s="2">
+        <v>3090</v>
+      </c>
+      <c r="W13" s="2">
+        <v>2635</v>
+      </c>
+      <c r="X13" s="2">
+        <v>2953</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>3293</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>3295</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>3500</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>5005</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>3852</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>4190</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>4169</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>3496</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>3884</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>3323</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>3533</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>2342</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>5276</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>4247</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>3843</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>4522</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>4857</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>4683</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>2788</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>4234</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>4937</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>4071</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>5473</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>5064</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>5995</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>6506</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>4073</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>4920</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>7708</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>5447</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>5696</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>5924</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>5911</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>5166</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>8187</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>6469</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>5107</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>4640</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>4655</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>4062</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>11686</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>6844</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>5596</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>8243</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>4085</v>
+      </c>
+      <c r="BR13" s="2">
+        <v>3566</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>9185</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>5465</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>6895</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>9730</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>7022</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>5781</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>7707</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>4708</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>5769</v>
+      </c>
+      <c r="CB13" s="2">
+        <v>8890</v>
+      </c>
+      <c r="CC13" s="2">
+        <v>5722</v>
+      </c>
+      <c r="CD13" s="2">
+        <v>6850</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>6316</v>
+      </c>
+      <c r="CF13" s="2">
+        <v>5913</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>5163</v>
+      </c>
+      <c r="CH13" s="2">
+        <v>6469</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>9710</v>
+      </c>
+      <c r="CJ13" s="2">
+        <v>7234</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>6616</v>
+      </c>
+      <c r="CL13" s="2">
+        <v>5721</v>
+      </c>
+      <c r="CM13" s="2">
+        <v>5681</v>
+      </c>
+      <c r="CN13" s="2">
+        <v>4205</v>
+      </c>
+      <c r="CO13" s="2">
+        <v>7325</v>
+      </c>
+      <c r="CP13" s="2">
+        <v>5462</v>
+      </c>
+      <c r="CQ13" s="2">
+        <v>3665</v>
+      </c>
+      <c r="CR13" s="2">
+        <v>8819</v>
+      </c>
+      <c r="CS13" s="2">
+        <v>5584</v>
+      </c>
+      <c r="CT13" s="2">
+        <v>8618</v>
+      </c>
+      <c r="CU13" s="2">
+        <v>6502</v>
+      </c>
+      <c r="CV13" s="2">
+        <v>6301</v>
+      </c>
+      <c r="CW13" s="2">
+        <v>5316</v>
+      </c>
+      <c r="CX13" s="2">
+        <v>8843</v>
+      </c>
+      <c r="CY13" s="2">
+        <v>7057</v>
+      </c>
+      <c r="CZ13" s="2">
+        <v>5559</v>
+      </c>
+      <c r="DA13" s="2">
+        <v>8694</v>
+      </c>
+      <c r="DB13" s="2">
+        <v>5563</v>
+      </c>
+      <c r="DC13" s="2">
+        <v>5202</v>
+      </c>
+      <c r="DD13" s="2">
+        <v>6994</v>
+      </c>
+      <c r="DE13" s="2">
+        <v>4474</v>
+      </c>
+      <c r="DF13" s="2">
+        <v>5087</v>
+      </c>
+      <c r="DG13" s="2">
+        <v>4290</v>
+      </c>
+      <c r="DH13" s="2">
+        <v>6118</v>
+      </c>
+      <c r="DI13" s="2">
+        <v>5670</v>
+      </c>
+      <c r="DJ13" s="2">
+        <v>9316</v>
+      </c>
+      <c r="DK13" s="2">
+        <v>6809</v>
+      </c>
+      <c r="DL13" s="2">
+        <v>6479</v>
+      </c>
+      <c r="DM13" s="2">
+        <v>5675</v>
+      </c>
+      <c r="DN13" s="2">
+        <v>5272</v>
+      </c>
+      <c r="DO13" s="2">
+        <v>5777</v>
+      </c>
+      <c r="DP13" s="2">
+        <v>6900</v>
+      </c>
+      <c r="DQ13" s="2">
+        <v>5265</v>
+      </c>
+      <c r="DR13" s="2">
+        <v>8433</v>
+      </c>
+      <c r="DS13" s="2">
+        <v>5613</v>
+      </c>
+      <c r="DT13" s="2">
+        <v>4929</v>
+      </c>
+      <c r="DU13" s="2">
+        <v>6568</v>
+      </c>
+      <c r="DV13" s="2">
+        <v>7162</v>
+      </c>
+      <c r="DW13" s="2">
+        <v>5363</v>
+      </c>
+      <c r="DX13" s="2">
+        <v>8425</v>
+      </c>
+      <c r="DY13" s="2">
+        <v>7645</v>
+      </c>
+      <c r="DZ13" s="2">
+        <v>6358</v>
+      </c>
+      <c r="EA13" s="2">
+        <v>6487</v>
+      </c>
+      <c r="EB13" s="2">
+        <v>4295</v>
+      </c>
+      <c r="EC13" s="2">
+        <v>5244</v>
+      </c>
+      <c r="ED13" s="2">
+        <v>6266</v>
+      </c>
+      <c r="EE13" s="2">
+        <v>5131</v>
+      </c>
+      <c r="EF13" s="2">
+        <v>6809</v>
+      </c>
+      <c r="EG13" s="2">
+        <v>6510</v>
+      </c>
+      <c r="EH13" s="2">
+        <v>4652</v>
+      </c>
+      <c r="EI13" s="2">
+        <v>5023</v>
+      </c>
+      <c r="EJ13" s="2">
+        <v>5862</v>
+      </c>
+      <c r="EK13" s="2">
+        <v>8061</v>
+      </c>
+      <c r="EL13" s="2">
+        <v>10027</v>
+      </c>
+      <c r="EM13" s="2">
+        <v>8358</v>
+      </c>
+      <c r="EN13" s="2">
+        <v>5158</v>
+      </c>
+      <c r="EO13" s="2">
+        <v>6114</v>
+      </c>
+      <c r="EP13" s="2">
+        <v>8072</v>
+      </c>
+      <c r="EQ13" s="2">
+        <v>6884</v>
+      </c>
+      <c r="ER13" s="2">
+        <v>9232</v>
+      </c>
+      <c r="ES13" s="2">
+        <v>8254</v>
+      </c>
+      <c r="ET13" s="2">
+        <v>6437</v>
+      </c>
+      <c r="EU13" s="2">
+        <v>7324</v>
+      </c>
+      <c r="EV13" s="2">
+        <v>8594</v>
+      </c>
+      <c r="EW13" s="2">
+        <v>10015</v>
+      </c>
+      <c r="EX13" s="2">
+        <v>10273</v>
+      </c>
+      <c r="EY13" s="2">
+        <v>9852</v>
+      </c>
+      <c r="EZ13" s="2">
+        <v>7046</v>
+      </c>
+      <c r="FA13" s="2">
+        <v>7809</v>
+      </c>
+      <c r="FB13" s="2">
+        <v>6245</v>
+      </c>
+      <c r="FC13" s="2">
+        <v>7200</v>
+      </c>
+      <c r="FD13" s="2">
+        <v>12242</v>
+      </c>
+      <c r="FE13" s="2">
+        <v>9554</v>
+      </c>
+      <c r="FF13" s="2">
+        <v>6835</v>
+      </c>
+      <c r="FG13" s="2">
+        <v>8677</v>
+      </c>
+      <c r="FH13" s="2">
+        <v>6963</v>
+      </c>
+      <c r="FI13" s="2">
+        <v>8226</v>
+      </c>
+      <c r="FJ13" s="2">
+        <v>12215</v>
+      </c>
+      <c r="FK13" s="2">
+        <v>11993</v>
+      </c>
+      <c r="FL13" s="2">
+        <v>6283</v>
+      </c>
+      <c r="FM13" s="2">
+        <v>9857</v>
+      </c>
+      <c r="FN13" s="2">
+        <v>9158</v>
+      </c>
+      <c r="FO13" s="2">
+        <v>6023</v>
+      </c>
+      <c r="FP13" s="2">
+        <v>10442</v>
+      </c>
+      <c r="FQ13" s="2">
+        <v>12849</v>
+      </c>
+      <c r="FR13" s="2">
+        <v>9625</v>
+      </c>
+      <c r="FS13" s="2">
+        <v>10415</v>
+      </c>
+      <c r="FT13" s="2">
+        <v>11685</v>
+      </c>
+      <c r="FU13" s="2">
+        <v>8820</v>
+      </c>
+      <c r="FV13" s="2">
+        <v>17711</v>
+      </c>
+      <c r="FW13" s="2">
+        <v>17691</v>
+      </c>
+      <c r="FX13" s="2">
+        <v>13454</v>
+      </c>
+      <c r="FY13" s="2">
+        <v>13021</v>
+      </c>
+      <c r="FZ13" s="2">
+        <v>15075</v>
+      </c>
+      <c r="GA13" s="2">
+        <v>9572</v>
+      </c>
+      <c r="GB13" s="2">
+        <v>18513</v>
+      </c>
+      <c r="GC13" s="2">
+        <v>16290</v>
+      </c>
+      <c r="GD13" s="2">
+        <v>9780</v>
+      </c>
+      <c r="GE13" s="2">
+        <v>13850</v>
+      </c>
+      <c r="GF13" s="2">
+        <v>15406</v>
+      </c>
+      <c r="GG13" s="2">
+        <v>12945</v>
+      </c>
+      <c r="GH13" s="2">
+        <v>20208</v>
+      </c>
+      <c r="GI13" s="2">
+        <v>17854</v>
+      </c>
+      <c r="GJ13" s="2">
+        <v>13181</v>
+      </c>
+      <c r="GK13" s="2">
+        <v>12160</v>
+      </c>
+      <c r="GL13" s="2">
+        <v>15045</v>
+      </c>
+      <c r="GM13" s="2">
+        <v>12203</v>
+      </c>
+      <c r="GN13" s="2">
+        <v>14460</v>
+      </c>
+      <c r="GO13" s="2">
+        <v>17566</v>
+      </c>
+      <c r="GP13" s="2">
+        <v>13045</v>
+      </c>
+      <c r="GQ13" s="2">
+        <v>9324</v>
+      </c>
+      <c r="GR13" s="2">
+        <v>15994</v>
+      </c>
+      <c r="GS13" s="2">
+        <v>14406</v>
+      </c>
+      <c r="GT13" s="2">
+        <v>24693</v>
+      </c>
+      <c r="GU13" s="2">
+        <v>18472</v>
+      </c>
+      <c r="GV13" s="2">
+        <v>15484</v>
+      </c>
+      <c r="GW13" s="2">
+        <v>15169</v>
+      </c>
+      <c r="GX13" s="2">
+        <v>19141</v>
+      </c>
+      <c r="GY13" s="2">
+        <v>15512</v>
+      </c>
+      <c r="GZ13" s="2">
+        <v>25514</v>
+      </c>
+      <c r="HA13" s="2">
+        <v>21943</v>
+      </c>
+      <c r="HB13" s="2">
+        <v>17441</v>
+      </c>
+      <c r="HC13" s="2">
+        <v>11569</v>
+      </c>
+      <c r="HD13" s="2">
+        <v>18537</v>
+      </c>
+      <c r="HE13" s="2">
+        <v>15573</v>
+      </c>
+      <c r="HF13" s="2">
+        <v>23954</v>
+      </c>
+      <c r="HG13" s="2">
+        <v>24548</v>
+      </c>
+      <c r="HH13" s="2">
+        <v>15737</v>
+      </c>
+      <c r="HI13" s="2">
+        <v>16939</v>
+      </c>
+      <c r="HJ13" s="2">
+        <v>22953</v>
+      </c>
+      <c r="HK13" s="2">
+        <v>17823</v>
+      </c>
+      <c r="HL13" s="2">
+        <v>26039</v>
+      </c>
+      <c r="HM13" s="2">
+        <v>25965</v>
+      </c>
+      <c r="HN13" s="2">
+        <v>16258</v>
+      </c>
+      <c r="HO13" s="2">
+        <v>11972</v>
+      </c>
+      <c r="HP13" s="2">
+        <v>28495</v>
+      </c>
+      <c r="HQ13" s="2">
+        <v>19463</v>
+      </c>
+      <c r="HR13" s="2">
+        <v>30067</v>
+      </c>
+      <c r="HS13" s="2">
+        <v>27640</v>
+      </c>
+      <c r="HT13" s="2">
+        <v>18488</v>
+      </c>
+      <c r="HU13" s="2">
+        <v>15738</v>
+      </c>
+      <c r="HV13" s="2">
+        <v>31702</v>
+      </c>
+      <c r="HW13" s="2">
+        <v>25061</v>
+      </c>
+      <c r="HX13" s="2">
+        <v>28760</v>
+      </c>
+      <c r="HY13" s="2">
+        <v>26917</v>
+      </c>
+      <c r="HZ13" s="2">
+        <v>18954</v>
+      </c>
+      <c r="IA13" s="2">
+        <v>11695</v>
+      </c>
+      <c r="IB13" s="2">
+        <v>31167</v>
+      </c>
+      <c r="IC13" s="2">
+        <v>29282</v>
+      </c>
+      <c r="ID13" s="2">
+        <v>31750</v>
+      </c>
+      <c r="IE13" s="2">
+        <v>31684</v>
+      </c>
+      <c r="IF13" s="2">
+        <v>19404</v>
+      </c>
+      <c r="IG13" s="2">
+        <v>13431</v>
+      </c>
+      <c r="IH13" s="2">
+        <v>31894</v>
+      </c>
+      <c r="II13" s="2">
+        <v>36805</v>
+      </c>
+      <c r="IJ13" s="2">
+        <v>35123</v>
+      </c>
+      <c r="IK13" s="2">
+        <v>24680</v>
+      </c>
+      <c r="IL13" s="2">
+        <v>15743</v>
+      </c>
+      <c r="IM13" s="2">
+        <v>12317</v>
+      </c>
+      <c r="IN13" s="2">
+        <v>34176</v>
+      </c>
+      <c r="IO13" s="2">
+        <v>30670</v>
+      </c>
+      <c r="IP13" s="2">
+        <v>33042</v>
+      </c>
+      <c r="IQ13" s="2">
+        <v>23329</v>
+      </c>
+      <c r="IR13" s="2">
+        <v>15104</v>
+      </c>
+      <c r="IS13" s="2">
+        <v>17225</v>
+      </c>
+      <c r="IT13" s="2">
+        <v>32300</v>
+      </c>
+      <c r="IU13" s="2">
+        <v>26464</v>
+      </c>
+      <c r="IV13" s="2">
+        <v>30385</v>
+      </c>
+      <c r="IW13" s="2">
+        <v>19970</v>
+      </c>
+      <c r="IX13" s="2">
+        <v>14044</v>
+      </c>
+      <c r="IY13" s="2">
+        <v>6463</v>
+      </c>
+      <c r="IZ13" s="2">
+        <v>29862</v>
+      </c>
+      <c r="JA13" s="2">
+        <v>33027</v>
+      </c>
+      <c r="JB13" s="2">
+        <v>30174</v>
+      </c>
+      <c r="JC13" s="2">
+        <v>18624</v>
+      </c>
+      <c r="JD13" s="2">
+        <v>13828</v>
+      </c>
+      <c r="JE13" s="2">
+        <v>12659</v>
+      </c>
+      <c r="JF13" s="2">
+        <v>30048</v>
+      </c>
+      <c r="JG13" s="2">
+        <v>39871</v>
+      </c>
+      <c r="JH13" s="2">
+        <v>30323</v>
+      </c>
+      <c r="JI13" s="2">
+        <v>18730</v>
+      </c>
+      <c r="JJ13" s="2">
+        <v>14023</v>
+      </c>
+      <c r="JK13" s="2">
+        <v>7971</v>
+      </c>
+      <c r="JL13" s="2">
+        <v>33250</v>
+      </c>
+      <c r="JM13" s="2">
+        <v>31320</v>
+      </c>
+      <c r="JN13" s="2">
+        <v>29170</v>
+      </c>
+      <c r="JO13" s="2">
+        <v>17587</v>
+      </c>
+      <c r="JP13" s="2">
+        <v>12235</v>
+      </c>
+      <c r="JQ13" s="2">
+        <v>7690</v>
+      </c>
+      <c r="JR13" s="2">
+        <v>35532</v>
+      </c>
+      <c r="JS13" s="2">
+        <v>35512</v>
+      </c>
+      <c r="JT13" s="2">
+        <v>35277</v>
+      </c>
+      <c r="JU13" s="2">
+        <v>15839</v>
+      </c>
+      <c r="JV13" s="2">
+        <v>11831</v>
+      </c>
+      <c r="JW13" s="2">
+        <v>10752</v>
+      </c>
+      <c r="JX13" s="2">
+        <v>38961</v>
+      </c>
+      <c r="JY13" s="2">
+        <v>19736</v>
+      </c>
+      <c r="JZ13" s="2">
+        <v>31843</v>
+      </c>
+      <c r="KA13" s="2">
+        <v>14130</v>
+      </c>
+      <c r="KB13" s="2">
+        <v>10734</v>
+      </c>
+      <c r="KC13" s="2">
+        <v>18719</v>
+      </c>
+      <c r="KD13" s="2">
+        <v>37602</v>
+      </c>
+      <c r="KE13" s="2">
+        <v>31399</v>
+      </c>
+      <c r="KF13" s="2">
+        <v>39897</v>
+      </c>
+      <c r="KG13" s="2">
+        <v>15654</v>
+      </c>
+      <c r="KH13" s="2">
+        <v>11817</v>
+      </c>
+      <c r="KI13" s="2">
+        <v>10333</v>
+      </c>
+      <c r="KJ13" s="2">
+        <v>42760</v>
+      </c>
+      <c r="KK13" s="2">
+        <v>23264</v>
+      </c>
+      <c r="KL13" s="2">
+        <v>31823</v>
+      </c>
+      <c r="KM13" s="2">
+        <v>13985</v>
+      </c>
+      <c r="KN13" s="2">
+        <v>16441</v>
+      </c>
+      <c r="KO13" s="2">
+        <v>19269</v>
+      </c>
+      <c r="KP13" s="2">
+        <v>35837</v>
+      </c>
+      <c r="KQ13" s="2">
+        <v>22151</v>
+      </c>
+      <c r="KR13" s="2">
+        <v>32732</v>
+      </c>
+      <c r="KS13" s="2">
+        <v>11432</v>
+      </c>
+      <c r="KT13" s="2">
+        <v>15645</v>
+      </c>
+      <c r="KU13" s="2">
+        <v>16705</v>
+      </c>
+      <c r="KV13" s="2">
+        <v>41199</v>
+      </c>
+      <c r="KW13" s="2">
+        <v>20906</v>
+      </c>
+      <c r="KX13" s="2">
+        <v>25835</v>
+      </c>
+      <c r="KY13" s="2">
+        <v>12657</v>
+      </c>
+      <c r="KZ13" s="2">
+        <v>16408</v>
+      </c>
+      <c r="LA13" s="2">
+        <v>27489</v>
+      </c>
+      <c r="LB13" s="2">
+        <v>50280</v>
+      </c>
+      <c r="LC13" s="2">
+        <v>20571</v>
+      </c>
+      <c r="LD13" s="2">
+        <v>27638</v>
+      </c>
+      <c r="LE13" s="2">
+        <v>16138</v>
+      </c>
+      <c r="LF13" s="2">
+        <v>16362</v>
+      </c>
+      <c r="LG13" s="2">
+        <v>19021</v>
+      </c>
+      <c r="LH13" s="2">
+        <v>51289</v>
+      </c>
+      <c r="LI13" s="2">
+        <v>19816</v>
+      </c>
+      <c r="LJ13" s="2">
+        <v>24134</v>
+      </c>
+      <c r="LK13" s="2">
+        <v>21440</v>
+      </c>
+      <c r="LL13" s="2">
+        <v>15648</v>
+      </c>
+      <c r="LM13" s="2">
+        <v>30462</v>
+      </c>
+      <c r="LN13" s="2">
+        <v>54841</v>
+      </c>
+      <c r="LO13" s="2">
+        <v>17920</v>
+      </c>
+      <c r="LP13" s="2">
+        <v>25575</v>
+      </c>
+      <c r="LQ13" s="2">
+        <v>23681</v>
+      </c>
+      <c r="LR13" s="2">
+        <v>16700</v>
+      </c>
+      <c r="LS13" s="2">
+        <v>18418</v>
+      </c>
+      <c r="LT13" s="2">
+        <v>53510</v>
+      </c>
+      <c r="LU13" s="2">
+        <v>18230</v>
+      </c>
+      <c r="LV13" s="2">
+        <v>29214</v>
+      </c>
+      <c r="LW13" s="2">
+        <v>20484</v>
+      </c>
+      <c r="LX13" s="2">
+        <v>18116</v>
+      </c>
+      <c r="LY13" s="2">
+        <v>26745</v>
+      </c>
+      <c r="LZ13" s="2">
+        <v>56465</v>
+      </c>
+      <c r="MA13" s="2">
+        <v>15865</v>
+      </c>
+      <c r="MB13" s="2">
+        <v>30799</v>
+      </c>
+      <c r="MC13" s="2">
+        <v>13398</v>
+      </c>
+      <c r="MD13" s="2">
+        <v>23594</v>
+      </c>
+      <c r="ME13" s="2">
+        <v>19620</v>
+      </c>
+      <c r="MF13" s="2">
+        <v>48224</v>
+      </c>
+      <c r="MG13" s="2">
+        <v>20598</v>
+      </c>
+      <c r="MH13" s="2">
+        <v>28830</v>
+      </c>
+      <c r="MI13" s="2">
+        <v>16767</v>
+      </c>
+      <c r="MJ13" s="2">
+        <v>18099</v>
+      </c>
+      <c r="MK13" s="2">
+        <v>28926</v>
+      </c>
+      <c r="ML13" s="2">
+        <v>51391</v>
+      </c>
+      <c r="MM13" s="2">
+        <v>18902</v>
+      </c>
+      <c r="MN13" s="2">
+        <v>30321</v>
+      </c>
+      <c r="MO13" s="2">
+        <v>15677</v>
+      </c>
+      <c r="MP13" s="2">
+        <v>20626</v>
+      </c>
+      <c r="MQ13" s="2">
+        <v>19205</v>
+      </c>
+      <c r="MR13" s="2">
+        <v>53078</v>
+      </c>
+      <c r="MS13" s="2">
+        <v>16457</v>
+      </c>
+      <c r="MT13" s="2">
+        <v>30094</v>
+      </c>
+      <c r="MU13" s="2">
+        <v>16144</v>
+      </c>
+      <c r="MV13" s="2">
+        <v>15992</v>
+      </c>
+      <c r="MW13" s="2">
+        <v>21477</v>
+      </c>
+      <c r="MX13" s="2">
+        <v>45594</v>
+      </c>
+      <c r="MY13" s="2">
+        <v>21280</v>
+      </c>
+      <c r="MZ13" s="2">
+        <v>35749</v>
+      </c>
+      <c r="NA13" s="2">
+        <v>14765</v>
+      </c>
+      <c r="NB13" s="2">
+        <v>18658</v>
+      </c>
+      <c r="NC13" s="2">
+        <v>17666</v>
+      </c>
+      <c r="ND13" s="2">
+        <v>40020</v>
+      </c>
+      <c r="NE13" s="2">
+        <v>23442</v>
+      </c>
+      <c r="NF13" s="2">
+        <v>32602</v>
+      </c>
+      <c r="NG13" s="2">
+        <v>16054</v>
+      </c>
+      <c r="NH13" s="2">
+        <v>19551</v>
+      </c>
+      <c r="NI13" s="2">
+        <v>19073</v>
+      </c>
+      <c r="NJ13" s="2">
+        <v>42353</v>
+      </c>
+      <c r="NK13" s="2">
+        <v>24230</v>
+      </c>
+      <c r="NL13" s="2">
+        <v>31272</v>
+      </c>
+      <c r="NM13" s="2">
+        <v>13483</v>
+      </c>
+      <c r="NN13" s="2">
+        <v>20966</v>
+      </c>
+      <c r="NO13" s="2">
+        <v>19273</v>
+      </c>
+      <c r="NP13" s="2">
+        <v>44626</v>
+      </c>
+      <c r="NQ13" s="2">
+        <v>26370</v>
+      </c>
+      <c r="NR13" s="2">
+        <v>26397</v>
+      </c>
+      <c r="NS13" s="2">
+        <v>20434</v>
+      </c>
+      <c r="NT13" s="2">
+        <v>20583</v>
+      </c>
+      <c r="NU13" s="2">
+        <v>20553.82</v>
+      </c>
+      <c r="NV13" s="2">
+        <v>43516</v>
+      </c>
+      <c r="NW13" s="2">
+        <v>26097</v>
+      </c>
+      <c r="NX13" s="2">
+        <v>27549</v>
+      </c>
+      <c r="NY13" s="2">
+        <v>23172</v>
+      </c>
+      <c r="NZ13" s="2">
+        <v>21111</v>
+      </c>
+      <c r="OA13" s="2">
+        <v>24065</v>
+      </c>
+      <c r="OB13" s="2">
+        <v>44841</v>
+      </c>
+      <c r="OC13" s="2">
+        <v>28301</v>
+      </c>
+      <c r="OD13" s="2">
+        <v>32675</v>
+      </c>
+      <c r="OE13" s="2">
+        <v>24015</v>
+      </c>
+      <c r="OF13" s="2">
+        <v>24660</v>
+      </c>
+      <c r="OG13" s="2">
+        <v>29213</v>
+      </c>
+      <c r="OH13" s="2">
+        <v>45916</v>
+      </c>
+      <c r="OI13" s="2">
+        <v>25302</v>
+      </c>
+      <c r="OJ13" s="2">
+        <v>36552</v>
+      </c>
+      <c r="OK13" s="2">
+        <v>23536</v>
+      </c>
+      <c r="OL13" s="2">
+        <v>19669</v>
+      </c>
+      <c r="OM13" s="2">
+        <v>29096</v>
+      </c>
+      <c r="ON13" s="2">
+        <v>50965</v>
+      </c>
+      <c r="OO13" s="2">
+        <v>19611</v>
+      </c>
+      <c r="OP13" s="2">
+        <v>43094</v>
+      </c>
+      <c r="OQ13" s="2">
+        <v>20724</v>
+      </c>
+      <c r="OR13" s="2">
+        <v>17287</v>
+      </c>
+      <c r="OS13" s="2">
+        <v>29122</v>
+      </c>
+      <c r="OT13" s="2">
+        <v>61415</v>
+      </c>
+      <c r="OU13" s="2">
+        <v>15352</v>
+      </c>
+      <c r="OV13" s="2">
+        <v>43115</v>
+      </c>
+      <c r="OW13" s="2">
+        <v>21880.17</v>
+      </c>
+      <c r="OX13" s="2">
+        <v>18353</v>
+      </c>
+      <c r="OY13" s="2">
+        <v>27561</v>
+      </c>
+      <c r="OZ13" s="2">
+        <v>59384</v>
+      </c>
+      <c r="PA13" s="2">
+        <v>22549</v>
+      </c>
+      <c r="PB13" s="2">
+        <v>43365</v>
+      </c>
+      <c r="PC13" s="2">
+        <v>22070</v>
+      </c>
+      <c r="PD13" s="2">
+        <v>20035</v>
+      </c>
+      <c r="PE13" s="2">
+        <v>25333</v>
+      </c>
+      <c r="PF13" s="2">
+        <v>47024</v>
+      </c>
+      <c r="PG13" s="2">
+        <v>31166</v>
+      </c>
+      <c r="PH13" s="2">
+        <v>47666</v>
+      </c>
+      <c r="PI13" s="2">
+        <v>23819</v>
+      </c>
+      <c r="PJ13" s="2">
+        <v>28933</v>
+      </c>
+      <c r="PK13" s="2">
+        <v>29925</v>
+      </c>
+      <c r="PL13" s="2">
+        <v>59026</v>
+      </c>
+      <c r="PM13" s="2">
+        <v>23932</v>
+      </c>
+      <c r="PN13" s="2">
+        <v>47857</v>
+      </c>
+      <c r="PO13" s="2">
+        <v>31536</v>
+      </c>
+      <c r="PP13" s="2">
+        <v>31221</v>
+      </c>
+      <c r="PQ13" s="2">
+        <v>27327</v>
+      </c>
+      <c r="PR13" s="2">
+        <v>65551</v>
+      </c>
+      <c r="PS13" s="2">
+        <v>28230</v>
+      </c>
+      <c r="PT13" s="2">
+        <v>55548</v>
+      </c>
+      <c r="PU13" s="2">
+        <v>37303</v>
+      </c>
+      <c r="PV13" s="2">
+        <v>33831</v>
+      </c>
+      <c r="PW13" s="2">
+        <v>36752</v>
+      </c>
+      <c r="PX13" s="2">
+        <v>52091</v>
+      </c>
+      <c r="PY13" s="2">
+        <v>30773</v>
+      </c>
+      <c r="PZ13" s="2">
+        <v>59897</v>
+      </c>
+      <c r="QA13" s="2">
+        <v>33185</v>
+      </c>
+      <c r="QB13" s="2">
+        <v>26092</v>
+      </c>
+      <c r="QC13" s="2">
+        <v>43605</v>
+      </c>
+      <c r="QD13" s="2">
+        <v>46970</v>
+      </c>
+      <c r="QE13" s="2">
+        <v>34109</v>
+      </c>
+      <c r="QF13" s="2">
+        <v>60898</v>
+      </c>
+      <c r="QG13" s="2">
+        <v>46253</v>
+      </c>
+      <c r="QH13" s="2">
+        <v>41344</v>
+      </c>
+      <c r="QI13" s="2">
+        <v>52884</v>
+      </c>
+      <c r="QJ13" s="2">
+        <v>63550</v>
+      </c>
+      <c r="QK13" s="2">
+        <v>42668</v>
+      </c>
+      <c r="QL13" s="2">
+        <v>71448</v>
+      </c>
+      <c r="QM13" s="2">
+        <v>58983</v>
+      </c>
+      <c r="QN13" s="2">
+        <v>48548</v>
+      </c>
+      <c r="QO13" s="2">
+        <v>60678</v>
+      </c>
+      <c r="QP13" s="2">
+        <v>74221</v>
+      </c>
+      <c r="QQ13" s="2">
+        <v>47827</v>
+      </c>
+      <c r="QR13" s="2">
+        <v>70944</v>
+      </c>
+      <c r="QS13" s="2">
+        <v>67496</v>
+      </c>
+      <c r="QT13" s="2">
+        <v>61097</v>
+      </c>
+      <c r="QU13" s="2">
+        <v>55643</v>
+      </c>
+      <c r="QV13" s="2"/>
+      <c r="QW13" s="2"/>
+      <c r="QX13" s="2"/>
+      <c r="QY13" s="2"/>
+      <c r="QZ13" s="2"/>
+      <c r="RA13" s="2"/>
+    </row>
     <row r="14" spans="1:469" x14ac:dyDescent="0.25">
-      <c r="PE14" s="2"/>
-      <c r="PQ14" s="2"/>
+      <c r="A14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1169</v>
+      </c>
+      <c r="C14" s="2">
+        <v>591</v>
+      </c>
+      <c r="D14" s="2">
+        <v>843</v>
+      </c>
+      <c r="E14" s="2">
+        <v>830</v>
+      </c>
+      <c r="F14" s="2">
+        <v>195</v>
+      </c>
+      <c r="G14" s="2">
+        <v>342</v>
+      </c>
+      <c r="H14" s="2">
+        <v>380</v>
+      </c>
+      <c r="I14" s="2">
+        <v>708</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1160</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2723</v>
+      </c>
+      <c r="L14" s="2">
+        <v>407</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3853</v>
+      </c>
+      <c r="N14" s="2">
+        <v>920</v>
+      </c>
+      <c r="O14" s="2">
+        <v>9446</v>
+      </c>
+      <c r="P14" s="2">
+        <v>2457</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>2847</v>
+      </c>
+      <c r="R14" s="2">
+        <v>869</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3127</v>
+      </c>
+      <c r="T14" s="2">
+        <v>719</v>
+      </c>
+      <c r="U14" s="2">
+        <v>1773</v>
+      </c>
+      <c r="V14" s="2">
+        <v>3357</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1948</v>
+      </c>
+      <c r="X14" s="2">
+        <v>959</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>4498</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>698</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>1467</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>3084</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>1095</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>2005</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>2729</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>1135</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>778</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>1888</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>1440</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>2016</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>6964</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>1440</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>1621</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>1915</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>2018</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>977</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>2268</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>1872</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>2804</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>3077</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>2378</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>3611</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>4522</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>4441</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>5728</v>
+      </c>
+      <c r="AZ14" s="2">
+        <v>702</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>2123</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>2459</v>
+      </c>
+      <c r="BC14" s="2">
+        <v>2868</v>
+      </c>
+      <c r="BD14" s="2">
+        <v>3222</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>1033</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>3080</v>
+      </c>
+      <c r="BG14" s="2">
+        <v>2978</v>
+      </c>
+      <c r="BH14" s="2">
+        <v>1504</v>
+      </c>
+      <c r="BI14" s="2">
+        <v>5094</v>
+      </c>
+      <c r="BJ14" s="2">
+        <v>1843</v>
+      </c>
+      <c r="BK14" s="2">
+        <v>6442</v>
+      </c>
+      <c r="BL14" s="2">
+        <v>2256</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>15161</v>
+      </c>
+      <c r="BN14" s="2">
+        <v>1138</v>
+      </c>
+      <c r="BO14" s="2">
+        <v>3128</v>
+      </c>
+      <c r="BP14" s="2">
+        <v>2015</v>
+      </c>
+      <c r="BQ14" s="2">
+        <v>5655</v>
+      </c>
+      <c r="BR14" s="2">
+        <v>2920</v>
+      </c>
+      <c r="BS14" s="2">
+        <v>1686</v>
+      </c>
+      <c r="BT14" s="2">
+        <v>1066</v>
+      </c>
+      <c r="BU14" s="2">
+        <v>3250</v>
+      </c>
+      <c r="BV14" s="2">
+        <v>2810</v>
+      </c>
+      <c r="BW14" s="2">
+        <v>503</v>
+      </c>
+      <c r="BX14" s="2">
+        <v>1151</v>
+      </c>
+      <c r="BY14" s="2">
+        <v>4607</v>
+      </c>
+      <c r="BZ14" s="2">
+        <v>7324</v>
+      </c>
+      <c r="CA14" s="2">
+        <v>2505</v>
+      </c>
+      <c r="CB14" s="2">
+        <v>1863</v>
+      </c>
+      <c r="CC14" s="2">
+        <v>1728</v>
+      </c>
+      <c r="CD14" s="2">
+        <v>1599</v>
+      </c>
+      <c r="CE14" s="2">
+        <v>1397</v>
+      </c>
+      <c r="CF14" s="2">
+        <v>1830</v>
+      </c>
+      <c r="CG14" s="2">
+        <v>2334</v>
+      </c>
+      <c r="CH14" s="2">
+        <v>1131</v>
+      </c>
+      <c r="CI14" s="2">
+        <v>733</v>
+      </c>
+      <c r="CJ14" s="2">
+        <v>1376</v>
+      </c>
+      <c r="CK14" s="2">
+        <v>2802</v>
+      </c>
+      <c r="CL14" s="2">
+        <v>5576</v>
+      </c>
+      <c r="CM14" s="2">
+        <v>3471</v>
+      </c>
+      <c r="CN14" s="2">
+        <v>1432</v>
+      </c>
+      <c r="CO14" s="2">
+        <v>4664</v>
+      </c>
+      <c r="CP14" s="2">
+        <v>2062</v>
+      </c>
+      <c r="CQ14" s="2">
+        <v>3663</v>
+      </c>
+      <c r="CR14" s="2">
+        <v>3388</v>
+      </c>
+      <c r="CS14" s="2">
+        <v>6589</v>
+      </c>
+      <c r="CT14" s="2">
+        <v>6517</v>
+      </c>
+      <c r="CU14" s="2">
+        <v>787</v>
+      </c>
+      <c r="CV14" s="2">
+        <v>3544</v>
+      </c>
+      <c r="CW14" s="2">
+        <v>1154</v>
+      </c>
+      <c r="CX14" s="2">
+        <v>3518</v>
+      </c>
+      <c r="CY14" s="2">
+        <v>4152</v>
+      </c>
+      <c r="CZ14" s="2">
+        <v>2909</v>
+      </c>
+      <c r="DA14" s="2">
+        <v>1986</v>
+      </c>
+      <c r="DB14" s="2">
+        <v>2904</v>
+      </c>
+      <c r="DC14" s="2">
+        <v>3970</v>
+      </c>
+      <c r="DD14" s="2">
+        <v>4836</v>
+      </c>
+      <c r="DE14" s="2">
+        <v>2567</v>
+      </c>
+      <c r="DF14" s="2">
+        <v>6399</v>
+      </c>
+      <c r="DG14" s="2">
+        <v>1011</v>
+      </c>
+      <c r="DH14" s="2">
+        <v>4733</v>
+      </c>
+      <c r="DI14" s="2">
+        <v>3974</v>
+      </c>
+      <c r="DJ14" s="2">
+        <v>3405</v>
+      </c>
+      <c r="DK14" s="2">
+        <v>4524</v>
+      </c>
+      <c r="DL14" s="2">
+        <v>972</v>
+      </c>
+      <c r="DM14" s="2">
+        <v>949</v>
+      </c>
+      <c r="DN14" s="2">
+        <v>3262</v>
+      </c>
+      <c r="DO14" s="2">
+        <v>4166</v>
+      </c>
+      <c r="DP14" s="2">
+        <v>2961</v>
+      </c>
+      <c r="DQ14" s="2">
+        <v>28161</v>
+      </c>
+      <c r="DR14" s="2">
+        <v>5451</v>
+      </c>
+      <c r="DS14" s="2">
+        <v>5186</v>
+      </c>
+      <c r="DT14" s="2">
+        <v>1434</v>
+      </c>
+      <c r="DU14" s="2">
+        <v>2693</v>
+      </c>
+      <c r="DV14" s="2">
+        <v>3021</v>
+      </c>
+      <c r="DW14" s="2">
+        <v>4655</v>
+      </c>
+      <c r="DX14" s="2">
+        <v>2081</v>
+      </c>
+      <c r="DY14" s="2">
+        <v>1594</v>
+      </c>
+      <c r="DZ14" s="2">
+        <v>1909</v>
+      </c>
+      <c r="EA14" s="2">
+        <v>4085</v>
+      </c>
+      <c r="EB14" s="2">
+        <v>3218</v>
+      </c>
+      <c r="EC14" s="2">
+        <v>5893</v>
+      </c>
+      <c r="ED14" s="2">
+        <v>2526</v>
+      </c>
+      <c r="EE14" s="2">
+        <v>2551</v>
+      </c>
+      <c r="EF14" s="2">
+        <v>4893</v>
+      </c>
+      <c r="EG14" s="2">
+        <v>3182</v>
+      </c>
+      <c r="EH14" s="2">
+        <v>3099</v>
+      </c>
+      <c r="EI14" s="2">
+        <v>6982</v>
+      </c>
+      <c r="EJ14" s="2">
+        <v>1067</v>
+      </c>
+      <c r="EK14" s="2">
+        <v>1251</v>
+      </c>
+      <c r="EL14" s="2">
+        <v>2902</v>
+      </c>
+      <c r="EM14" s="2">
+        <v>3140</v>
+      </c>
+      <c r="EN14" s="2">
+        <v>5268</v>
+      </c>
+      <c r="EO14" s="2">
+        <v>10817</v>
+      </c>
+      <c r="EP14" s="2">
+        <v>3622</v>
+      </c>
+      <c r="EQ14" s="2">
+        <v>3262</v>
+      </c>
+      <c r="ER14" s="2">
+        <v>6330</v>
+      </c>
+      <c r="ES14" s="2">
+        <v>3029</v>
+      </c>
+      <c r="ET14" s="2">
+        <v>4245</v>
+      </c>
+      <c r="EU14" s="2">
+        <v>8692</v>
+      </c>
+      <c r="EV14" s="2">
+        <v>5537</v>
+      </c>
+      <c r="EW14" s="2">
+        <v>2013</v>
+      </c>
+      <c r="EX14" s="2">
+        <v>8440</v>
+      </c>
+      <c r="EY14" s="2">
+        <v>2970</v>
+      </c>
+      <c r="EZ14" s="2">
+        <v>7808</v>
+      </c>
+      <c r="FA14" s="2">
+        <v>8769</v>
+      </c>
+      <c r="FB14" s="2">
+        <v>3585</v>
+      </c>
+      <c r="FC14" s="2">
+        <v>3439</v>
+      </c>
+      <c r="FD14" s="2">
+        <v>7188</v>
+      </c>
+      <c r="FE14" s="2">
+        <v>2294</v>
+      </c>
+      <c r="FF14" s="2">
+        <v>5850</v>
+      </c>
+      <c r="FG14" s="2">
+        <v>33206</v>
+      </c>
+      <c r="FH14" s="2">
+        <v>3276</v>
+      </c>
+      <c r="FI14" s="2">
+        <v>2717</v>
+      </c>
+      <c r="FJ14" s="2">
+        <v>4522</v>
+      </c>
+      <c r="FK14" s="2">
+        <v>3989</v>
+      </c>
+      <c r="FL14" s="2">
+        <v>7045</v>
+      </c>
+      <c r="FM14" s="2">
+        <v>21995</v>
+      </c>
+      <c r="FN14" s="2">
+        <v>3404</v>
+      </c>
+      <c r="FO14" s="2">
+        <v>4902</v>
+      </c>
+      <c r="FP14" s="2">
+        <v>7189</v>
+      </c>
+      <c r="FQ14" s="2">
+        <v>4863</v>
+      </c>
+      <c r="FR14" s="2">
+        <v>6082</v>
+      </c>
+      <c r="FS14" s="2">
+        <v>12127</v>
+      </c>
+      <c r="FT14" s="2">
+        <v>8761</v>
+      </c>
+      <c r="FU14" s="2">
+        <v>4211</v>
+      </c>
+      <c r="FV14" s="2">
+        <v>6071</v>
+      </c>
+      <c r="FW14" s="2">
+        <v>8893</v>
+      </c>
+      <c r="FX14" s="2">
+        <v>8992</v>
+      </c>
+      <c r="FY14" s="2">
+        <v>11454</v>
+      </c>
+      <c r="FZ14" s="2">
+        <v>7657</v>
+      </c>
+      <c r="GA14" s="2">
+        <v>7861</v>
+      </c>
+      <c r="GB14" s="2">
+        <v>9128</v>
+      </c>
+      <c r="GC14" s="2">
+        <v>4961</v>
+      </c>
+      <c r="GD14" s="2">
+        <v>6984</v>
+      </c>
+      <c r="GE14" s="2">
+        <v>10459</v>
+      </c>
+      <c r="GF14" s="2">
+        <v>12205</v>
+      </c>
+      <c r="GG14" s="2">
+        <v>5854</v>
+      </c>
+      <c r="GH14" s="2">
+        <v>6143</v>
+      </c>
+      <c r="GI14" s="2">
+        <v>5850</v>
+      </c>
+      <c r="GJ14" s="2">
+        <v>9479</v>
+      </c>
+      <c r="GK14" s="2">
+        <v>13024</v>
+      </c>
+      <c r="GL14" s="2">
+        <v>13480</v>
+      </c>
+      <c r="GM14" s="2">
+        <v>11608</v>
+      </c>
+      <c r="GN14" s="2">
+        <v>8906</v>
+      </c>
+      <c r="GO14" s="2">
+        <v>8455</v>
+      </c>
+      <c r="GP14" s="2">
+        <v>15582</v>
+      </c>
+      <c r="GQ14" s="2">
+        <v>28975</v>
+      </c>
+      <c r="GR14" s="2">
+        <v>12857</v>
+      </c>
+      <c r="GS14" s="2">
+        <v>7321</v>
+      </c>
+      <c r="GT14" s="2">
+        <v>9793</v>
+      </c>
+      <c r="GU14" s="2">
+        <v>9488</v>
+      </c>
+      <c r="GV14" s="2">
+        <v>24132</v>
+      </c>
+      <c r="GW14" s="2">
+        <v>21501</v>
+      </c>
+      <c r="GX14" s="2">
+        <v>11963</v>
+      </c>
+      <c r="GY14" s="2">
+        <v>11198</v>
+      </c>
+      <c r="GZ14" s="2">
+        <v>15800</v>
+      </c>
+      <c r="HA14" s="2">
+        <v>10510</v>
+      </c>
+      <c r="HB14" s="2">
+        <v>18392</v>
+      </c>
+      <c r="HC14" s="2">
+        <v>21440</v>
+      </c>
+      <c r="HD14" s="2">
+        <v>32879</v>
+      </c>
+      <c r="HE14" s="2">
+        <v>22694</v>
+      </c>
+      <c r="HF14" s="2">
+        <v>20687</v>
+      </c>
+      <c r="HG14" s="2">
+        <v>22330</v>
+      </c>
+      <c r="HH14" s="2">
+        <v>17922</v>
+      </c>
+      <c r="HI14" s="2">
+        <v>37767</v>
+      </c>
+      <c r="HJ14" s="2">
+        <v>11028</v>
+      </c>
+      <c r="HK14" s="2">
+        <v>8265</v>
+      </c>
+      <c r="HL14" s="2">
+        <v>36480</v>
+      </c>
+      <c r="HM14" s="2">
+        <v>2591</v>
+      </c>
+      <c r="HN14" s="2">
+        <v>5731</v>
+      </c>
+      <c r="HO14" s="2">
+        <v>16504</v>
+      </c>
+      <c r="HP14" s="2">
+        <v>44093</v>
+      </c>
+      <c r="HQ14" s="2">
+        <v>13389</v>
+      </c>
+      <c r="HR14" s="2">
+        <v>27797</v>
+      </c>
+      <c r="HS14" s="2">
+        <v>5705</v>
+      </c>
+      <c r="HT14" s="2">
+        <v>6227</v>
+      </c>
+      <c r="HU14" s="2">
+        <v>13085</v>
+      </c>
+      <c r="HV14" s="2">
+        <v>18159</v>
+      </c>
+      <c r="HW14" s="2">
+        <v>20079</v>
+      </c>
+      <c r="HX14" s="2">
+        <v>20001</v>
+      </c>
+      <c r="HY14" s="2">
+        <v>17408</v>
+      </c>
+      <c r="HZ14" s="2">
+        <v>47687</v>
+      </c>
+      <c r="IA14" s="2">
+        <v>41488</v>
+      </c>
+      <c r="IB14" s="2">
+        <v>29992</v>
+      </c>
+      <c r="IC14" s="2">
+        <v>33797</v>
+      </c>
+      <c r="ID14" s="2">
+        <v>56200</v>
+      </c>
+      <c r="IE14" s="2">
+        <v>39418</v>
+      </c>
+      <c r="IF14" s="2">
+        <v>17517</v>
+      </c>
+      <c r="IG14" s="2">
+        <v>15841</v>
+      </c>
+      <c r="IH14" s="2">
+        <v>25922</v>
+      </c>
+      <c r="II14" s="2">
+        <v>87747</v>
+      </c>
+      <c r="IJ14" s="2">
+        <v>48836</v>
+      </c>
+      <c r="IK14" s="2">
+        <v>19381</v>
+      </c>
+      <c r="IL14" s="2">
+        <v>16583</v>
+      </c>
+      <c r="IM14" s="2">
+        <v>5586</v>
+      </c>
+      <c r="IN14" s="2">
+        <v>51524</v>
+      </c>
+      <c r="IO14" s="2">
+        <v>14628</v>
+      </c>
+      <c r="IP14" s="2">
+        <v>80537</v>
+      </c>
+      <c r="IQ14" s="2">
+        <v>26635</v>
+      </c>
+      <c r="IR14" s="2">
+        <v>75583</v>
+      </c>
+      <c r="IS14" s="2">
+        <v>76922</v>
+      </c>
+      <c r="IT14" s="2">
+        <v>15907</v>
+      </c>
+      <c r="IU14" s="2">
+        <v>14715</v>
+      </c>
+      <c r="IV14" s="2">
+        <v>20787</v>
+      </c>
+      <c r="IW14" s="2">
+        <v>99389</v>
+      </c>
+      <c r="IX14" s="2">
+        <v>20882</v>
+      </c>
+      <c r="IY14" s="2">
+        <v>43317</v>
+      </c>
+      <c r="IZ14" s="2">
+        <v>39148</v>
+      </c>
+      <c r="JA14" s="2">
+        <v>21856</v>
+      </c>
+      <c r="JB14" s="2">
+        <v>19645</v>
+      </c>
+      <c r="JC14" s="2">
+        <v>1691</v>
+      </c>
+      <c r="JD14" s="2">
+        <v>35431</v>
+      </c>
+      <c r="JE14" s="2">
+        <v>9572</v>
+      </c>
+      <c r="JF14" s="2">
+        <v>15520</v>
+      </c>
+      <c r="JG14" s="2">
+        <v>20365</v>
+      </c>
+      <c r="JH14" s="2">
+        <v>21541</v>
+      </c>
+      <c r="JI14" s="2">
+        <v>47750</v>
+      </c>
+      <c r="JJ14" s="2">
+        <v>21561</v>
+      </c>
+      <c r="JK14" s="2">
+        <v>23254</v>
+      </c>
+      <c r="JL14" s="2">
+        <v>54164</v>
+      </c>
+      <c r="JM14" s="2">
+        <v>17439</v>
+      </c>
+      <c r="JN14" s="2">
+        <v>19681</v>
+      </c>
+      <c r="JO14" s="2">
+        <v>22389</v>
+      </c>
+      <c r="JP14" s="2">
+        <v>21750</v>
+      </c>
+      <c r="JQ14" s="2">
+        <v>6387</v>
+      </c>
+      <c r="JR14" s="2">
+        <v>158868</v>
+      </c>
+      <c r="JS14" s="2">
+        <v>125109</v>
+      </c>
+      <c r="JT14" s="2">
+        <v>55383</v>
+      </c>
+      <c r="JU14" s="2">
+        <v>13443</v>
+      </c>
+      <c r="JV14" s="2">
+        <v>14311</v>
+      </c>
+      <c r="JW14" s="2">
+        <v>9528</v>
+      </c>
+      <c r="JX14" s="2">
+        <v>39309</v>
+      </c>
+      <c r="JY14" s="2">
+        <v>30180</v>
+      </c>
+      <c r="JZ14" s="2">
+        <v>17378</v>
+      </c>
+      <c r="KA14" s="2">
+        <v>16953</v>
+      </c>
+      <c r="KB14" s="2">
+        <v>10390</v>
+      </c>
+      <c r="KC14" s="2">
+        <v>9585</v>
+      </c>
+      <c r="KD14" s="2">
+        <v>14603</v>
+      </c>
+      <c r="KE14" s="2">
+        <v>111833</v>
+      </c>
+      <c r="KF14" s="2">
+        <v>36752</v>
+      </c>
+      <c r="KG14" s="2">
+        <v>25127</v>
+      </c>
+      <c r="KH14" s="2">
+        <v>21429</v>
+      </c>
+      <c r="KI14" s="2">
+        <v>8200</v>
+      </c>
+      <c r="KJ14" s="2">
+        <v>14129</v>
+      </c>
+      <c r="KK14" s="2">
+        <v>45517</v>
+      </c>
+      <c r="KL14" s="2">
+        <v>70107</v>
+      </c>
+      <c r="KM14" s="2">
+        <v>108511</v>
+      </c>
+      <c r="KN14" s="2">
+        <v>4820</v>
+      </c>
+      <c r="KO14" s="2">
+        <v>183950</v>
+      </c>
+      <c r="KP14" s="2">
+        <v>14249</v>
+      </c>
+      <c r="KQ14" s="2">
+        <v>63190</v>
+      </c>
+      <c r="KR14" s="2">
+        <v>97224</v>
+      </c>
+      <c r="KS14" s="2">
+        <v>20562</v>
+      </c>
+      <c r="KT14" s="2">
+        <v>8803</v>
+      </c>
+      <c r="KU14" s="2">
+        <v>7833</v>
+      </c>
+      <c r="KV14" s="2">
+        <v>301992</v>
+      </c>
+      <c r="KW14" s="2">
+        <v>31269</v>
+      </c>
+      <c r="KX14" s="2">
+        <v>13527</v>
+      </c>
+      <c r="KY14" s="2">
+        <v>45879</v>
+      </c>
+      <c r="KZ14" s="2">
+        <v>6552</v>
+      </c>
+      <c r="LA14" s="2">
+        <v>40493</v>
+      </c>
+      <c r="LB14" s="2">
+        <v>6404</v>
+      </c>
+      <c r="LC14" s="2">
+        <v>95993</v>
+      </c>
+      <c r="LD14" s="2">
+        <v>7091</v>
+      </c>
+      <c r="LE14" s="2">
+        <v>20685</v>
+      </c>
+      <c r="LF14" s="2">
+        <v>6171</v>
+      </c>
+      <c r="LG14" s="2">
+        <v>5803</v>
+      </c>
+      <c r="LH14" s="2">
+        <v>4861</v>
+      </c>
+      <c r="LI14" s="2">
+        <v>47849</v>
+      </c>
+      <c r="LJ14" s="2">
+        <v>46812</v>
+      </c>
+      <c r="LK14" s="2">
+        <v>4193</v>
+      </c>
+      <c r="LL14" s="2">
+        <v>8668</v>
+      </c>
+      <c r="LM14" s="2">
+        <v>31913</v>
+      </c>
+      <c r="LN14" s="2">
+        <v>98781</v>
+      </c>
+      <c r="LO14" s="2">
+        <v>44696</v>
+      </c>
+      <c r="LP14" s="2">
+        <v>94201</v>
+      </c>
+      <c r="LQ14" s="2">
+        <v>17696</v>
+      </c>
+      <c r="LR14" s="2">
+        <v>8543</v>
+      </c>
+      <c r="LS14" s="2">
+        <v>12872</v>
+      </c>
+      <c r="LT14" s="2">
+        <v>38988</v>
+      </c>
+      <c r="LU14" s="2">
+        <v>22658</v>
+      </c>
+      <c r="LV14" s="2">
+        <v>6668</v>
+      </c>
+      <c r="LW14" s="2">
+        <v>5352</v>
+      </c>
+      <c r="LX14" s="2">
+        <v>19341.599999999999</v>
+      </c>
+      <c r="LY14" s="2">
+        <v>5291</v>
+      </c>
+      <c r="LZ14" s="2">
+        <v>190991</v>
+      </c>
+      <c r="MA14" s="2">
+        <v>4567</v>
+      </c>
+      <c r="MB14" s="2">
+        <v>16170</v>
+      </c>
+      <c r="MC14" s="2">
+        <v>2685</v>
+      </c>
+      <c r="MD14" s="2">
+        <v>5842</v>
+      </c>
+      <c r="ME14" s="2">
+        <v>4258</v>
+      </c>
+      <c r="MF14" s="2">
+        <v>7739</v>
+      </c>
+      <c r="MG14" s="2">
+        <v>126411</v>
+      </c>
+      <c r="MH14" s="2">
+        <v>41618</v>
+      </c>
+      <c r="MI14" s="2">
+        <v>22385</v>
+      </c>
+      <c r="MJ14" s="2">
+        <v>5691</v>
+      </c>
+      <c r="MK14" s="2">
+        <v>6005</v>
+      </c>
+      <c r="ML14" s="2">
+        <v>55977</v>
+      </c>
+      <c r="MM14" s="2">
+        <v>17249</v>
+      </c>
+      <c r="MN14" s="2">
+        <v>27084</v>
+      </c>
+      <c r="MO14" s="2">
+        <v>9020</v>
+      </c>
+      <c r="MP14" s="2">
+        <v>59539</v>
+      </c>
+      <c r="MQ14" s="2">
+        <v>5156</v>
+      </c>
+      <c r="MR14" s="2">
+        <v>10579</v>
+      </c>
+      <c r="MS14" s="2">
+        <v>37278</v>
+      </c>
+      <c r="MT14" s="2">
+        <v>242332</v>
+      </c>
+      <c r="MU14" s="2">
+        <v>3657</v>
+      </c>
+      <c r="MV14" s="2">
+        <v>11458</v>
+      </c>
+      <c r="MW14" s="2">
+        <v>8566</v>
+      </c>
+      <c r="MX14" s="2">
+        <v>115365</v>
+      </c>
+      <c r="MY14" s="2">
+        <v>3935</v>
+      </c>
+      <c r="MZ14" s="2">
+        <v>122556</v>
+      </c>
+      <c r="NA14" s="2">
+        <v>99848</v>
+      </c>
+      <c r="NB14" s="2">
+        <v>6833</v>
+      </c>
+      <c r="NC14" s="2">
+        <v>5544</v>
+      </c>
+      <c r="ND14" s="2">
+        <v>2064</v>
+      </c>
+      <c r="NE14" s="2">
+        <v>4441</v>
+      </c>
+      <c r="NF14" s="2">
+        <v>85819</v>
+      </c>
+      <c r="NG14" s="2">
+        <v>24192</v>
+      </c>
+      <c r="NH14" s="2">
+        <v>9065</v>
+      </c>
+      <c r="NI14" s="2">
+        <v>5849</v>
+      </c>
+      <c r="NJ14" s="2">
+        <v>27653</v>
+      </c>
+      <c r="NK14" s="2">
+        <v>62343</v>
+      </c>
+      <c r="NL14" s="2">
+        <v>60799</v>
+      </c>
+      <c r="NM14" s="2">
+        <v>12806</v>
+      </c>
+      <c r="NN14" s="2">
+        <v>57421</v>
+      </c>
+      <c r="NO14" s="2">
+        <v>5770</v>
+      </c>
+      <c r="NP14" s="2">
+        <v>55033.58</v>
+      </c>
+      <c r="NQ14" s="2">
+        <v>46798</v>
+      </c>
+      <c r="NR14" s="2">
+        <v>5310</v>
+      </c>
+      <c r="NS14" s="2">
+        <v>13524</v>
+      </c>
+      <c r="NT14" s="2">
+        <v>15059</v>
+      </c>
+      <c r="NU14" s="2">
+        <v>7409</v>
+      </c>
+      <c r="NV14" s="2">
+        <v>40290</v>
+      </c>
+      <c r="NW14" s="2">
+        <v>54391</v>
+      </c>
+      <c r="NX14" s="2">
+        <v>6357</v>
+      </c>
+      <c r="NY14" s="2">
+        <v>4674</v>
+      </c>
+      <c r="NZ14" s="2">
+        <v>137985</v>
+      </c>
+      <c r="OA14" s="2">
+        <v>6691</v>
+      </c>
+      <c r="OB14" s="2">
+        <v>2370</v>
+      </c>
+      <c r="OC14" s="2">
+        <v>90535</v>
+      </c>
+      <c r="OD14" s="2">
+        <v>5918</v>
+      </c>
+      <c r="OE14" s="2">
+        <v>5165</v>
+      </c>
+      <c r="OF14" s="2">
+        <v>14028</v>
+      </c>
+      <c r="OG14" s="2">
+        <v>7970</v>
+      </c>
+      <c r="OH14" s="2">
+        <v>31698</v>
+      </c>
+      <c r="OI14" s="2">
+        <v>74479</v>
+      </c>
+      <c r="OJ14" s="2">
+        <v>6249</v>
+      </c>
+      <c r="OK14" s="2">
+        <v>30304</v>
+      </c>
+      <c r="OL14" s="2">
+        <v>7738</v>
+      </c>
+      <c r="OM14" s="2">
+        <v>54715</v>
+      </c>
+      <c r="ON14" s="2">
+        <v>41495</v>
+      </c>
+      <c r="OO14" s="2">
+        <v>11970</v>
+      </c>
+      <c r="OP14" s="2">
+        <v>5829</v>
+      </c>
+      <c r="OQ14" s="2">
+        <v>4478</v>
+      </c>
+      <c r="OR14" s="2">
+        <v>204557</v>
+      </c>
+      <c r="OS14" s="2">
+        <v>8063</v>
+      </c>
+      <c r="OT14" s="2">
+        <v>84639</v>
+      </c>
+      <c r="OU14" s="2">
+        <v>129283</v>
+      </c>
+      <c r="OV14" s="2">
+        <v>6174</v>
+      </c>
+      <c r="OW14" s="2">
+        <v>126460</v>
+      </c>
+      <c r="OX14" s="2">
+        <v>6289</v>
+      </c>
+      <c r="OY14" s="2">
+        <v>6826</v>
+      </c>
+      <c r="OZ14" s="2">
+        <v>1527</v>
+      </c>
+      <c r="PA14" s="2">
+        <v>129847</v>
+      </c>
+      <c r="PB14" s="2">
+        <v>30697</v>
+      </c>
+      <c r="PC14" s="2">
+        <v>5118</v>
+      </c>
+      <c r="PD14" s="2">
+        <v>6752</v>
+      </c>
+      <c r="PE14" s="2">
+        <v>48442</v>
+      </c>
+      <c r="PF14" s="2">
+        <v>172775</v>
+      </c>
+      <c r="PG14" s="2">
+        <v>2131</v>
+      </c>
+      <c r="PH14" s="2">
+        <v>220657</v>
+      </c>
+      <c r="PI14" s="2">
+        <v>40469</v>
+      </c>
+      <c r="PJ14" s="2">
+        <v>8867</v>
+      </c>
+      <c r="PK14" s="2">
+        <v>120270</v>
+      </c>
+      <c r="PL14" s="2">
+        <v>1511</v>
+      </c>
+      <c r="PM14" s="2">
+        <v>51154</v>
+      </c>
+      <c r="PN14" s="2">
+        <v>6593</v>
+      </c>
+      <c r="PO14" s="2">
+        <v>57530</v>
+      </c>
+      <c r="PP14" s="2">
+        <v>50018</v>
+      </c>
+      <c r="PQ14" s="2">
+        <v>42662</v>
+      </c>
+      <c r="PR14" s="2">
+        <v>150287</v>
+      </c>
+      <c r="PS14" s="2">
+        <v>2193</v>
+      </c>
+      <c r="PT14" s="2">
+        <v>11841</v>
+      </c>
+      <c r="PU14" s="2">
+        <v>5672</v>
+      </c>
+      <c r="PV14" s="2">
+        <v>23613</v>
+      </c>
+      <c r="PW14" s="2">
+        <v>7534</v>
+      </c>
+      <c r="PX14" s="2">
+        <v>104107</v>
+      </c>
+      <c r="PY14" s="2">
+        <v>37524</v>
+      </c>
+      <c r="PZ14" s="2">
+        <v>147099</v>
+      </c>
+      <c r="QA14" s="2">
+        <v>6632</v>
+      </c>
+      <c r="QB14" s="2">
+        <v>35301</v>
+      </c>
+      <c r="QC14" s="2">
+        <v>258520</v>
+      </c>
+      <c r="QD14" s="2">
+        <v>861</v>
+      </c>
+      <c r="QE14" s="2">
+        <v>341605</v>
+      </c>
+      <c r="QF14" s="2">
+        <v>81273</v>
+      </c>
+      <c r="QG14" s="2">
+        <v>158510</v>
+      </c>
+      <c r="QH14" s="2">
+        <v>7703</v>
+      </c>
+      <c r="QI14" s="2">
+        <v>35517</v>
+      </c>
+      <c r="QJ14" s="2">
+        <v>808</v>
+      </c>
+      <c r="QK14" s="2">
+        <v>146359</v>
+      </c>
+      <c r="QL14" s="2">
+        <v>167551</v>
+      </c>
+      <c r="QM14" s="2">
+        <v>18777</v>
+      </c>
+      <c r="QN14" s="2">
+        <v>8126</v>
+      </c>
+      <c r="QO14" s="2">
+        <v>8188</v>
+      </c>
+      <c r="QP14" s="2">
+        <v>84677</v>
+      </c>
+      <c r="QQ14" s="2">
+        <v>245788</v>
+      </c>
+      <c r="QR14" s="2">
+        <v>462579</v>
+      </c>
+      <c r="QS14" s="2">
+        <v>94199</v>
+      </c>
+      <c r="QT14" s="2">
+        <v>7883</v>
+      </c>
+      <c r="QU14" s="2">
+        <v>10433</v>
+      </c>
+      <c r="QV14" s="2"/>
+      <c r="QW14" s="2"/>
+      <c r="QX14" s="2"/>
+      <c r="QY14" s="2"/>
+      <c r="QZ14" s="2"/>
+      <c r="RA14" s="2"/>
     </row>
     <row r="19" spans="421:433" x14ac:dyDescent="0.25">
       <c r="PE19" s="2"/>
@@ -15007,14 +17909,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW4"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AV5" sqref="AV5"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW2" sqref="AW2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15619,6 +18521,244 @@
         <v>4598336.76</v>
       </c>
     </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>506</v>
+      </c>
+      <c r="L5" s="2">
+        <v>21612</v>
+      </c>
+      <c r="M5" s="2">
+        <v>36905</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45865</v>
+      </c>
+      <c r="O5" s="2">
+        <v>54714</v>
+      </c>
+      <c r="P5" s="2">
+        <v>71114</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>74922</v>
+      </c>
+      <c r="R5" s="2">
+        <v>79571</v>
+      </c>
+      <c r="S5" s="2">
+        <v>76491</v>
+      </c>
+      <c r="T5" s="2">
+        <v>79123</v>
+      </c>
+      <c r="U5" s="2">
+        <v>72658</v>
+      </c>
+      <c r="V5" s="2">
+        <v>76522</v>
+      </c>
+      <c r="W5" s="2">
+        <v>77971</v>
+      </c>
+      <c r="X5" s="2">
+        <v>99792</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>106290</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>140894</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>174834</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>185861</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>226408</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>260901</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>299807</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>310108</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>267800</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>272218</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>278866</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>294244</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>278996</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>312799</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>323434</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>321185</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>309364</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>304454</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>310540.82</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>349215</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>360874</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>380412.17</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>429432</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>502858</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>628333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>507</v>
+      </c>
+      <c r="L6" s="2">
+        <v>13201</v>
+      </c>
+      <c r="M6" s="2">
+        <v>32920</v>
+      </c>
+      <c r="N6" s="2">
+        <v>25299</v>
+      </c>
+      <c r="O6" s="2">
+        <v>28503</v>
+      </c>
+      <c r="P6" s="2">
+        <v>35232</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>46560</v>
+      </c>
+      <c r="R6" s="2">
+        <v>29651</v>
+      </c>
+      <c r="S6" s="2">
+        <v>36887</v>
+      </c>
+      <c r="T6" s="2">
+        <v>38844</v>
+      </c>
+      <c r="U6" s="2">
+        <v>64517</v>
+      </c>
+      <c r="V6" s="2">
+        <v>41220</v>
+      </c>
+      <c r="W6" s="2">
+        <v>47678</v>
+      </c>
+      <c r="X6" s="2">
+        <v>64717</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>99106</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>86949</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>99605</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>172098</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>243582</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>190895</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>357587</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>529884</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>342340</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>291801</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>500437</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>644978</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>651573</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>286443</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>375087.6</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>434362</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>487895</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>485511</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>369925.58</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>376374</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>481575</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>582054</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>774637</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>790323</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>975278</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -15627,10 +18767,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15792,6 +18932,22 @@
       </c>
       <c r="B21" t="s">
         <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>508</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93F1E30-091B-413F-86D2-695A9C2BD569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7062E3DA-DB16-44FF-AFE1-569B0017EE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1652,12 +1652,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1890,11 +1890,11 @@
   <dimension ref="A1:RA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="QJ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="QO2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="QU15" sqref="QU15"/>
+      <selection pane="bottomRight" activeCell="QX14" sqref="QX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4150,15 +4150,21 @@
       <c r="QU2" s="2">
         <v>15827146</v>
       </c>
-      <c r="QV2" s="2"/>
-      <c r="QW2" s="2"/>
-      <c r="QX2" s="2"/>
+      <c r="QV2" s="2">
+        <v>16034777</v>
+      </c>
+      <c r="QW2" s="2">
+        <v>15914225</v>
+      </c>
+      <c r="QX2" s="2">
+        <v>16266167</v>
+      </c>
       <c r="QY2" s="2"/>
       <c r="QZ2" s="2"/>
       <c r="RA2" s="2"/>
     </row>
     <row r="3" spans="1:469" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>458</v>
       </c>
       <c r="B3" s="2"/>
@@ -5379,9 +5385,15 @@
       <c r="QU3" s="2">
         <v>15483499</v>
       </c>
-      <c r="QV3" s="2"/>
-      <c r="QW3" s="2"/>
-      <c r="QX3" s="2"/>
+      <c r="QV3" s="2">
+        <v>15689987</v>
+      </c>
+      <c r="QW3" s="2">
+        <v>15550200</v>
+      </c>
+      <c r="QX3" s="2">
+        <v>15893305</v>
+      </c>
       <c r="QY3" s="2"/>
       <c r="QZ3" s="2"/>
       <c r="RA3" s="2"/>
@@ -6608,9 +6620,15 @@
       <c r="QU4" s="2">
         <v>10573116</v>
       </c>
-      <c r="QV4" s="2"/>
-      <c r="QW4" s="2"/>
-      <c r="QX4" s="2"/>
+      <c r="QV4" s="2">
+        <v>10753150</v>
+      </c>
+      <c r="QW4" s="2">
+        <v>10791608</v>
+      </c>
+      <c r="QX4" s="2">
+        <v>10936258</v>
+      </c>
       <c r="QY4" s="2"/>
       <c r="QZ4" s="2"/>
       <c r="RA4" s="2"/>
@@ -7789,9 +7807,15 @@
       <c r="QU5" s="2">
         <v>156</v>
       </c>
-      <c r="QV5" s="2"/>
-      <c r="QW5" s="2"/>
-      <c r="QX5" s="2"/>
+      <c r="QV5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QW5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QX5" s="2">
+        <v>156</v>
+      </c>
       <c r="QY5" s="2"/>
       <c r="QZ5" s="2"/>
       <c r="RA5" s="2"/>
@@ -8970,9 +8994,15 @@
       <c r="QU6" s="2">
         <v>10572960</v>
       </c>
-      <c r="QV6" s="2"/>
-      <c r="QW6" s="2"/>
-      <c r="QX6" s="2"/>
+      <c r="QV6" s="2">
+        <v>10752994</v>
+      </c>
+      <c r="QW6" s="2">
+        <v>10791452</v>
+      </c>
+      <c r="QX6" s="2">
+        <v>10936102</v>
+      </c>
       <c r="QY6" s="2"/>
       <c r="QZ6" s="2"/>
       <c r="RA6" s="2"/>
@@ -10199,9 +10229,15 @@
       <c r="QU7" s="2">
         <v>4910383</v>
       </c>
-      <c r="QV7" s="2"/>
-      <c r="QW7" s="2"/>
-      <c r="QX7" s="2"/>
+      <c r="QV7" s="2">
+        <v>4936837</v>
+      </c>
+      <c r="QW7" s="2">
+        <v>4758592</v>
+      </c>
+      <c r="QX7" s="2">
+        <v>4957047</v>
+      </c>
       <c r="QY7" s="2"/>
       <c r="QZ7" s="2"/>
       <c r="RA7" s="2"/>
@@ -11380,9 +11416,15 @@
       <c r="QU8" s="2">
         <v>2292443</v>
       </c>
-      <c r="QV8" s="2"/>
-      <c r="QW8" s="2"/>
-      <c r="QX8" s="2"/>
+      <c r="QV8" s="2">
+        <v>2320010</v>
+      </c>
+      <c r="QW8" s="2">
+        <v>2245024</v>
+      </c>
+      <c r="QX8" s="2">
+        <v>2318595</v>
+      </c>
       <c r="QY8" s="2"/>
       <c r="QZ8" s="2"/>
       <c r="RA8" s="2"/>
@@ -12561,9 +12603,15 @@
       <c r="QU9" s="2">
         <v>2617940</v>
       </c>
-      <c r="QV9" s="2"/>
-      <c r="QW9" s="2"/>
-      <c r="QX9" s="2"/>
+      <c r="QV9" s="2">
+        <v>2616827</v>
+      </c>
+      <c r="QW9" s="2">
+        <v>2513568</v>
+      </c>
+      <c r="QX9" s="2">
+        <v>2638452</v>
+      </c>
       <c r="QY9" s="2"/>
       <c r="QZ9" s="2"/>
       <c r="RA9" s="2"/>
@@ -13406,9 +13454,15 @@
       <c r="QU10" s="2">
         <v>343647</v>
       </c>
-      <c r="QV10" s="2"/>
-      <c r="QW10" s="2"/>
-      <c r="QX10" s="2"/>
+      <c r="QV10" s="2">
+        <v>344790</v>
+      </c>
+      <c r="QW10" s="2">
+        <v>364025</v>
+      </c>
+      <c r="QX10" s="2">
+        <v>372862</v>
+      </c>
       <c r="QY10" s="2"/>
       <c r="QZ10" s="2"/>
       <c r="RA10" s="2"/>
@@ -14251,9 +14305,15 @@
       <c r="QU11" s="2">
         <v>182571</v>
       </c>
-      <c r="QV11" s="2"/>
-      <c r="QW11" s="2"/>
-      <c r="QX11" s="2"/>
+      <c r="QV11" s="2">
+        <v>180859</v>
+      </c>
+      <c r="QW11" s="2">
+        <v>205158</v>
+      </c>
+      <c r="QX11" s="2">
+        <v>214958</v>
+      </c>
       <c r="QY11" s="2"/>
       <c r="QZ11" s="2"/>
       <c r="RA11" s="2"/>
@@ -15096,9 +15156,15 @@
       <c r="QU12" s="2">
         <v>161076</v>
       </c>
-      <c r="QV12" s="2"/>
-      <c r="QW12" s="2"/>
-      <c r="QX12" s="2"/>
+      <c r="QV12" s="2">
+        <v>163931</v>
+      </c>
+      <c r="QW12" s="2">
+        <v>158867</v>
+      </c>
+      <c r="QX12" s="2">
+        <v>157904</v>
+      </c>
       <c r="QY12" s="2"/>
       <c r="QZ12" s="2"/>
       <c r="RA12" s="2"/>
@@ -16493,9 +16559,15 @@
       <c r="QU13" s="2">
         <v>55643</v>
       </c>
-      <c r="QV13" s="2"/>
-      <c r="QW13" s="2"/>
-      <c r="QX13" s="2"/>
+      <c r="QV13" s="2">
+        <v>79432</v>
+      </c>
+      <c r="QW13" s="2">
+        <v>52781</v>
+      </c>
+      <c r="QX13" s="2">
+        <v>73852</v>
+      </c>
       <c r="QY13" s="2"/>
       <c r="QZ13" s="2"/>
       <c r="RA13" s="2"/>
@@ -17890,9 +17962,15 @@
       <c r="QU14" s="2">
         <v>10433</v>
       </c>
-      <c r="QV14" s="2"/>
-      <c r="QW14" s="2"/>
-      <c r="QX14" s="2"/>
+      <c r="QV14" s="2">
+        <v>1742</v>
+      </c>
+      <c r="QW14" s="2">
+        <v>133437</v>
+      </c>
+      <c r="QX14" s="2">
+        <v>19758</v>
+      </c>
       <c r="QY14" s="2"/>
       <c r="QZ14" s="2"/>
       <c r="RA14" s="2"/>
@@ -18803,7 +18881,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>474</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -18811,13 +18889,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>477</v>
       </c>
@@ -18935,18 +19013,18 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>508</v>
       </c>
     </row>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7062E3DA-DB16-44FF-AFE1-569B0017EE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF59BAD-2696-4D01-B0B3-513D8EF70727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8715" yWindow="1530" windowWidth="19650" windowHeight="12015" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="510">
   <si>
     <t>Particulars</t>
   </si>
@@ -1510,15 +1510,9 @@
     <t xml:space="preserve">    External</t>
   </si>
   <si>
-    <t>2009 - 2023</t>
-  </si>
-  <si>
     <t>1993 - 2023</t>
   </si>
   <si>
-    <t>1995 - 2008; 2009 - 2023</t>
-  </si>
-  <si>
     <t>January 2024</t>
   </si>
   <si>
@@ -1561,7 +1555,16 @@
     <t>Debt Service - Amortization</t>
   </si>
   <si>
-    <t>1986 - 2023</t>
+    <t>2009 - 2024</t>
+  </si>
+  <si>
+    <t>1993 - 2024</t>
+  </si>
+  <si>
+    <t>1995 - 2008; 2009 - 2024</t>
+  </si>
+  <si>
+    <t>1986 - 2024</t>
   </si>
 </sst>
 </file>
@@ -1653,11 +1656,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1889,12 +1892,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:RA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="QO2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="QI2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="QX14" sqref="QX14"/>
+      <selection pane="bottomRight" activeCell="RA7" activeCellId="2" sqref="RA3 RA4 RA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3276,40 +3279,40 @@
         <v>456</v>
       </c>
       <c r="QP1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="QQ1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="QR1" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="QQ1" s="1" t="s">
+      <c r="QS1" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="QR1" s="1" t="s">
+      <c r="QT1" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="QS1" s="1" t="s">
+      <c r="QU1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="QT1" s="1" t="s">
+      <c r="QV1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="QU1" s="1" t="s">
+      <c r="QW1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="QV1" s="1" t="s">
+      <c r="QX1" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="QW1" s="1" t="s">
+      <c r="QY1" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="QX1" s="1" t="s">
+      <c r="QZ1" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="QY1" s="1" t="s">
+      <c r="RA1" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="QZ1" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="RA1" s="1" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:469" x14ac:dyDescent="0.25">
@@ -4159,12 +4162,18 @@
       <c r="QX2" s="2">
         <v>16266167</v>
       </c>
-      <c r="QY2" s="2"/>
-      <c r="QZ2" s="2"/>
-      <c r="RA2" s="2"/>
+      <c r="QY2" s="2">
+        <v>16432017</v>
+      </c>
+      <c r="QZ2" s="2">
+        <v>16513000</v>
+      </c>
+      <c r="RA2" s="2">
+        <v>16397961</v>
+      </c>
     </row>
     <row r="3" spans="1:469" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>458</v>
       </c>
       <c r="B3" s="2"/>
@@ -5394,9 +5403,15 @@
       <c r="QX3" s="2">
         <v>15893305</v>
       </c>
-      <c r="QY3" s="2"/>
-      <c r="QZ3" s="2"/>
-      <c r="RA3" s="2"/>
+      <c r="QY3" s="2">
+        <v>16020258</v>
+      </c>
+      <c r="QZ3" s="2">
+        <v>16090966</v>
+      </c>
+      <c r="RA3" s="2">
+        <v>16051302</v>
+      </c>
     </row>
     <row r="4" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6629,9 +6644,15 @@
       <c r="QX4" s="2">
         <v>10936258</v>
       </c>
-      <c r="QY4" s="2"/>
-      <c r="QZ4" s="2"/>
-      <c r="RA4" s="2"/>
+      <c r="QY4" s="2">
+        <v>10889837</v>
+      </c>
+      <c r="QZ4" s="2">
+        <v>10921662</v>
+      </c>
+      <c r="RA4" s="2">
+        <v>10930415</v>
+      </c>
     </row>
     <row r="5" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -7816,9 +7837,15 @@
       <c r="QX5" s="2">
         <v>156</v>
       </c>
-      <c r="QY5" s="2"/>
-      <c r="QZ5" s="2"/>
-      <c r="RA5" s="2"/>
+      <c r="QY5" s="2">
+        <v>156</v>
+      </c>
+      <c r="QZ5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RA5" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -9003,9 +9030,15 @@
       <c r="QX6" s="2">
         <v>10936102</v>
       </c>
-      <c r="QY6" s="2"/>
-      <c r="QZ6" s="2"/>
-      <c r="RA6" s="2"/>
+      <c r="QY6" s="2">
+        <v>10889681</v>
+      </c>
+      <c r="QZ6" s="2">
+        <v>10921506</v>
+      </c>
+      <c r="RA6" s="2">
+        <v>10930259</v>
+      </c>
     </row>
     <row r="7" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -10238,9 +10271,15 @@
       <c r="QX7" s="2">
         <v>4957047</v>
       </c>
-      <c r="QY7" s="2"/>
-      <c r="QZ7" s="2"/>
-      <c r="RA7" s="2"/>
+      <c r="QY7" s="2">
+        <v>5130421</v>
+      </c>
+      <c r="QZ7" s="2">
+        <v>5169304</v>
+      </c>
+      <c r="RA7" s="2">
+        <v>5120887</v>
+      </c>
     </row>
     <row r="8" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -11425,9 +11464,15 @@
       <c r="QX8" s="2">
         <v>2318595</v>
       </c>
-      <c r="QY8" s="2"/>
-      <c r="QZ8" s="2"/>
-      <c r="RA8" s="2"/>
+      <c r="QY8" s="2">
+        <v>2420218</v>
+      </c>
+      <c r="QZ8" s="2">
+        <v>2445960</v>
+      </c>
+      <c r="RA8" s="2">
+        <v>2438865</v>
+      </c>
     </row>
     <row r="9" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -12612,9 +12657,15 @@
       <c r="QX9" s="2">
         <v>2638452</v>
       </c>
-      <c r="QY9" s="2"/>
-      <c r="QZ9" s="2"/>
-      <c r="RA9" s="2"/>
+      <c r="QY9" s="2">
+        <v>2710203</v>
+      </c>
+      <c r="QZ9" s="2">
+        <v>2723344</v>
+      </c>
+      <c r="RA9" s="2">
+        <v>2682022</v>
+      </c>
     </row>
     <row r="10" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -13463,9 +13514,15 @@
       <c r="QX10" s="2">
         <v>372862</v>
       </c>
-      <c r="QY10" s="2"/>
-      <c r="QZ10" s="2"/>
-      <c r="RA10" s="2"/>
+      <c r="QY10" s="2">
+        <v>411759</v>
+      </c>
+      <c r="QZ10" s="2">
+        <v>422034</v>
+      </c>
+      <c r="RA10" s="2">
+        <v>346659</v>
+      </c>
     </row>
     <row r="11" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -14314,9 +14371,15 @@
       <c r="QX11" s="2">
         <v>214958</v>
       </c>
-      <c r="QY11" s="2"/>
-      <c r="QZ11" s="2"/>
-      <c r="RA11" s="2"/>
+      <c r="QY11" s="2">
+        <v>250807</v>
+      </c>
+      <c r="QZ11" s="2">
+        <v>259756</v>
+      </c>
+      <c r="RA11" s="2">
+        <v>255506</v>
+      </c>
     </row>
     <row r="12" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -15165,13 +15228,19 @@
       <c r="QX12" s="2">
         <v>157904</v>
       </c>
-      <c r="QY12" s="2"/>
-      <c r="QZ12" s="2"/>
-      <c r="RA12" s="2"/>
+      <c r="QY12" s="2">
+        <v>160952</v>
+      </c>
+      <c r="QZ12" s="2">
+        <v>162278</v>
+      </c>
+      <c r="RA12" s="2">
+        <v>91153</v>
+      </c>
     </row>
     <row r="13" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B13" s="2">
         <v>915</v>
@@ -16568,13 +16637,19 @@
       <c r="QX13" s="2">
         <v>73852</v>
       </c>
-      <c r="QY13" s="2"/>
-      <c r="QZ13" s="2"/>
-      <c r="RA13" s="2"/>
+      <c r="QY13" s="2">
+        <v>55388</v>
+      </c>
+      <c r="QZ13" s="2">
+        <v>66653</v>
+      </c>
+      <c r="RA13" s="2">
+        <v>57979</v>
+      </c>
     </row>
     <row r="14" spans="1:469" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B14" s="2">
         <v>1169</v>
@@ -17971,9 +18046,15 @@
       <c r="QX14" s="2">
         <v>19758</v>
       </c>
-      <c r="QY14" s="2"/>
-      <c r="QZ14" s="2"/>
-      <c r="RA14" s="2"/>
+      <c r="QY14" s="2">
+        <v>161462</v>
+      </c>
+      <c r="QZ14" s="2">
+        <v>27051</v>
+      </c>
+      <c r="RA14" s="2">
+        <v>8320</v>
+      </c>
     </row>
     <row r="19" spans="421:433" x14ac:dyDescent="0.25">
       <c r="PE19" s="2"/>
@@ -17987,23 +18068,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW6"/>
+  <dimension ref="A1:AX6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AV5" sqref="AV5"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AX7" sqref="AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="49" width="10" customWidth="1"/>
+    <col min="2" max="50" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18151,8 +18232,11 @@
       <c r="AW1">
         <v>2023</v>
       </c>
+      <c r="AX1">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>458</v>
       </c>
@@ -18300,8 +18384,11 @@
       <c r="AW2" s="2">
         <v>14616266.76</v>
       </c>
+      <c r="AX2" s="2">
+        <v>16051302</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>459</v>
       </c>
@@ -18449,8 +18536,11 @@
       <c r="AW3" s="2">
         <v>10017930</v>
       </c>
+      <c r="AX3" s="2">
+        <v>10930415</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>462</v>
       </c>
@@ -18598,10 +18688,13 @@
       <c r="AW4" s="2">
         <v>4598336.76</v>
       </c>
+      <c r="AX4" s="2">
+        <v>5120887</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="L5" s="2">
         <v>21612</v>
@@ -18717,10 +18810,13 @@
       <c r="AW5" s="2">
         <v>628333</v>
       </c>
+      <c r="AX5" s="2">
+        <v>763313</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L6" s="2">
         <v>13201</v>
@@ -18835,6 +18931,9 @@
       </c>
       <c r="AW6" s="2">
         <v>975278</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>1257329</v>
       </c>
     </row>
   </sheetData>
@@ -18847,8 +18946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18881,7 +18980,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>474</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -18889,13 +18988,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="4" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="4" t="s">
         <v>477</v>
       </c>
@@ -18913,7 +19012,7 @@
         <v>480</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -18929,7 +19028,7 @@
         <v>482</v>
       </c>
       <c r="B11" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -18937,7 +19036,7 @@
         <v>483</v>
       </c>
       <c r="B12" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -18945,7 +19044,7 @@
         <v>484</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -18953,7 +19052,7 @@
         <v>485</v>
       </c>
       <c r="B14" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -18961,7 +19060,7 @@
         <v>486</v>
       </c>
       <c r="B15" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -18969,7 +19068,7 @@
         <v>487</v>
       </c>
       <c r="B16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -18977,7 +19076,7 @@
         <v>485</v>
       </c>
       <c r="B17" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -18985,7 +19084,7 @@
         <v>486</v>
       </c>
       <c r="B18" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -18993,7 +19092,7 @@
         <v>488</v>
       </c>
       <c r="B19" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -19001,7 +19100,7 @@
         <v>489</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -19009,23 +19108,23 @@
         <v>490</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>509</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF59BAD-2696-4D01-B0B3-513D8EF70727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAFAFC-7DF0-4A57-BA3D-A0CF309BB05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="1530" windowWidth="19650" windowHeight="12015" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="2205" windowWidth="15270" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="522">
   <si>
     <t>Particulars</t>
   </si>
@@ -1565,6 +1565,42 @@
   </si>
   <si>
     <t>1986 - 2024</t>
+  </si>
+  <si>
+    <t>January 2025</t>
+  </si>
+  <si>
+    <t>February 2025</t>
+  </si>
+  <si>
+    <t>March 2025</t>
+  </si>
+  <si>
+    <t>April 2025</t>
+  </si>
+  <si>
+    <t>May 2025</t>
+  </si>
+  <si>
+    <t>June 2025</t>
+  </si>
+  <si>
+    <t>July 2025</t>
+  </si>
+  <si>
+    <t>August 2025</t>
+  </si>
+  <si>
+    <t>September 2025</t>
+  </si>
+  <si>
+    <t>October 2025</t>
+  </si>
+  <si>
+    <t>November 2025</t>
+  </si>
+  <si>
+    <t>December 2025</t>
   </si>
 </sst>
 </file>
@@ -1657,10 +1693,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1890,23 +1926,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:RA19"/>
+  <dimension ref="A1:RM19"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="QI2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="RE2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="RA7" activeCellId="2" sqref="RA3 RA4 RA7"/>
+      <selection pane="bottomRight" activeCell="RF2" sqref="RF2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="469" width="10.7109375" customWidth="1"/>
+    <col min="2" max="481" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3314,8 +3350,44 @@
       <c r="RA1" s="1" t="s">
         <v>503</v>
       </c>
+      <c r="RB1" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="RC1" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="RD1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="RE1" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="RF1" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="RG1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="RH1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="RI1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="RJ1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="RK1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="RL1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="RM1" s="1" t="s">
+        <v>521</v>
+      </c>
     </row>
-    <row r="2" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>457</v>
       </c>
@@ -4171,8 +4243,28 @@
       <c r="RA2" s="2">
         <v>16397961</v>
       </c>
+      <c r="RB2" s="2">
+        <v>16659042.630000001</v>
+      </c>
+      <c r="RC2" s="2">
+        <v>16973139</v>
+      </c>
+      <c r="RD2" s="2">
+        <v>17023843</v>
+      </c>
+      <c r="RE2" s="2">
+        <v>17090215</v>
+      </c>
+      <c r="RF2" s="2"/>
+      <c r="RG2" s="2"/>
+      <c r="RH2" s="2"/>
+      <c r="RI2" s="2"/>
+      <c r="RJ2" s="2"/>
+      <c r="RK2" s="2"/>
+      <c r="RL2" s="2"/>
+      <c r="RM2" s="2"/>
     </row>
-    <row r="3" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>458</v>
       </c>
@@ -5412,8 +5504,28 @@
       <c r="RA3" s="2">
         <v>16051302</v>
       </c>
+      <c r="RB3" s="2">
+        <v>16312771.630000001</v>
+      </c>
+      <c r="RC3" s="2">
+        <v>16632029</v>
+      </c>
+      <c r="RD3" s="2">
+        <v>16683985</v>
+      </c>
+      <c r="RE3" s="2">
+        <v>16752675</v>
+      </c>
+      <c r="RF3" s="2"/>
+      <c r="RG3" s="2"/>
+      <c r="RH3" s="2"/>
+      <c r="RI3" s="2"/>
+      <c r="RJ3" s="2"/>
+      <c r="RK3" s="2"/>
+      <c r="RL3" s="2"/>
+      <c r="RM3" s="2"/>
     </row>
-    <row r="4" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>459</v>
       </c>
@@ -6653,8 +6765,28 @@
       <c r="RA4" s="2">
         <v>10930415</v>
       </c>
+      <c r="RB4" s="2">
+        <v>11084089.630000001</v>
+      </c>
+      <c r="RC4" s="2">
+        <v>11223709</v>
+      </c>
+      <c r="RD4" s="2">
+        <v>11379538</v>
+      </c>
+      <c r="RE4" s="2">
+        <v>11590558</v>
+      </c>
+      <c r="RF4" s="2"/>
+      <c r="RG4" s="2"/>
+      <c r="RH4" s="2"/>
+      <c r="RI4" s="2"/>
+      <c r="RJ4" s="2"/>
+      <c r="RK4" s="2"/>
+      <c r="RL4" s="2"/>
+      <c r="RM4" s="2"/>
     </row>
-    <row r="5" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>460</v>
       </c>
@@ -7846,8 +7978,28 @@
       <c r="RA5" s="2">
         <v>156</v>
       </c>
+      <c r="RB5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RC5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RD5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RE5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RF5" s="2"/>
+      <c r="RG5" s="2"/>
+      <c r="RH5" s="2"/>
+      <c r="RI5" s="2"/>
+      <c r="RJ5" s="2"/>
+      <c r="RK5" s="2"/>
+      <c r="RL5" s="2"/>
+      <c r="RM5" s="2"/>
     </row>
-    <row r="6" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>461</v>
       </c>
@@ -9039,8 +9191,28 @@
       <c r="RA6" s="2">
         <v>10930259</v>
       </c>
+      <c r="RB6" s="2">
+        <v>11083933.630000001</v>
+      </c>
+      <c r="RC6" s="2">
+        <v>11223553</v>
+      </c>
+      <c r="RD6" s="2">
+        <v>11379382</v>
+      </c>
+      <c r="RE6" s="2">
+        <v>11590402</v>
+      </c>
+      <c r="RF6" s="2"/>
+      <c r="RG6" s="2"/>
+      <c r="RH6" s="2"/>
+      <c r="RI6" s="2"/>
+      <c r="RJ6" s="2"/>
+      <c r="RK6" s="2"/>
+      <c r="RL6" s="2"/>
+      <c r="RM6" s="2"/>
     </row>
-    <row r="7" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>462</v>
       </c>
@@ -10280,8 +10452,28 @@
       <c r="RA7" s="2">
         <v>5120887</v>
       </c>
+      <c r="RB7" s="2">
+        <v>5228682</v>
+      </c>
+      <c r="RC7" s="2">
+        <v>5408320</v>
+      </c>
+      <c r="RD7" s="2">
+        <v>5304447</v>
+      </c>
+      <c r="RE7" s="2">
+        <v>5162117</v>
+      </c>
+      <c r="RF7" s="2"/>
+      <c r="RG7" s="2"/>
+      <c r="RH7" s="2"/>
+      <c r="RI7" s="2"/>
+      <c r="RJ7" s="2"/>
+      <c r="RK7" s="2"/>
+      <c r="RL7" s="2"/>
+      <c r="RM7" s="2"/>
     </row>
-    <row r="8" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>463</v>
       </c>
@@ -11473,8 +11665,28 @@
       <c r="RA8" s="2">
         <v>2438865</v>
       </c>
+      <c r="RB8" s="2">
+        <v>2523848</v>
+      </c>
+      <c r="RC8" s="2">
+        <v>2525650</v>
+      </c>
+      <c r="RD8" s="2">
+        <v>2530930</v>
+      </c>
+      <c r="RE8" s="2">
+        <v>2479573</v>
+      </c>
+      <c r="RF8" s="2"/>
+      <c r="RG8" s="2"/>
+      <c r="RH8" s="2"/>
+      <c r="RI8" s="2"/>
+      <c r="RJ8" s="2"/>
+      <c r="RK8" s="2"/>
+      <c r="RL8" s="2"/>
+      <c r="RM8" s="2"/>
     </row>
-    <row r="9" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>464</v>
       </c>
@@ -12666,8 +12878,28 @@
       <c r="RA9" s="2">
         <v>2682022</v>
       </c>
+      <c r="RB9" s="2">
+        <v>2704834</v>
+      </c>
+      <c r="RC9" s="2">
+        <v>2882670</v>
+      </c>
+      <c r="RD9" s="2">
+        <v>2773517</v>
+      </c>
+      <c r="RE9" s="2">
+        <v>2682544</v>
+      </c>
+      <c r="RF9" s="2"/>
+      <c r="RG9" s="2"/>
+      <c r="RH9" s="2"/>
+      <c r="RI9" s="2"/>
+      <c r="RJ9" s="2"/>
+      <c r="RK9" s="2"/>
+      <c r="RL9" s="2"/>
+      <c r="RM9" s="2"/>
     </row>
-    <row r="10" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>465</v>
       </c>
@@ -13523,8 +13755,28 @@
       <c r="RA10" s="2">
         <v>346659</v>
       </c>
+      <c r="RB10" s="2">
+        <v>346271</v>
+      </c>
+      <c r="RC10" s="2">
+        <v>341110</v>
+      </c>
+      <c r="RD10" s="2">
+        <v>339858</v>
+      </c>
+      <c r="RE10" s="2">
+        <v>337540</v>
+      </c>
+      <c r="RF10" s="2"/>
+      <c r="RG10" s="2"/>
+      <c r="RH10" s="2"/>
+      <c r="RI10" s="2"/>
+      <c r="RJ10" s="2"/>
+      <c r="RK10" s="2"/>
+      <c r="RL10" s="2"/>
+      <c r="RM10" s="2"/>
     </row>
-    <row r="11" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>466</v>
       </c>
@@ -14380,8 +14632,28 @@
       <c r="RA11" s="2">
         <v>255506</v>
       </c>
+      <c r="RB11" s="2">
+        <v>253955</v>
+      </c>
+      <c r="RC11" s="2">
+        <v>248126</v>
+      </c>
+      <c r="RD11" s="2">
+        <v>248898</v>
+      </c>
+      <c r="RE11" s="2">
+        <v>247147</v>
+      </c>
+      <c r="RF11" s="2"/>
+      <c r="RG11" s="2"/>
+      <c r="RH11" s="2"/>
+      <c r="RI11" s="2"/>
+      <c r="RJ11" s="2"/>
+      <c r="RK11" s="2"/>
+      <c r="RL11" s="2"/>
+      <c r="RM11" s="2"/>
     </row>
-    <row r="12" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>467</v>
       </c>
@@ -15237,8 +15509,28 @@
       <c r="RA12" s="2">
         <v>91153</v>
       </c>
+      <c r="RB12" s="2">
+        <v>92316</v>
+      </c>
+      <c r="RC12" s="2">
+        <v>92984</v>
+      </c>
+      <c r="RD12" s="2">
+        <v>90960</v>
+      </c>
+      <c r="RE12" s="2">
+        <v>90393</v>
+      </c>
+      <c r="RF12" s="2"/>
+      <c r="RG12" s="2"/>
+      <c r="RH12" s="2"/>
+      <c r="RI12" s="2"/>
+      <c r="RJ12" s="2"/>
+      <c r="RK12" s="2"/>
+      <c r="RL12" s="2"/>
+      <c r="RM12" s="2"/>
     </row>
-    <row r="13" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>504</v>
       </c>
@@ -16646,8 +16938,28 @@
       <c r="RA13" s="2">
         <v>57979</v>
       </c>
+      <c r="RB13" s="2">
+        <v>104435</v>
+      </c>
+      <c r="RC13" s="2">
+        <v>48445</v>
+      </c>
+      <c r="RD13" s="2">
+        <v>88121</v>
+      </c>
+      <c r="RE13" s="2">
+        <v>46446</v>
+      </c>
+      <c r="RF13" s="2"/>
+      <c r="RG13" s="2"/>
+      <c r="RH13" s="2"/>
+      <c r="RI13" s="2"/>
+      <c r="RJ13" s="2"/>
+      <c r="RK13" s="2"/>
+      <c r="RL13" s="2"/>
+      <c r="RM13" s="2"/>
     </row>
-    <row r="14" spans="1:469" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>505</v>
       </c>
@@ -18055,6 +18367,26 @@
       <c r="RA14" s="2">
         <v>8320</v>
       </c>
+      <c r="RB14" s="2">
+        <v>2075</v>
+      </c>
+      <c r="RC14" s="2">
+        <v>3709</v>
+      </c>
+      <c r="RD14" s="2">
+        <v>95238</v>
+      </c>
+      <c r="RE14" s="2">
+        <v>234452</v>
+      </c>
+      <c r="RF14" s="2"/>
+      <c r="RG14" s="2"/>
+      <c r="RH14" s="2"/>
+      <c r="RI14" s="2"/>
+      <c r="RJ14" s="2"/>
+      <c r="RK14" s="2"/>
+      <c r="RL14" s="2"/>
+      <c r="RM14" s="2"/>
     </row>
     <row r="19" spans="421:433" x14ac:dyDescent="0.25">
       <c r="PE19" s="2"/>
@@ -18946,7 +19278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -18980,7 +19312,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>474</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -18988,13 +19320,13 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>477</v>
       </c>
@@ -19115,7 +19447,7 @@
       <c r="A22" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>509</v>
       </c>
     </row>
@@ -19123,7 +19455,7 @@
       <c r="A23" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>509</v>
       </c>
     </row>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAFAFC-7DF0-4A57-BA3D-A0CF309BB05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B1D5C8-49FA-4346-9B10-02E7526E4843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="2205" windowWidth="15270" windowHeight="11610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14145" yWindow="3345" windowWidth="15270" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1929,11 +1929,11 @@
   <dimension ref="A1:RM19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="RE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="RB2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="RF2" sqref="RF2"/>
+      <selection pane="bottomRight" activeCell="RF18" sqref="RF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4244,7 +4244,7 @@
         <v>16397961</v>
       </c>
       <c r="RB2" s="2">
-        <v>16659042.630000001</v>
+        <v>16659043</v>
       </c>
       <c r="RC2" s="2">
         <v>16973139</v>
@@ -4255,8 +4255,12 @@
       <c r="RE2" s="2">
         <v>17090215</v>
       </c>
-      <c r="RF2" s="2"/>
-      <c r="RG2" s="2"/>
+      <c r="RF2" s="2">
+        <v>17262457</v>
+      </c>
+      <c r="RG2" s="2">
+        <v>17612435</v>
+      </c>
       <c r="RH2" s="2"/>
       <c r="RI2" s="2"/>
       <c r="RJ2" s="2"/>
@@ -5505,7 +5509,7 @@
         <v>16051302</v>
       </c>
       <c r="RB3" s="2">
-        <v>16312771.630000001</v>
+        <v>16312772</v>
       </c>
       <c r="RC3" s="2">
         <v>16632029</v>
@@ -5516,8 +5520,12 @@
       <c r="RE3" s="2">
         <v>16752675</v>
       </c>
-      <c r="RF3" s="2"/>
-      <c r="RG3" s="2"/>
+      <c r="RF3" s="2">
+        <v>16918881</v>
+      </c>
+      <c r="RG3" s="2">
+        <v>17267328</v>
+      </c>
       <c r="RH3" s="2"/>
       <c r="RI3" s="2"/>
       <c r="RJ3" s="2"/>
@@ -6766,7 +6774,7 @@
         <v>10930415</v>
       </c>
       <c r="RB4" s="2">
-        <v>11084089.630000001</v>
+        <v>11084090</v>
       </c>
       <c r="RC4" s="2">
         <v>11223709</v>
@@ -6777,8 +6785,12 @@
       <c r="RE4" s="2">
         <v>11590558</v>
       </c>
-      <c r="RF4" s="2"/>
-      <c r="RG4" s="2"/>
+      <c r="RF4" s="2">
+        <v>11780519</v>
+      </c>
+      <c r="RG4" s="2">
+        <v>11950406</v>
+      </c>
       <c r="RH4" s="2"/>
       <c r="RI4" s="2"/>
       <c r="RJ4" s="2"/>
@@ -7990,8 +8002,12 @@
       <c r="RE5" s="2">
         <v>156</v>
       </c>
-      <c r="RF5" s="2"/>
-      <c r="RG5" s="2"/>
+      <c r="RF5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RG5" s="2">
+        <v>156</v>
+      </c>
       <c r="RH5" s="2"/>
       <c r="RI5" s="2"/>
       <c r="RJ5" s="2"/>
@@ -9192,7 +9208,7 @@
         <v>10930259</v>
       </c>
       <c r="RB6" s="2">
-        <v>11083933.630000001</v>
+        <v>11083934</v>
       </c>
       <c r="RC6" s="2">
         <v>11223553</v>
@@ -9203,8 +9219,12 @@
       <c r="RE6" s="2">
         <v>11590402</v>
       </c>
-      <c r="RF6" s="2"/>
-      <c r="RG6" s="2"/>
+      <c r="RF6" s="2">
+        <v>11780363</v>
+      </c>
+      <c r="RG6" s="2">
+        <v>11950250</v>
+      </c>
       <c r="RH6" s="2"/>
       <c r="RI6" s="2"/>
       <c r="RJ6" s="2"/>
@@ -10464,8 +10484,12 @@
       <c r="RE7" s="2">
         <v>5162117</v>
       </c>
-      <c r="RF7" s="2"/>
-      <c r="RG7" s="2"/>
+      <c r="RF7" s="2">
+        <v>5138362</v>
+      </c>
+      <c r="RG7" s="2">
+        <v>5316922</v>
+      </c>
       <c r="RH7" s="2"/>
       <c r="RI7" s="2"/>
       <c r="RJ7" s="2"/>
@@ -11677,8 +11701,12 @@
       <c r="RE8" s="2">
         <v>2479573</v>
       </c>
-      <c r="RF8" s="2"/>
-      <c r="RG8" s="2"/>
+      <c r="RF8" s="2">
+        <v>2468786</v>
+      </c>
+      <c r="RG8" s="2">
+        <v>2602397</v>
+      </c>
       <c r="RH8" s="2"/>
       <c r="RI8" s="2"/>
       <c r="RJ8" s="2"/>
@@ -12890,8 +12918,12 @@
       <c r="RE9" s="2">
         <v>2682544</v>
       </c>
-      <c r="RF9" s="2"/>
-      <c r="RG9" s="2"/>
+      <c r="RF9" s="2">
+        <v>2669576</v>
+      </c>
+      <c r="RG9" s="2">
+        <v>2714525</v>
+      </c>
       <c r="RH9" s="2"/>
       <c r="RI9" s="2"/>
       <c r="RJ9" s="2"/>
@@ -13767,8 +13799,12 @@
       <c r="RE10" s="2">
         <v>337540</v>
       </c>
-      <c r="RF10" s="2"/>
-      <c r="RG10" s="2"/>
+      <c r="RF10" s="2">
+        <v>343576</v>
+      </c>
+      <c r="RG10" s="2">
+        <v>345107</v>
+      </c>
       <c r="RH10" s="2"/>
       <c r="RI10" s="2"/>
       <c r="RJ10" s="2"/>
@@ -14644,8 +14680,12 @@
       <c r="RE11" s="2">
         <v>247147</v>
       </c>
-      <c r="RF11" s="2"/>
-      <c r="RG11" s="2"/>
+      <c r="RF11" s="2">
+        <v>253675</v>
+      </c>
+      <c r="RG11" s="2">
+        <v>254472</v>
+      </c>
       <c r="RH11" s="2"/>
       <c r="RI11" s="2"/>
       <c r="RJ11" s="2"/>
@@ -15521,8 +15561,12 @@
       <c r="RE12" s="2">
         <v>90393</v>
       </c>
-      <c r="RF12" s="2"/>
-      <c r="RG12" s="2"/>
+      <c r="RF12" s="2">
+        <v>89901</v>
+      </c>
+      <c r="RG12" s="2">
+        <v>90635</v>
+      </c>
       <c r="RH12" s="2"/>
       <c r="RI12" s="2"/>
       <c r="RJ12" s="2"/>
@@ -16950,8 +16994,12 @@
       <c r="RE13" s="2">
         <v>46446</v>
       </c>
-      <c r="RF13" s="2"/>
-      <c r="RG13" s="2"/>
+      <c r="RF13" s="2">
+        <v>69954</v>
+      </c>
+      <c r="RG13" s="2">
+        <v>57420</v>
+      </c>
       <c r="RH13" s="2"/>
       <c r="RI13" s="2"/>
       <c r="RJ13" s="2"/>
@@ -18379,8 +18427,12 @@
       <c r="RE14" s="2">
         <v>234452</v>
       </c>
-      <c r="RF14" s="2"/>
-      <c r="RG14" s="2"/>
+      <c r="RF14" s="2">
+        <v>10093</v>
+      </c>
+      <c r="RG14" s="2">
+        <v>7721</v>
+      </c>
       <c r="RH14" s="2"/>
       <c r="RI14" s="2"/>
       <c r="RJ14" s="2"/>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B1D5C8-49FA-4346-9B10-02E7526E4843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773198EF-469E-4E0A-B916-9948C95758D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14145" yWindow="3345" windowWidth="15270" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13155" yWindow="1785" windowWidth="14715" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1929,11 +1929,11 @@
   <dimension ref="A1:RM19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="RB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="RA2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="RF18" sqref="RF18"/>
+      <selection pane="bottomRight" activeCell="RB15" sqref="RB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4244,7 +4244,7 @@
         <v>16397961</v>
       </c>
       <c r="RB2" s="2">
-        <v>16659043</v>
+        <v>16659042.630000001</v>
       </c>
       <c r="RC2" s="2">
         <v>16973139</v>
@@ -4259,11 +4259,17 @@
         <v>17262457</v>
       </c>
       <c r="RG2" s="2">
-        <v>17612435</v>
-      </c>
-      <c r="RH2" s="2"/>
-      <c r="RI2" s="2"/>
-      <c r="RJ2" s="2"/>
+        <v>17612435.009999998</v>
+      </c>
+      <c r="RH2" s="2">
+        <v>17916491</v>
+      </c>
+      <c r="RI2" s="2">
+        <v>17814905</v>
+      </c>
+      <c r="RJ2" s="2">
+        <v>17801987</v>
+      </c>
       <c r="RK2" s="2"/>
       <c r="RL2" s="2"/>
       <c r="RM2" s="2"/>
@@ -5509,7 +5515,7 @@
         <v>16051302</v>
       </c>
       <c r="RB3" s="2">
-        <v>16312772</v>
+        <v>16312771.630000001</v>
       </c>
       <c r="RC3" s="2">
         <v>16632029</v>
@@ -5524,11 +5530,17 @@
         <v>16918881</v>
       </c>
       <c r="RG3" s="2">
-        <v>17267328</v>
-      </c>
-      <c r="RH3" s="2"/>
-      <c r="RI3" s="2"/>
-      <c r="RJ3" s="2"/>
+        <v>17267328.009999998</v>
+      </c>
+      <c r="RH3" s="2">
+        <v>17563521</v>
+      </c>
+      <c r="RI3" s="2">
+        <v>17468448</v>
+      </c>
+      <c r="RJ3" s="2">
+        <v>17455359</v>
+      </c>
       <c r="RK3" s="2"/>
       <c r="RL3" s="2"/>
       <c r="RM3" s="2"/>
@@ -6774,7 +6786,7 @@
         <v>10930415</v>
       </c>
       <c r="RB4" s="2">
-        <v>11084090</v>
+        <v>11084089.630000001</v>
       </c>
       <c r="RC4" s="2">
         <v>11223709</v>
@@ -6791,9 +6803,15 @@
       <c r="RG4" s="2">
         <v>11950406</v>
       </c>
-      <c r="RH4" s="2"/>
-      <c r="RI4" s="2"/>
-      <c r="RJ4" s="2"/>
+      <c r="RH4" s="2">
+        <v>12108421</v>
+      </c>
+      <c r="RI4" s="2">
+        <v>12087031</v>
+      </c>
+      <c r="RJ4" s="2">
+        <v>11972900</v>
+      </c>
       <c r="RK4" s="2"/>
       <c r="RL4" s="2"/>
       <c r="RM4" s="2"/>
@@ -8008,9 +8026,15 @@
       <c r="RG5" s="2">
         <v>156</v>
       </c>
-      <c r="RH5" s="2"/>
-      <c r="RI5" s="2"/>
-      <c r="RJ5" s="2"/>
+      <c r="RH5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RI5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RJ5" s="2">
+        <v>156</v>
+      </c>
       <c r="RK5" s="2"/>
       <c r="RL5" s="2"/>
       <c r="RM5" s="2"/>
@@ -9208,7 +9232,7 @@
         <v>10930259</v>
       </c>
       <c r="RB6" s="2">
-        <v>11083934</v>
+        <v>11083933.630000001</v>
       </c>
       <c r="RC6" s="2">
         <v>11223553</v>
@@ -9225,9 +9249,15 @@
       <c r="RG6" s="2">
         <v>11950250</v>
       </c>
-      <c r="RH6" s="2"/>
-      <c r="RI6" s="2"/>
-      <c r="RJ6" s="2"/>
+      <c r="RH6" s="2">
+        <v>12108265</v>
+      </c>
+      <c r="RI6" s="2">
+        <v>12086875</v>
+      </c>
+      <c r="RJ6" s="2">
+        <v>11972744</v>
+      </c>
       <c r="RK6" s="2"/>
       <c r="RL6" s="2"/>
       <c r="RM6" s="2"/>
@@ -10488,11 +10518,17 @@
         <v>5138362</v>
       </c>
       <c r="RG7" s="2">
-        <v>5316922</v>
-      </c>
-      <c r="RH7" s="2"/>
-      <c r="RI7" s="2"/>
-      <c r="RJ7" s="2"/>
+        <v>5316922.01</v>
+      </c>
+      <c r="RH7" s="2">
+        <v>5455100</v>
+      </c>
+      <c r="RI7" s="2">
+        <v>5381417</v>
+      </c>
+      <c r="RJ7" s="2">
+        <v>5482459</v>
+      </c>
       <c r="RK7" s="2"/>
       <c r="RL7" s="2"/>
       <c r="RM7" s="2"/>
@@ -11705,11 +11741,17 @@
         <v>2468786</v>
       </c>
       <c r="RG8" s="2">
-        <v>2602397</v>
-      </c>
-      <c r="RH8" s="2"/>
-      <c r="RI8" s="2"/>
-      <c r="RJ8" s="2"/>
+        <v>2602397.4</v>
+      </c>
+      <c r="RH8" s="2">
+        <v>2666074</v>
+      </c>
+      <c r="RI8" s="2">
+        <v>2638810</v>
+      </c>
+      <c r="RJ8" s="2">
+        <v>2686973</v>
+      </c>
       <c r="RK8" s="2"/>
       <c r="RL8" s="2"/>
       <c r="RM8" s="2"/>
@@ -12922,11 +12964,17 @@
         <v>2669576</v>
       </c>
       <c r="RG9" s="2">
-        <v>2714525</v>
-      </c>
-      <c r="RH9" s="2"/>
-      <c r="RI9" s="2"/>
-      <c r="RJ9" s="2"/>
+        <v>2714524.61</v>
+      </c>
+      <c r="RH9" s="2">
+        <v>2789026</v>
+      </c>
+      <c r="RI9" s="2">
+        <v>2742607</v>
+      </c>
+      <c r="RJ9" s="2">
+        <v>2795486</v>
+      </c>
       <c r="RK9" s="2"/>
       <c r="RL9" s="2"/>
       <c r="RM9" s="2"/>
@@ -13805,9 +13853,15 @@
       <c r="RG10" s="2">
         <v>345107</v>
       </c>
-      <c r="RH10" s="2"/>
-      <c r="RI10" s="2"/>
-      <c r="RJ10" s="2"/>
+      <c r="RH10" s="2">
+        <v>352970</v>
+      </c>
+      <c r="RI10" s="2">
+        <v>346457</v>
+      </c>
+      <c r="RJ10" s="2">
+        <v>346628</v>
+      </c>
       <c r="RK10" s="2"/>
       <c r="RL10" s="2"/>
       <c r="RM10" s="2"/>
@@ -14686,9 +14740,15 @@
       <c r="RG11" s="2">
         <v>254472</v>
       </c>
-      <c r="RH11" s="2"/>
-      <c r="RI11" s="2"/>
-      <c r="RJ11" s="2"/>
+      <c r="RH11" s="2">
+        <v>261996</v>
+      </c>
+      <c r="RI11" s="2">
+        <v>256175</v>
+      </c>
+      <c r="RJ11" s="2">
+        <v>256172</v>
+      </c>
       <c r="RK11" s="2"/>
       <c r="RL11" s="2"/>
       <c r="RM11" s="2"/>
@@ -15567,9 +15627,15 @@
       <c r="RG12" s="2">
         <v>90635</v>
       </c>
-      <c r="RH12" s="2"/>
-      <c r="RI12" s="2"/>
-      <c r="RJ12" s="2"/>
+      <c r="RH12" s="2">
+        <v>90974</v>
+      </c>
+      <c r="RI12" s="2">
+        <v>90282</v>
+      </c>
+      <c r="RJ12" s="2">
+        <v>90456</v>
+      </c>
       <c r="RK12" s="2"/>
       <c r="RL12" s="2"/>
       <c r="RM12" s="2"/>
@@ -17000,9 +17066,15 @@
       <c r="RG13" s="2">
         <v>57420</v>
       </c>
-      <c r="RH13" s="2"/>
-      <c r="RI13" s="2"/>
-      <c r="RJ13" s="2"/>
+      <c r="RH13" s="2">
+        <v>106219</v>
+      </c>
+      <c r="RI13" s="2">
+        <v>63105</v>
+      </c>
+      <c r="RJ13" s="2">
+        <v>81704</v>
+      </c>
       <c r="RK13" s="2"/>
       <c r="RL13" s="2"/>
       <c r="RM13" s="2"/>
@@ -18433,9 +18505,15 @@
       <c r="RG14" s="2">
         <v>7721</v>
       </c>
-      <c r="RH14" s="2"/>
-      <c r="RI14" s="2"/>
-      <c r="RJ14" s="2"/>
+      <c r="RH14" s="2">
+        <v>1836</v>
+      </c>
+      <c r="RI14" s="2">
+        <v>601615</v>
+      </c>
+      <c r="RJ14" s="2">
+        <v>246188</v>
+      </c>
       <c r="RK14" s="2"/>
       <c r="RL14" s="2"/>
       <c r="RM14" s="2"/>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773198EF-469E-4E0A-B916-9948C95758D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856363AB-6014-42F1-88AC-C7638B829766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13155" yWindow="1785" windowWidth="14715" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
     <sheet name="annual" sheetId="2" r:id="rId2"/>
-    <sheet name="metadata" sheetId="3" r:id="rId3"/>
+    <sheet name="annual_bspreport" sheetId="4" r:id="rId3"/>
+    <sheet name="metadata" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="532">
   <si>
     <t>Particulars</t>
   </si>
@@ -1601,17 +1602,54 @@
   </si>
   <si>
     <t>December 2025</t>
+  </si>
+  <si>
+    <t>https://pre.econ.upd.edu.ph/index.php/pre/article/view/645/4</t>
+  </si>
+  <si>
+    <t>Forex Rate Used</t>
+  </si>
+  <si>
+    <t>Public Debt Outstanding</t>
+  </si>
+  <si>
+    <t>Internal Debt</t>
+  </si>
+  <si>
+    <t>NG Internal Debt</t>
+  </si>
+  <si>
+    <t>NG External Debt</t>
+  </si>
+  <si>
+    <t>External Debt in USD</t>
+  </si>
+  <si>
+    <t>NG External Debt in USD</t>
+  </si>
+  <si>
+    <t>Annual Data from BSP Reports</t>
+  </si>
+  <si>
+    <t>CBP Reports 1965-1986; PSY 1977</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1655,6 +1693,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1681,22 +1740,29 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1928,17 +1994,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:RM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="RA2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="RB15" sqref="RB15"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="481" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18530,14 +18596,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AV5" sqref="AV5"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AX7" sqref="AX7"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18699,704 +18765,1386 @@
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>458</v>
-      </c>
-      <c r="B2" s="2">
-        <v>26887</v>
-      </c>
-      <c r="C2" s="2">
-        <v>34249</v>
-      </c>
-      <c r="D2" s="2">
-        <v>41546</v>
-      </c>
-      <c r="E2" s="2">
-        <v>54547</v>
-      </c>
-      <c r="F2" s="2">
-        <v>67552</v>
-      </c>
-      <c r="G2" s="2">
-        <v>84074</v>
-      </c>
-      <c r="H2" s="2">
-        <v>117671</v>
-      </c>
-      <c r="I2" s="2">
-        <v>199155</v>
-      </c>
-      <c r="J2" s="2">
-        <v>278549</v>
-      </c>
-      <c r="K2" s="2">
-        <v>149837</v>
+      <c r="A2" s="11" t="s">
+        <v>457</v>
       </c>
       <c r="L2" s="2">
-        <v>395509</v>
+        <v>528347</v>
       </c>
       <c r="M2" s="2">
-        <v>442536</v>
+        <v>566447</v>
       </c>
       <c r="N2" s="2">
-        <v>472801</v>
+        <v>580682</v>
       </c>
       <c r="O2" s="2">
-        <v>507586</v>
+        <v>605106</v>
       </c>
       <c r="P2" s="2">
-        <v>600205</v>
+        <v>701129</v>
       </c>
       <c r="Q2" s="2">
-        <v>672788</v>
+        <v>768469</v>
       </c>
       <c r="R2" s="2">
-        <v>870814</v>
+        <v>976387</v>
       </c>
       <c r="S2" s="2">
-        <v>1125892</v>
+        <v>1268768</v>
       </c>
       <c r="T2" s="2">
-        <v>1081155</v>
+        <v>1227472</v>
       </c>
       <c r="U2" s="2">
-        <v>1158622</v>
+        <v>1325539</v>
       </c>
       <c r="V2" s="2">
-        <v>1155237</v>
+        <v>1331848</v>
       </c>
       <c r="W2" s="2">
-        <v>1350574</v>
+        <v>1624000</v>
       </c>
       <c r="X2" s="2">
-        <v>1496222</v>
+        <v>1800413</v>
       </c>
       <c r="Y2" s="2">
-        <v>1775356</v>
+        <v>2142220</v>
       </c>
       <c r="Z2" s="2">
-        <v>2166710</v>
+        <v>2648808</v>
       </c>
       <c r="AA2" s="2">
-        <v>2384917</v>
+        <v>2880695</v>
       </c>
       <c r="AB2" s="2">
-        <v>2815468</v>
+        <v>3407206</v>
       </c>
       <c r="AC2" s="2">
-        <v>3355108</v>
+        <v>4063647</v>
       </c>
       <c r="AD2" s="2">
-        <v>3811954</v>
+        <v>4645662</v>
       </c>
       <c r="AE2" s="2">
-        <v>3888231</v>
+        <v>4474581</v>
       </c>
       <c r="AF2" s="2">
-        <v>3851506</v>
+        <v>4421433</v>
       </c>
       <c r="AG2" s="2">
-        <v>3712487</v>
+        <v>4196671</v>
       </c>
       <c r="AH2" s="2">
-        <v>4220903</v>
+        <v>4766480</v>
       </c>
       <c r="AI2" s="2">
-        <v>4396640</v>
+        <v>5010773</v>
       </c>
       <c r="AJ2" s="2">
-        <v>4718171</v>
+        <v>5267979</v>
       </c>
       <c r="AK2" s="2">
-        <v>4951188</v>
+        <v>5524560</v>
       </c>
       <c r="AL2" s="2">
-        <v>5437104</v>
+        <v>6069250</v>
       </c>
       <c r="AM2" s="2">
-        <v>5681153</v>
+        <v>6278979</v>
       </c>
       <c r="AN2" s="2">
-        <v>5735242</v>
+        <v>6286314</v>
       </c>
       <c r="AO2" s="2">
-        <v>5954537</v>
+        <v>6499629</v>
       </c>
       <c r="AP2" s="2">
-        <v>6090262</v>
+        <v>6603935</v>
       </c>
       <c r="AQ2" s="2">
-        <v>6652430</v>
+        <v>7130543</v>
       </c>
       <c r="AR2" s="2">
-        <v>7292500</v>
+        <v>7780086</v>
       </c>
       <c r="AS2" s="2">
-        <v>7731290</v>
+        <v>8220036</v>
       </c>
       <c r="AT2" s="2">
-        <v>9795006</v>
+        <v>10253354</v>
       </c>
       <c r="AU2" s="2">
-        <v>11728549</v>
+        <v>12152466</v>
       </c>
       <c r="AV2" s="2">
-        <v>13418860</v>
+        <v>13817906</v>
       </c>
       <c r="AW2" s="2">
-        <v>14616266.76</v>
+        <v>14965707</v>
       </c>
       <c r="AX2" s="2">
-        <v>16051302</v>
+        <v>16397961</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B3" s="2">
-        <v>15047</v>
+        <v>26887</v>
       </c>
       <c r="C3" s="2">
-        <v>17792</v>
+        <v>34249</v>
       </c>
       <c r="D3" s="2">
-        <v>20777</v>
+        <v>41546</v>
       </c>
       <c r="E3" s="2">
-        <v>22461</v>
+        <v>54547</v>
       </c>
       <c r="F3" s="2">
-        <v>26290</v>
+        <v>67552</v>
       </c>
       <c r="G3" s="2">
-        <v>33779</v>
+        <v>84074</v>
       </c>
       <c r="H3" s="2">
-        <v>44106</v>
+        <v>117671</v>
       </c>
       <c r="I3" s="2">
-        <v>52800</v>
+        <v>199155</v>
       </c>
       <c r="J3" s="2">
-        <v>73529</v>
+        <v>278549</v>
       </c>
       <c r="K3" s="2">
-        <v>88368</v>
+        <v>149837</v>
       </c>
       <c r="L3" s="2">
-        <v>210427</v>
+        <v>395509</v>
       </c>
       <c r="M3" s="2">
-        <v>229542</v>
+        <v>442536</v>
       </c>
       <c r="N3" s="2">
-        <v>264427</v>
+        <v>472801</v>
       </c>
       <c r="O3" s="2">
-        <v>287606</v>
+        <v>507586</v>
       </c>
       <c r="P3" s="2">
-        <v>300441</v>
+        <v>600205</v>
       </c>
       <c r="Q3" s="2">
-        <v>337890</v>
+        <v>672788</v>
       </c>
       <c r="R3" s="2">
-        <v>497917</v>
+        <v>870814</v>
       </c>
       <c r="S3" s="2">
-        <v>676867</v>
+        <v>1125892</v>
       </c>
       <c r="T3" s="2">
-        <v>664978</v>
+        <v>1081155</v>
       </c>
       <c r="U3" s="2">
-        <v>718395</v>
+        <v>1158622</v>
       </c>
       <c r="V3" s="2">
-        <v>742057</v>
+        <v>1155237</v>
       </c>
       <c r="W3" s="2">
-        <v>749608</v>
+        <v>1350574</v>
       </c>
       <c r="X3" s="2">
-        <v>850931</v>
+        <v>1496222</v>
       </c>
       <c r="Y3" s="2">
-        <v>978404</v>
+        <v>1775356</v>
       </c>
       <c r="Z3" s="2">
-        <v>1068200</v>
+        <v>2166710</v>
       </c>
       <c r="AA3" s="2">
-        <v>1247683</v>
+        <v>2384917</v>
       </c>
       <c r="AB3" s="2">
-        <v>1471202</v>
+        <v>2815468</v>
       </c>
       <c r="AC3" s="2">
-        <v>1703781</v>
+        <v>3355108</v>
       </c>
       <c r="AD3" s="2">
-        <v>2001220</v>
+        <v>3811954</v>
       </c>
       <c r="AE3" s="2">
-        <v>2164293</v>
+        <v>3888231</v>
       </c>
       <c r="AF3" s="2">
-        <v>2154078</v>
+        <v>3851506</v>
       </c>
       <c r="AG3" s="2">
-        <v>2201167</v>
+        <v>3712487</v>
       </c>
       <c r="AH3" s="2">
-        <v>2414428</v>
+        <v>4220903</v>
       </c>
       <c r="AI3" s="2">
-        <v>2470040</v>
+        <v>4396640</v>
       </c>
       <c r="AJ3" s="2">
-        <v>2718202</v>
+        <v>4718171</v>
       </c>
       <c r="AK3" s="2">
-        <v>2873357</v>
+        <v>4951188</v>
       </c>
       <c r="AL3" s="2">
-        <v>3468375</v>
+        <v>5437104</v>
       </c>
       <c r="AM3" s="2">
-        <v>3733422</v>
+        <v>5681153</v>
       </c>
       <c r="AN3" s="2">
-        <v>3820603</v>
+        <v>5735242</v>
       </c>
       <c r="AO3" s="2">
-        <v>3884380</v>
+        <v>5954537</v>
       </c>
       <c r="AP3" s="2">
-        <v>3934097</v>
+        <v>6090262</v>
       </c>
       <c r="AQ3" s="2">
-        <v>4441260</v>
+        <v>6652430</v>
       </c>
       <c r="AR3" s="2">
-        <v>4776859</v>
+        <v>7292500</v>
       </c>
       <c r="AS3" s="2">
-        <v>5127600</v>
+        <v>7731290</v>
       </c>
       <c r="AT3" s="2">
-        <v>6694687</v>
+        <v>9795006</v>
       </c>
       <c r="AU3" s="2">
-        <v>8170414</v>
+        <v>11728549</v>
       </c>
       <c r="AV3" s="2">
-        <v>9208387</v>
+        <v>13418860</v>
       </c>
       <c r="AW3" s="2">
-        <v>10017930</v>
+        <v>14616266.76</v>
       </c>
       <c r="AX3" s="2">
-        <v>10930415</v>
+        <v>16051302</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B4" s="2">
-        <v>11840</v>
+        <v>15047</v>
       </c>
       <c r="C4" s="2">
-        <v>16457</v>
+        <v>17792</v>
       </c>
       <c r="D4" s="2">
-        <v>20769</v>
+        <v>20777</v>
       </c>
       <c r="E4" s="2">
-        <v>32086</v>
+        <v>22461</v>
       </c>
       <c r="F4" s="2">
-        <v>41262</v>
+        <v>26290</v>
       </c>
       <c r="G4" s="2">
-        <v>50295</v>
+        <v>33779</v>
       </c>
       <c r="H4" s="2">
-        <v>73565</v>
+        <v>44106</v>
       </c>
       <c r="I4" s="2">
-        <v>146355</v>
+        <v>52800</v>
       </c>
       <c r="J4" s="2">
-        <v>205020</v>
+        <v>73529</v>
       </c>
       <c r="K4" s="2">
-        <v>61469</v>
+        <v>88368</v>
       </c>
       <c r="L4" s="2">
-        <v>185082</v>
+        <v>210427</v>
       </c>
       <c r="M4" s="2">
-        <v>212994</v>
+        <v>229542</v>
       </c>
       <c r="N4" s="2">
-        <v>208374</v>
+        <v>264427</v>
       </c>
       <c r="O4" s="2">
-        <v>219980</v>
+        <v>287606</v>
       </c>
       <c r="P4" s="2">
-        <v>299764</v>
+        <v>300441</v>
       </c>
       <c r="Q4" s="2">
-        <v>334898</v>
+        <v>337890</v>
       </c>
       <c r="R4" s="2">
-        <v>372897</v>
+        <v>497917</v>
       </c>
       <c r="S4" s="2">
-        <v>449025</v>
+        <v>676867</v>
       </c>
       <c r="T4" s="2">
-        <v>416177</v>
+        <v>664978</v>
       </c>
       <c r="U4" s="2">
-        <v>440227</v>
+        <v>718395</v>
       </c>
       <c r="V4" s="2">
-        <v>413180</v>
+        <v>742057</v>
       </c>
       <c r="W4" s="2">
-        <v>600966</v>
+        <v>749608</v>
       </c>
       <c r="X4" s="2">
-        <v>645291</v>
+        <v>850931</v>
       </c>
       <c r="Y4" s="2">
-        <v>796952</v>
+        <v>978404</v>
       </c>
       <c r="Z4" s="2">
-        <v>1098510</v>
+        <v>1068200</v>
       </c>
       <c r="AA4" s="2">
-        <v>1137234</v>
+        <v>1247683</v>
       </c>
       <c r="AB4" s="2">
-        <v>1344266</v>
+        <v>1471202</v>
       </c>
       <c r="AC4" s="2">
-        <v>1651327</v>
+        <v>1703781</v>
       </c>
       <c r="AD4" s="2">
-        <v>1810734</v>
+        <v>2001220</v>
       </c>
       <c r="AE4" s="2">
-        <v>1723938</v>
+        <v>2164293</v>
       </c>
       <c r="AF4" s="2">
-        <v>1697428</v>
+        <v>2154078</v>
       </c>
       <c r="AG4" s="2">
-        <v>1511320</v>
+        <v>2201167</v>
       </c>
       <c r="AH4" s="2">
-        <v>1806475</v>
+        <v>2414428</v>
       </c>
       <c r="AI4" s="2">
-        <v>1926599</v>
+        <v>2470040</v>
       </c>
       <c r="AJ4" s="2">
-        <v>1999969</v>
+        <v>2718202</v>
       </c>
       <c r="AK4" s="2">
-        <v>2077831</v>
+        <v>2873357</v>
       </c>
       <c r="AL4" s="2">
-        <v>1968729</v>
+        <v>3468375</v>
       </c>
       <c r="AM4" s="2">
-        <v>1947731</v>
+        <v>3733422</v>
       </c>
       <c r="AN4" s="2">
-        <v>1914639</v>
+        <v>3820603</v>
       </c>
       <c r="AO4" s="2">
-        <v>2070157</v>
+        <v>3884380</v>
       </c>
       <c r="AP4" s="2">
-        <v>2156165</v>
+        <v>3934097</v>
       </c>
       <c r="AQ4" s="2">
-        <v>2211170</v>
+        <v>4441260</v>
       </c>
       <c r="AR4" s="2">
-        <v>2515641</v>
+        <v>4776859</v>
       </c>
       <c r="AS4" s="2">
-        <v>2603690</v>
+        <v>5127600</v>
       </c>
       <c r="AT4" s="2">
-        <v>3100319</v>
+        <v>6694687</v>
       </c>
       <c r="AU4" s="2">
-        <v>3558135</v>
+        <v>8170414</v>
       </c>
       <c r="AV4" s="2">
-        <v>4210473</v>
+        <v>9208387</v>
       </c>
       <c r="AW4" s="2">
-        <v>4598336.76</v>
+        <v>10017930</v>
       </c>
       <c r="AX4" s="2">
-        <v>5120887</v>
+        <v>10930415</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>462</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11840</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16457</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20769</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32086</v>
+      </c>
+      <c r="F5" s="2">
+        <v>41262</v>
+      </c>
+      <c r="G5" s="2">
+        <v>50295</v>
+      </c>
+      <c r="H5" s="2">
+        <v>73565</v>
+      </c>
+      <c r="I5" s="2">
+        <v>146355</v>
+      </c>
+      <c r="J5" s="2">
+        <v>205020</v>
+      </c>
+      <c r="K5" s="2">
+        <v>61469</v>
       </c>
       <c r="L5" s="2">
-        <v>21612</v>
+        <v>185082</v>
       </c>
       <c r="M5" s="2">
-        <v>36905</v>
+        <v>212994</v>
       </c>
       <c r="N5" s="2">
-        <v>45865</v>
+        <v>208374</v>
       </c>
       <c r="O5" s="2">
-        <v>54714</v>
+        <v>219980</v>
       </c>
       <c r="P5" s="2">
-        <v>71114</v>
+        <v>299764</v>
       </c>
       <c r="Q5" s="2">
-        <v>74922</v>
+        <v>334898</v>
       </c>
       <c r="R5" s="2">
-        <v>79571</v>
+        <v>372897</v>
       </c>
       <c r="S5" s="2">
-        <v>76491</v>
+        <v>449025</v>
       </c>
       <c r="T5" s="2">
-        <v>79123</v>
+        <v>416177</v>
       </c>
       <c r="U5" s="2">
-        <v>72658</v>
+        <v>440227</v>
       </c>
       <c r="V5" s="2">
-        <v>76522</v>
+        <v>413180</v>
       </c>
       <c r="W5" s="2">
-        <v>77971</v>
+        <v>600966</v>
       </c>
       <c r="X5" s="2">
-        <v>99792</v>
+        <v>645291</v>
       </c>
       <c r="Y5" s="2">
-        <v>106290</v>
+        <v>796952</v>
       </c>
       <c r="Z5" s="2">
-        <v>140894</v>
+        <v>1098510</v>
       </c>
       <c r="AA5" s="2">
-        <v>174834</v>
+        <v>1137234</v>
       </c>
       <c r="AB5" s="2">
-        <v>185861</v>
+        <v>1344266</v>
       </c>
       <c r="AC5" s="2">
-        <v>226408</v>
+        <v>1651327</v>
       </c>
       <c r="AD5" s="2">
-        <v>260901</v>
+        <v>1810734</v>
       </c>
       <c r="AE5" s="2">
-        <v>299807</v>
+        <v>1723938</v>
       </c>
       <c r="AF5" s="2">
-        <v>310108</v>
+        <v>1697428</v>
       </c>
       <c r="AG5" s="2">
-        <v>267800</v>
+        <v>1511320</v>
       </c>
       <c r="AH5" s="2">
-        <v>272218</v>
+        <v>1806475</v>
       </c>
       <c r="AI5" s="2">
-        <v>278866</v>
+        <v>1926599</v>
       </c>
       <c r="AJ5" s="2">
-        <v>294244</v>
+        <v>1999969</v>
       </c>
       <c r="AK5" s="2">
-        <v>278996</v>
+        <v>2077831</v>
       </c>
       <c r="AL5" s="2">
-        <v>312799</v>
+        <v>1968729</v>
       </c>
       <c r="AM5" s="2">
-        <v>323434</v>
+        <v>1947731</v>
       </c>
       <c r="AN5" s="2">
-        <v>321185</v>
+        <v>1914639</v>
       </c>
       <c r="AO5" s="2">
-        <v>309364</v>
+        <v>2070157</v>
       </c>
       <c r="AP5" s="2">
-        <v>304454</v>
+        <v>2156165</v>
       </c>
       <c r="AQ5" s="2">
-        <v>310540.82</v>
+        <v>2211170</v>
       </c>
       <c r="AR5" s="2">
-        <v>349215</v>
+        <v>2515641</v>
       </c>
       <c r="AS5" s="2">
-        <v>360874</v>
+        <v>2603690</v>
       </c>
       <c r="AT5" s="2">
-        <v>380412.17</v>
+        <v>3100319</v>
       </c>
       <c r="AU5" s="2">
-        <v>429432</v>
+        <v>3558135</v>
       </c>
       <c r="AV5" s="2">
-        <v>502858</v>
+        <v>4210473</v>
       </c>
       <c r="AW5" s="2">
-        <v>628333</v>
+        <v>4598336.76</v>
       </c>
       <c r="AX5" s="2">
-        <v>763313</v>
+        <v>5120887</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>132838</v>
+      </c>
+      <c r="M6" s="2">
+        <v>123911</v>
+      </c>
+      <c r="N6" s="2">
+        <v>107881</v>
+      </c>
+      <c r="O6" s="2">
+        <v>97520</v>
+      </c>
+      <c r="P6" s="2">
+        <v>100924</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>95681</v>
+      </c>
+      <c r="R6" s="2">
+        <v>105573</v>
+      </c>
+      <c r="S6" s="2">
+        <v>142875</v>
+      </c>
+      <c r="T6" s="2">
+        <v>146317</v>
+      </c>
+      <c r="U6" s="2">
+        <v>166917</v>
+      </c>
+      <c r="V6" s="2">
+        <v>176611</v>
+      </c>
+      <c r="W6" s="2">
+        <v>273426</v>
+      </c>
+      <c r="X6" s="2">
+        <v>304192</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>366864</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>482098</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>495777</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>591738</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>708539</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>833708</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>586350</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>569927</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>484184</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>545577</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>614133</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>549808</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>573372</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>632146</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>597826</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>551072</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>545092</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>513673</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>478113</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>487586</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>488746</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>458348</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>423917</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>399046</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>349440</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>346659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>17517</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10283</v>
+      </c>
+      <c r="N7" s="2">
+        <v>8762</v>
+      </c>
+      <c r="O7" s="2">
+        <v>6759</v>
+      </c>
+      <c r="P7" s="2">
+        <v>4422</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4669</v>
+      </c>
+      <c r="R7" s="2">
+        <v>5023</v>
+      </c>
+      <c r="S7" s="2">
+        <v>5207</v>
+      </c>
+      <c r="T7" s="2">
+        <v>5585</v>
+      </c>
+      <c r="U7" s="2">
+        <v>6218</v>
+      </c>
+      <c r="V7" s="2">
+        <v>6229</v>
+      </c>
+      <c r="W7" s="2">
+        <v>7646</v>
+      </c>
+      <c r="X7" s="2">
+        <v>8677</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>8320</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>12451</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>23167</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>21065</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>22635</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>33135</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>48183</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>72113</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>64968</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>72905</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>79519</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>100448</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>157587</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>274264</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>258448</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>242937</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>245572</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>233369</v>
+      </c>
+      <c r="AQ7" s="2">
+        <v>197517</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>197537</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>260764</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>254423</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>195075</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>205765</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>181760</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>255506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <v>115321</v>
+      </c>
+      <c r="M8" s="2">
+        <v>113628</v>
+      </c>
+      <c r="N8" s="2">
+        <v>99119</v>
+      </c>
+      <c r="O8" s="2">
+        <v>90761</v>
+      </c>
+      <c r="P8" s="2">
+        <v>96502</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>91012</v>
+      </c>
+      <c r="R8" s="2">
+        <v>100550</v>
+      </c>
+      <c r="S8" s="2">
+        <v>137668</v>
+      </c>
+      <c r="T8" s="2">
+        <v>140732</v>
+      </c>
+      <c r="U8" s="2">
+        <v>160699</v>
+      </c>
+      <c r="V8" s="2">
+        <v>170382</v>
+      </c>
+      <c r="W8" s="2">
+        <v>265780</v>
+      </c>
+      <c r="X8" s="2">
+        <v>295515</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>358544</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>469647</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>472610</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>570673</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>685904</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>800573</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>538167</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>497814</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>419216</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>472672</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>534614</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>449360</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>415785</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>357882</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>339378</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>308135</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>299520</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>280304</v>
+      </c>
+      <c r="AQ8" s="2">
+        <v>280596</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>290049</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>227982</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>203925</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>228842</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>193281</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>167680</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>91153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>504</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1841</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2296</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2429</v>
+      </c>
+      <c r="H9" s="12">
+        <v>3560</v>
+      </c>
+      <c r="I9" s="12">
+        <v>4997</v>
+      </c>
+      <c r="J9" s="12">
+        <v>10409</v>
+      </c>
+      <c r="K9" s="12">
+        <v>14652</v>
+      </c>
+      <c r="L9" s="2">
+        <v>21612</v>
+      </c>
+      <c r="M9" s="2">
+        <v>36905</v>
+      </c>
+      <c r="N9" s="2">
+        <v>45865</v>
+      </c>
+      <c r="O9" s="2">
+        <v>54714</v>
+      </c>
+      <c r="P9" s="2">
+        <v>71114</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>74922</v>
+      </c>
+      <c r="R9" s="2">
+        <v>79571</v>
+      </c>
+      <c r="S9" s="2">
+        <v>76491</v>
+      </c>
+      <c r="T9" s="2">
+        <v>79123</v>
+      </c>
+      <c r="U9" s="2">
+        <v>72658</v>
+      </c>
+      <c r="V9" s="2">
+        <v>76522</v>
+      </c>
+      <c r="W9" s="2">
+        <v>77971</v>
+      </c>
+      <c r="X9" s="2">
+        <v>99792</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>106290</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>140894</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>174834</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>185861</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>226408</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>260901</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>299807</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>310108</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>267800</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>272218</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>278866</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>294244</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>278996</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>312799</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>323434</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>321185</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>309364</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>304454</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>310540.82</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>349215</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>360874</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>380412.17</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>429432</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>502858</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>628333</v>
+      </c>
+      <c r="AX9" s="2">
+        <v>763313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>505</v>
       </c>
-      <c r="L6" s="2">
+      <c r="G10" s="10">
+        <v>1468</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1332</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3451</v>
+      </c>
+      <c r="J10" s="10">
+        <v>4473</v>
+      </c>
+      <c r="K10" s="10">
+        <v>6951</v>
+      </c>
+      <c r="L10" s="2">
         <v>13201</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M10" s="2">
         <v>32920</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N10" s="2">
         <v>25299</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O10" s="2">
         <v>28503</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P10" s="2">
         <v>35232</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q10" s="2">
         <v>46560</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R10" s="2">
         <v>29651</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S10" s="2">
         <v>36887</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T10" s="2">
         <v>38844</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U10" s="2">
         <v>64517</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V10" s="2">
         <v>41220</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W10" s="2">
         <v>47678</v>
       </c>
-      <c r="X6" s="2">
+      <c r="X10" s="2">
         <v>64717</v>
       </c>
-      <c r="Y6" s="2">
+      <c r="Y10" s="2">
         <v>99106</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z10" s="2">
         <v>86949</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA10" s="2">
         <v>99605</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB10" s="2">
         <v>172098</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC10" s="2">
         <v>243582</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD10" s="2">
         <v>190895</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE10" s="2">
         <v>357587</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF10" s="2">
         <v>529884</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG10" s="2">
         <v>342340</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH10" s="2">
         <v>291801</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI10" s="2">
         <v>500437</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ10" s="2">
         <v>644978</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK10" s="2">
         <v>651573</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL10" s="2">
         <v>286443</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM10" s="2">
         <v>375087.6</v>
       </c>
-      <c r="AN6" s="2">
+      <c r="AN10" s="2">
         <v>434362</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AO10" s="2">
         <v>487895</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="AP10" s="2">
         <v>485511</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AQ10" s="2">
         <v>369925.58</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR10" s="2">
         <v>376374</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS10" s="2">
         <v>481575</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT10" s="2">
         <v>582054</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AU10" s="2">
         <v>774637</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AV10" s="2">
         <v>790323</v>
       </c>
-      <c r="AW6" s="2">
+      <c r="AW10" s="2">
         <v>975278</v>
       </c>
-      <c r="AX6" s="2">
+      <c r="AX10" s="2">
         <v>1257329</v>
       </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="L11">
+        <v>20.53</v>
+      </c>
+      <c r="M11">
+        <v>20.8</v>
+      </c>
+      <c r="N11">
+        <v>21.335000000000001</v>
+      </c>
+      <c r="O11">
+        <v>22.44</v>
+      </c>
+      <c r="P11">
+        <v>28.125</v>
+      </c>
+      <c r="Q11">
+        <v>26.35</v>
+      </c>
+      <c r="R11">
+        <v>25.096</v>
+      </c>
+      <c r="S11">
+        <v>27.699000000000002</v>
+      </c>
+      <c r="T11">
+        <v>24.417999999999999</v>
+      </c>
+      <c r="U11">
+        <v>26.213999999999999</v>
+      </c>
+      <c r="V11">
+        <v>26.288</v>
+      </c>
+      <c r="W11">
+        <v>39.975000000000001</v>
+      </c>
+      <c r="X11">
+        <v>39.049999999999997</v>
+      </c>
+      <c r="Y11">
+        <v>40.25</v>
+      </c>
+      <c r="Z11">
+        <v>49.95</v>
+      </c>
+      <c r="AA11">
+        <v>51.5</v>
+      </c>
+      <c r="AB11">
+        <v>53.05</v>
+      </c>
+      <c r="AC11">
+        <v>55.55</v>
+      </c>
+      <c r="AD11">
+        <v>56.25</v>
+      </c>
+      <c r="AE11">
+        <v>53.1</v>
+      </c>
+      <c r="AF11">
+        <v>49.1</v>
+      </c>
+      <c r="AG11">
+        <v>41.6</v>
+      </c>
+      <c r="AH11">
+        <v>47.4</v>
+      </c>
+      <c r="AI11">
+        <v>46.35</v>
+      </c>
+      <c r="AJ11">
+        <v>43.85</v>
+      </c>
+      <c r="AK11">
+        <v>43.95</v>
+      </c>
+      <c r="AL11">
+        <v>41.1</v>
+      </c>
+      <c r="AM11">
+        <v>44.45</v>
+      </c>
+      <c r="AN11">
+        <v>44.7</v>
+      </c>
+      <c r="AO11">
+        <v>47.15</v>
+      </c>
+      <c r="AP11">
+        <v>49.768999999999998</v>
+      </c>
+      <c r="AQ11">
+        <v>49.957999999999998</v>
+      </c>
+      <c r="AR11">
+        <v>52.563000000000002</v>
+      </c>
+      <c r="AS11">
+        <v>50.802</v>
+      </c>
+      <c r="AT11">
+        <v>48.021000000000001</v>
+      </c>
+      <c r="AU11">
+        <v>50.973999999999997</v>
+      </c>
+      <c r="AV11">
+        <v>55.814999999999998</v>
+      </c>
+      <c r="AW11">
+        <v>55.417999999999999</v>
+      </c>
+      <c r="AX11">
+        <v>57.847000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AI13" s="2"/>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AI14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19405,11 +20153,746 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E977C4-C73B-4C14-ACB9-2AB5017473FB}">
+  <dimension ref="A1:Z9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="61" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1965</v>
+      </c>
+      <c r="C1">
+        <v>1966</v>
+      </c>
+      <c r="D1">
+        <v>1967</v>
+      </c>
+      <c r="E1">
+        <v>1968</v>
+      </c>
+      <c r="F1">
+        <v>1969</v>
+      </c>
+      <c r="G1">
+        <v>1970</v>
+      </c>
+      <c r="H1">
+        <v>1971</v>
+      </c>
+      <c r="I1">
+        <v>1972</v>
+      </c>
+      <c r="J1">
+        <v>1973</v>
+      </c>
+      <c r="K1">
+        <v>1974</v>
+      </c>
+      <c r="L1">
+        <v>1975</v>
+      </c>
+      <c r="M1">
+        <v>1976</v>
+      </c>
+      <c r="N1">
+        <v>1977</v>
+      </c>
+      <c r="O1">
+        <v>1978</v>
+      </c>
+      <c r="P1">
+        <v>1979</v>
+      </c>
+      <c r="Q1">
+        <v>1980</v>
+      </c>
+      <c r="R1">
+        <v>1981</v>
+      </c>
+      <c r="S1">
+        <v>1982</v>
+      </c>
+      <c r="T1">
+        <v>1983</v>
+      </c>
+      <c r="U1">
+        <v>1984</v>
+      </c>
+      <c r="V1">
+        <v>1985</v>
+      </c>
+      <c r="W1">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B2" s="2">
+        <f t="shared" ref="B2" si="0">B3+B5</f>
+        <v>4979.6103000000003</v>
+      </c>
+      <c r="C2" s="2">
+        <f t="shared" ref="C2" si="1">C3+C5</f>
+        <v>5525.1126000000004</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" ref="D2" si="2">D3+D5</f>
+        <v>6799.0828799999999</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2" si="3">E3+E5</f>
+        <v>7483.8988799999997</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2" si="4">F3+F5</f>
+        <v>9328.7444799999994</v>
+      </c>
+      <c r="G2" s="2">
+        <f t="shared" ref="G2" si="5">G3+G5</f>
+        <v>12581.412960000001</v>
+      </c>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2" si="6">H3+H5</f>
+        <v>13871.618449999998</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2" si="7">I3+I5</f>
+        <v>17514.637999999999</v>
+      </c>
+      <c r="J2" s="2">
+        <f t="shared" ref="J2" si="8">J3+J5</f>
+        <v>20813.824000000001</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2" si="9">K3+K5</f>
+        <v>27239.454000000002</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" ref="L2" si="10">L3+L5</f>
+        <v>37032.824999999997</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" ref="M2" si="11">M3+M5</f>
+        <v>48020.495999999999</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" ref="N2:U2" si="12">N3+N5</f>
+        <v>56045</v>
+      </c>
+      <c r="O2" s="2">
+        <f t="shared" si="12"/>
+        <v>72274.2</v>
+      </c>
+      <c r="P2" s="2">
+        <f t="shared" si="12"/>
+        <v>84981</v>
+      </c>
+      <c r="Q2" s="2">
+        <f t="shared" si="12"/>
+        <v>105875.6</v>
+      </c>
+      <c r="R2" s="2">
+        <f t="shared" si="12"/>
+        <v>141255.5</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" si="12"/>
+        <v>174238.40000000002</v>
+      </c>
+      <c r="T2" s="2">
+        <f t="shared" si="12"/>
+        <v>271036.79999999999</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" si="12"/>
+        <v>408036</v>
+      </c>
+      <c r="V2" s="2">
+        <f>V3+V5</f>
+        <v>407064</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" ref="W2" si="13">W3+W5</f>
+        <v>465254</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3138.9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3519.6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4149.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4575.3999999999996</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5838.4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>6313.1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>6956.7</v>
+      </c>
+      <c r="I3" s="10">
+        <v>9701.4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>12533.5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>16629.400000000001</v>
+      </c>
+      <c r="L3" s="2">
+        <v>20838.5</v>
+      </c>
+      <c r="M3" s="2">
+        <v>23294.400000000001</v>
+      </c>
+      <c r="N3" s="2">
+        <v>27364.7</v>
+      </c>
+      <c r="O3" s="2">
+        <v>32470.2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>36826.6</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>41181.599999999999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>49338.8</v>
+      </c>
+      <c r="S3" s="2">
+        <v>59338.3</v>
+      </c>
+      <c r="T3" s="2">
+        <v>62743</v>
+      </c>
+      <c r="U3" s="2">
+        <v>86077</v>
+      </c>
+      <c r="V3" s="2">
+        <v>117667</v>
+      </c>
+      <c r="W3" s="2">
+        <v>144351</v>
+      </c>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2938.5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2050.1999999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2490.4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4190.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3541.8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3961.8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4130.5</v>
+      </c>
+      <c r="I4" s="10">
+        <v>5607.8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>7294.2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9395.5</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10991.1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>12642.1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>14783.8</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17838.8</v>
+      </c>
+      <c r="P4" s="2">
+        <v>19086.599999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>21875.5</v>
+      </c>
+      <c r="R4" s="2">
+        <v>28657.1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>37118.5</v>
+      </c>
+      <c r="T4" s="2">
+        <v>43479.9</v>
+      </c>
+      <c r="U4" s="2">
+        <v>59666</v>
+      </c>
+      <c r="V4" s="2">
+        <v>77353</v>
+      </c>
+      <c r="W4" s="2">
+        <v>108085</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" ref="B5:L5" si="14">B7*B9</f>
+        <v>1840.7103</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="14"/>
+        <v>2005.5126</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="14"/>
+        <v>2649.5828799999999</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="14"/>
+        <v>2908.4988800000001</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="14"/>
+        <v>3490.3444799999997</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="14"/>
+        <v>6268.3129600000002</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="14"/>
+        <v>6914.9184499999992</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="14"/>
+        <v>7813.2380000000003</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="14"/>
+        <v>8280.3240000000005</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="14"/>
+        <v>10610.054</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="14"/>
+        <v>16194.324999999999</v>
+      </c>
+      <c r="M5" s="10">
+        <f>M7*M9</f>
+        <v>24726.096000000001</v>
+      </c>
+      <c r="N5" s="2">
+        <v>28680.3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>39804</v>
+      </c>
+      <c r="P5" s="2">
+        <v>48154.400000000001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>64694</v>
+      </c>
+      <c r="R5" s="2">
+        <v>91916.7</v>
+      </c>
+      <c r="S5" s="2">
+        <v>114900.1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>208293.8</v>
+      </c>
+      <c r="U5" s="2">
+        <v>321959</v>
+      </c>
+      <c r="V5" s="2">
+        <v>289397</v>
+      </c>
+      <c r="W5" s="2">
+        <v>320903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:I6" si="15">B8*B9</f>
+        <v>479.92230000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="15"/>
+        <v>670.07459999999992</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="15"/>
+        <v>744.56088</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="15"/>
+        <v>874.17175999999995</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="15"/>
+        <v>1200.21776</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="15"/>
+        <v>2105.3746000000001</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="15"/>
+        <v>2471.7948799999999</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2">
+        <f t="shared" ref="J6:M6" si="16">J8*J9</f>
+        <v>3146.7799999999997</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="16"/>
+        <v>3797.6469999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="16"/>
+        <v>5300.4750000000004</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="16"/>
+        <v>6062.1120000000001</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N6:U6" si="17">N8*N9</f>
+        <v>8509.5638871021692</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="17"/>
+        <v>12429.75</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="17"/>
+        <v>13771.104556997094</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="17"/>
+        <v>17504.363188167623</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="17"/>
+        <v>27403.766948567787</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="17"/>
+        <v>32712.974184502731</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="17"/>
+        <v>66925.374822532933</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="17"/>
+        <v>93159.984517641249</v>
+      </c>
+      <c r="V6" s="2">
+        <f>V8*V9</f>
+        <v>99186.735422788115</v>
+      </c>
+      <c r="W6" s="2">
+        <f t="shared" ref="W6" si="18">W8*W9</f>
+        <v>110025.05825180637</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B7" s="2">
+        <v>471.97699999999998</v>
+      </c>
+      <c r="C7" s="2">
+        <v>514.23400000000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>675.91399999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>741.96400000000006</v>
+      </c>
+      <c r="F7" s="2">
+        <v>890.39400000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1041.248</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1075.415</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1171.4000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1224.9000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1562.6</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2233.6999999999998</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3323.4</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3886.7</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5307.2</v>
+      </c>
+      <c r="P7" s="2">
+        <v>6497.7</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>8519</v>
+      </c>
+      <c r="R7" s="2">
+        <v>11304.2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>13301.7</v>
+      </c>
+      <c r="T7" s="2">
+        <v>14876</v>
+      </c>
+      <c r="U7" s="2">
+        <v>16212</v>
+      </c>
+      <c r="V7" s="2">
+        <v>15315</v>
+      </c>
+      <c r="W7" s="2">
+        <v>15639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B8" s="2">
+        <v>123.057</v>
+      </c>
+      <c r="C8" s="2">
+        <v>171.81399999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>189.93899999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>223.00299999999999</v>
+      </c>
+      <c r="F8" s="2">
+        <v>306.178</v>
+      </c>
+      <c r="G8" s="2">
+        <v>349.73</v>
+      </c>
+      <c r="H8" s="2">
+        <v>384.416</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2">
+        <v>465.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>559.29999999999995</v>
+      </c>
+      <c r="L8" s="2">
+        <v>731.1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>814.8</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1153.2</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1657.3</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1858.2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>2305</v>
+      </c>
+      <c r="R8" s="2">
+        <v>3370.2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3787.1</v>
+      </c>
+      <c r="T8" s="14">
+        <v>4779.7</v>
+      </c>
+      <c r="U8" s="14">
+        <v>4691</v>
+      </c>
+      <c r="V8" s="2">
+        <v>5249</v>
+      </c>
+      <c r="W8" s="2">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3.92</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3.92</v>
+      </c>
+      <c r="F9" s="16">
+        <v>3.92</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6.02</v>
+      </c>
+      <c r="H9" s="16">
+        <v>6.43</v>
+      </c>
+      <c r="I9" s="16">
+        <v>6.67</v>
+      </c>
+      <c r="J9" s="16">
+        <v>6.76</v>
+      </c>
+      <c r="K9" s="16">
+        <v>6.79</v>
+      </c>
+      <c r="L9" s="16">
+        <v>7.25</v>
+      </c>
+      <c r="M9" s="16">
+        <v>7.44</v>
+      </c>
+      <c r="N9" s="13">
+        <f t="shared" ref="N9:U9" si="19">N5/N7</f>
+        <v>7.3790876579103095</v>
+      </c>
+      <c r="O9" s="13">
+        <f t="shared" si="19"/>
+        <v>7.5</v>
+      </c>
+      <c r="P9" s="13">
+        <f t="shared" si="19"/>
+        <v>7.4109915816365799</v>
+      </c>
+      <c r="Q9" s="13">
+        <f t="shared" si="19"/>
+        <v>7.5940838126540671</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="19"/>
+        <v>8.1311990233718436</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="19"/>
+        <v>8.6380011577467535</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="19"/>
+        <v>14.002003226673835</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="19"/>
+        <v>19.859301751788799</v>
+      </c>
+      <c r="V9" s="13">
+        <f>V5/V7</f>
+        <v>18.896310806398954</v>
+      </c>
+      <c r="W9" s="13">
+        <f t="shared" ref="W9" si="20">W5/W7</f>
+        <v>20.519406611675937</v>
+      </c>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19462,104 +20945,102 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="B7" t="s">
-        <v>479</v>
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B11" t="s">
-        <v>506</v>
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>485</v>
+      <c r="A14" s="3" t="s">
+        <v>484</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>487</v>
+      <c r="A16" t="s">
+        <v>486</v>
       </c>
       <c r="B16" t="s">
-        <v>491</v>
+        <v>508</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>485</v>
+      <c r="A17" s="3" t="s">
+        <v>487</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B18" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>488</v>
+      <c r="A19" t="s">
+        <v>486</v>
       </c>
       <c r="B19" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B20" t="s">
         <v>506</v>
@@ -19567,31 +21048,76 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B21" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>509</v>
+      <c r="A22" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B22" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>

--- a/Data/Fiscal Data/ngdebt.xlsx
+++ b/Data/Fiscal Data/ngdebt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AJ\GitHub Repositories\PH-Econ-Data\Data\Fiscal Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856363AB-6014-42F1-88AC-C7638B829766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E2643B-5041-4838-B903-678F4CA1EEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13830" yWindow="735" windowWidth="14715" windowHeight="13245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ngdebt" sheetId="1" r:id="rId1"/>
@@ -1753,9 +1753,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1763,6 +1760,9 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1994,12 +1994,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:RM19"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="QZ2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="QG2" sqref="QG2"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="RB13" sqref="RB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4336,9 +4336,15 @@
       <c r="RJ2" s="2">
         <v>17801987</v>
       </c>
-      <c r="RK2" s="2"/>
-      <c r="RL2" s="2"/>
-      <c r="RM2" s="2"/>
+      <c r="RK2" s="2">
+        <v>17906552</v>
+      </c>
+      <c r="RL2" s="2">
+        <v>18004021</v>
+      </c>
+      <c r="RM2" s="2">
+        <v>18052386</v>
+      </c>
     </row>
     <row r="3" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -5607,9 +5613,15 @@
       <c r="RJ3" s="2">
         <v>17455359</v>
       </c>
-      <c r="RK3" s="2"/>
-      <c r="RL3" s="2"/>
-      <c r="RM3" s="2"/>
+      <c r="RK3" s="2">
+        <v>17562138</v>
+      </c>
+      <c r="RL3" s="2">
+        <v>17647979</v>
+      </c>
+      <c r="RM3" s="2">
+        <v>17707814</v>
+      </c>
     </row>
     <row r="4" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6878,9 +6890,15 @@
       <c r="RJ4" s="2">
         <v>11972900</v>
       </c>
-      <c r="RK4" s="2"/>
-      <c r="RL4" s="2"/>
-      <c r="RM4" s="2"/>
+      <c r="RK4" s="2">
+        <v>12045325</v>
+      </c>
+      <c r="RL4" s="2">
+        <v>12117056</v>
+      </c>
+      <c r="RM4" s="2">
+        <v>12116253</v>
+      </c>
     </row>
     <row r="5" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8101,9 +8119,15 @@
       <c r="RJ5" s="2">
         <v>156</v>
       </c>
-      <c r="RK5" s="2"/>
-      <c r="RL5" s="2"/>
-      <c r="RM5" s="2"/>
+      <c r="RK5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RL5" s="2">
+        <v>156</v>
+      </c>
+      <c r="RM5" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="6" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -9324,9 +9348,15 @@
       <c r="RJ6" s="2">
         <v>11972744</v>
       </c>
-      <c r="RK6" s="2"/>
-      <c r="RL6" s="2"/>
-      <c r="RM6" s="2"/>
+      <c r="RK6" s="2">
+        <v>12045169</v>
+      </c>
+      <c r="RL6" s="2">
+        <v>12116900</v>
+      </c>
+      <c r="RM6" s="2">
+        <v>12116097</v>
+      </c>
     </row>
     <row r="7" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -10595,9 +10625,15 @@
       <c r="RJ7" s="2">
         <v>5482459</v>
       </c>
-      <c r="RK7" s="2"/>
-      <c r="RL7" s="2"/>
-      <c r="RM7" s="2"/>
+      <c r="RK7" s="2">
+        <v>5516813</v>
+      </c>
+      <c r="RL7" s="2">
+        <v>5530923</v>
+      </c>
+      <c r="RM7" s="2">
+        <v>5591561</v>
+      </c>
     </row>
     <row r="8" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -11818,9 +11854,15 @@
       <c r="RJ8" s="2">
         <v>2686973</v>
       </c>
-      <c r="RK8" s="2"/>
-      <c r="RL8" s="2"/>
-      <c r="RM8" s="2"/>
+      <c r="RK8" s="2">
+        <v>2698939</v>
+      </c>
+      <c r="RL8" s="2">
+        <v>2714467</v>
+      </c>
+      <c r="RM8" s="2">
+        <v>2769078</v>
+      </c>
     </row>
     <row r="9" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -13041,9 +13083,15 @@
       <c r="RJ9" s="2">
         <v>2795486</v>
       </c>
-      <c r="RK9" s="2"/>
-      <c r="RL9" s="2"/>
-      <c r="RM9" s="2"/>
+      <c r="RK9" s="2">
+        <v>2817874</v>
+      </c>
+      <c r="RL9" s="2">
+        <v>2816456</v>
+      </c>
+      <c r="RM9" s="2">
+        <v>2822483</v>
+      </c>
     </row>
     <row r="10" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -13928,9 +13976,15 @@
       <c r="RJ10" s="2">
         <v>346628</v>
       </c>
-      <c r="RK10" s="2"/>
-      <c r="RL10" s="2"/>
-      <c r="RM10" s="2"/>
+      <c r="RK10" s="2">
+        <v>344414</v>
+      </c>
+      <c r="RL10" s="2">
+        <v>356042</v>
+      </c>
+      <c r="RM10" s="2">
+        <v>344572</v>
+      </c>
     </row>
     <row r="11" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -14815,9 +14869,15 @@
       <c r="RJ11" s="2">
         <v>256172</v>
       </c>
-      <c r="RK11" s="2"/>
-      <c r="RL11" s="2"/>
-      <c r="RM11" s="2"/>
+      <c r="RK11" s="2">
+        <v>254920</v>
+      </c>
+      <c r="RL11" s="2">
+        <v>267628</v>
+      </c>
+      <c r="RM11" s="2">
+        <v>256732</v>
+      </c>
     </row>
     <row r="12" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -15702,9 +15762,15 @@
       <c r="RJ12" s="2">
         <v>90456</v>
       </c>
-      <c r="RK12" s="2"/>
-      <c r="RL12" s="2"/>
-      <c r="RM12" s="2"/>
+      <c r="RK12" s="2">
+        <v>89494</v>
+      </c>
+      <c r="RL12" s="2">
+        <v>88414</v>
+      </c>
+      <c r="RM12" s="2">
+        <v>87840</v>
+      </c>
     </row>
     <row r="13" spans="1:481" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -18596,23 +18662,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AX14"/>
+  <dimension ref="A1:AY14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AV5" sqref="AV5"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="AY11" sqref="AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="50" width="10" customWidth="1"/>
+    <col min="2" max="51" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18763,9 +18829,12 @@
       <c r="AX1">
         <v>2024</v>
       </c>
+      <c r="AY1">
+        <v>2025</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>457</v>
       </c>
       <c r="L2" s="2">
@@ -18885,8 +18954,11 @@
       <c r="AX2" s="2">
         <v>16397961</v>
       </c>
+      <c r="AY2" s="2">
+        <v>18052386</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>458</v>
       </c>
@@ -19037,8 +19109,11 @@
       <c r="AX3" s="2">
         <v>16051302</v>
       </c>
+      <c r="AY3" s="2">
+        <v>17707814</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>459</v>
       </c>
@@ -19189,8 +19264,11 @@
       <c r="AX4" s="2">
         <v>10930415</v>
       </c>
+      <c r="AY4" s="2">
+        <v>12116253</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>462</v>
       </c>
@@ -19341,8 +19419,11 @@
       <c r="AX5" s="2">
         <v>5120887</v>
       </c>
+      <c r="AY5" s="2">
+        <v>5591561</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>465</v>
       </c>
@@ -19473,8 +19554,11 @@
       <c r="AX6" s="2">
         <v>346659</v>
       </c>
+      <c r="AY6" s="2">
+        <v>344572</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -19605,8 +19689,11 @@
       <c r="AX7" s="2">
         <v>255506</v>
       </c>
+      <c r="AY7" s="2">
+        <v>256732</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -19737,30 +19824,33 @@
       <c r="AX8" s="2">
         <v>91153</v>
       </c>
+      <c r="AY8" s="2">
+        <v>87840</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>504</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>1841</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>2296</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>2429</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>3560</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>4997</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>10409</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>14652</v>
       </c>
       <c r="L9" s="2">
@@ -19880,24 +19970,25 @@
       <c r="AX9" s="2">
         <v>763313</v>
       </c>
+      <c r="AY9" s="2"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>505</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>1468</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>1332</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>3451</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>4473</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>6951</v>
       </c>
       <c r="L10" s="2">
@@ -20017,9 +20108,10 @@
       <c r="AX10" s="2">
         <v>1257329</v>
       </c>
+      <c r="AY10" s="2"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>523</v>
       </c>
       <c r="L11">
@@ -20140,10 +20232,10 @@
         <v>57.847000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AI13" s="2"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="AI14" s="2"/>
     </row>
   </sheetData>
@@ -20157,7 +20249,7 @@
   <dimension ref="A1:Z9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
@@ -20241,7 +20333,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>524</v>
       </c>
       <c r="B2" s="2">
@@ -20337,7 +20429,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>525</v>
       </c>
       <c r="B3" s="2">
@@ -20361,7 +20453,7 @@
       <c r="H3" s="2">
         <v>6956.7</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>9701.4</v>
       </c>
       <c r="J3" s="2">
@@ -20410,7 +20502,7 @@
       <c r="Y3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>526</v>
       </c>
       <c r="B4" s="2">
@@ -20434,7 +20526,7 @@
       <c r="H4" s="2">
         <v>4130.5</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>5607.8</v>
       </c>
       <c r="J4" s="2">
@@ -20483,54 +20575,54 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <f t="shared" ref="B5:L5" si="14">B7*B9</f>
         <v>1840.7103</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <f t="shared" si="14"/>
         <v>2005.5126</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f t="shared" si="14"/>
         <v>2649.5828799999999</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f t="shared" si="14"/>
         <v>2908.4988800000001</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <f t="shared" si="14"/>
         <v>3490.3444799999997</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <f t="shared" si="14"/>
         <v>6268.3129600000002</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" si="14"/>
         <v>6914.9184499999992</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f t="shared" si="14"/>
         <v>7813.2380000000003</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="14"/>
         <v>8280.3240000000005</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <f t="shared" si="14"/>
         <v>10610.054</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="9">
         <f t="shared" si="14"/>
         <v>16194.324999999999</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <f>M7*M9</f>
         <v>24726.096000000001</v>
       </c>
@@ -20566,11 +20658,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>527</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ref="B6:I6" si="15">B8*B9</f>
+        <f t="shared" ref="B6:H6" si="15">B8*B9</f>
         <v>479.92230000000001</v>
       </c>
       <c r="C6" s="2">
@@ -20659,7 +20751,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>528</v>
       </c>
       <c r="B7" s="2">
@@ -20683,7 +20775,7 @@
       <c r="H7" s="2">
         <v>1075.415</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>1171.4000000000001</v>
       </c>
       <c r="J7" s="2">
@@ -20730,7 +20822,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>529</v>
       </c>
       <c r="B8" s="2">
@@ -20785,10 +20877,10 @@
       <c r="S8" s="2">
         <v>3787.1</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="13">
         <v>4779.7</v>
       </c>
-      <c r="U8" s="14">
+      <c r="U8" s="13">
         <v>4691</v>
       </c>
       <c r="V8" s="2">
@@ -20799,88 +20891,88 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>3.9</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>3.9</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>3.92</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>3.92</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>3.92</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>6.02</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>6.43</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>6.67</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>6.76</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="15">
         <v>6.79</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="15">
         <v>7.25</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="15">
         <v>7.44</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="12">
         <f t="shared" ref="N9:U9" si="19">N5/N7</f>
         <v>7.3790876579103095</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="12">
         <f t="shared" si="19"/>
         <v>7.5</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="12">
         <f t="shared" si="19"/>
         <v>7.4109915816365799</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="12">
         <f t="shared" si="19"/>
         <v>7.5940838126540671</v>
       </c>
-      <c r="R9" s="13">
+      <c r="R9" s="12">
         <f t="shared" si="19"/>
         <v>8.1311990233718436</v>
       </c>
-      <c r="S9" s="13">
+      <c r="S9" s="12">
         <f t="shared" si="19"/>
         <v>8.6380011577467535</v>
       </c>
-      <c r="T9" s="13">
+      <c r="T9" s="12">
         <f t="shared" si="19"/>
         <v>14.002003226673835</v>
       </c>
-      <c r="U9" s="13">
+      <c r="U9" s="12">
         <f t="shared" si="19"/>
         <v>19.859301751788799</v>
       </c>
-      <c r="V9" s="13">
+      <c r="V9" s="12">
         <f>V5/V7</f>
         <v>18.896310806398954</v>
       </c>
-      <c r="W9" s="13">
+      <c r="W9" s="12">
         <f t="shared" ref="W9" si="20">W5/W7</f>
         <v>20.519406611675937</v>
       </c>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20925,7 +21017,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="16" t="s">
         <v>474</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -20933,19 +21025,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="4" t="s">
         <v>522</v>
       </c>
@@ -21084,34 +21176,34 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>525</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>531</v>
       </c>
     </row>
